--- a/WIW Data.xlsx
+++ b/WIW Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="141">
   <si>
     <t>Ticker (Equities/ETFs only)</t>
   </si>
@@ -28,409 +28,409 @@
     <t>Negative Alumni Response (No response/not negative = 0, Negative = 1)</t>
   </si>
   <si>
+    <t>SIX</t>
+  </si>
+  <si>
+    <t>DISH</t>
+  </si>
+  <si>
+    <t>PLNT</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>RKLB</t>
+  </si>
+  <si>
+    <t>FIVE</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>ORLY</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>VECO</t>
+  </si>
+  <si>
+    <t>UHS</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>NTDOY</t>
+  </si>
+  <si>
+    <t>GLBE</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>VFC</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>SLDP</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>IIPR</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>BTU</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>LVMUY</t>
+  </si>
+  <si>
+    <t>DDOG</t>
+  </si>
+  <si>
+    <t>PWR</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>PERI</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
+    <t>VRRM</t>
+  </si>
+  <si>
+    <t>CPRI</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>SI=F</t>
+  </si>
+  <si>
+    <t>NARI</t>
+  </si>
+  <si>
+    <t>ZTS</t>
+  </si>
+  <si>
+    <t>FARO</t>
+  </si>
+  <si>
+    <t>KRE</t>
+  </si>
+  <si>
+    <t>DVN</t>
+  </si>
+  <si>
+    <t>TXG</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>ONON</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>GOLF</t>
+  </si>
+  <si>
+    <t>KRUS</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>HCP</t>
+  </si>
+  <si>
+    <t>XOM</t>
+  </si>
+  <si>
+    <t>CRK</t>
+  </si>
+  <si>
+    <t>FFZ3</t>
+  </si>
+  <si>
+    <t>FERG</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>CMBX</t>
+  </si>
+  <si>
+    <t>DME</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>TSMC</t>
+  </si>
+  <si>
+    <t>ARKX</t>
+  </si>
+  <si>
+    <t>WFC</t>
+  </si>
+  <si>
+    <t>LULU</t>
+  </si>
+  <si>
+    <t>LSPN</t>
+  </si>
+  <si>
+    <t>CMG</t>
+  </si>
+  <si>
+    <t>ADSK</t>
+  </si>
+  <si>
+    <t>ICE:DXY</t>
+  </si>
+  <si>
+    <t>GSL</t>
+  </si>
+  <si>
+    <t>BEAM</t>
+  </si>
+  <si>
+    <t>VRTX</t>
+  </si>
+  <si>
+    <t>SHOP</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>TPC</t>
+  </si>
+  <si>
+    <t>LUV</t>
+  </si>
+  <si>
+    <t>DGX</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>WTI</t>
+  </si>
+  <si>
+    <t>VLD</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>PEL</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>TSM</t>
+  </si>
+  <si>
+    <t>GPK</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>IONQ</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>OXY</t>
+  </si>
+  <si>
+    <t>ETSY</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>ADR</t>
+  </si>
+  <si>
+    <t>CROX</t>
+  </si>
+  <si>
+    <t>ALGN</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>NOC</t>
+  </si>
+  <si>
+    <t>TSN</t>
+  </si>
+  <si>
+    <t>FSR</t>
+  </si>
+  <si>
+    <t>MRNA</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
+    <t>CELH</t>
+  </si>
+  <si>
+    <t>MCK</t>
+  </si>
+  <si>
+    <t>SYM</t>
+  </si>
+  <si>
+    <t>HIMS</t>
+  </si>
+  <si>
+    <t>CART</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>UAA</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>PRM</t>
+  </si>
+  <si>
+    <t>WOLF</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>COUR</t>
+  </si>
+  <si>
+    <t>GLD</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>SNY</t>
+  </si>
+  <si>
+    <t>ISRG</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>RMAX</t>
+  </si>
+  <si>
+    <t>TMUS</t>
+  </si>
+  <si>
     <t>NOW</t>
   </si>
   <si>
-    <t>XOM</t>
-  </si>
-  <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>TMUS</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRRM</t>
-  </si>
-  <si>
-    <t>CPRI</t>
-  </si>
-  <si>
-    <t>RH</t>
-  </si>
-  <si>
-    <t>AXP</t>
-  </si>
-  <si>
-    <t>SI=F</t>
-  </si>
-  <si>
-    <t>NARI</t>
-  </si>
-  <si>
-    <t>ZTS</t>
-  </si>
-  <si>
-    <t>FARO</t>
-  </si>
-  <si>
-    <t>KRE</t>
-  </si>
-  <si>
-    <t>DVN</t>
-  </si>
-  <si>
-    <t>TXG</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>ONON</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>GOLF</t>
-  </si>
-  <si>
-    <t>KRUS</t>
-  </si>
-  <si>
-    <t>EA</t>
-  </si>
-  <si>
-    <t>HCP</t>
-  </si>
-  <si>
-    <t>XON</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>CRK</t>
-  </si>
-  <si>
-    <t>FFZ3</t>
-  </si>
-  <si>
-    <t>FERG</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>CMBX</t>
-  </si>
-  <si>
-    <t>DME</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>TSMC</t>
-  </si>
-  <si>
-    <t>ARKX</t>
-  </si>
-  <si>
-    <t>WFC</t>
-  </si>
-  <si>
-    <t>LULU</t>
-  </si>
-  <si>
-    <t>LSPN</t>
-  </si>
-  <si>
-    <t>CMG</t>
-  </si>
-  <si>
-    <t>ADSK</t>
-  </si>
-  <si>
-    <t>ICE:DXY</t>
-  </si>
-  <si>
-    <t>GSL</t>
-  </si>
-  <si>
-    <t>BEAM</t>
-  </si>
-  <si>
-    <t>VRTX</t>
-  </si>
-  <si>
-    <t>SHOP</t>
-  </si>
-  <si>
-    <t>GD</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>RTX</t>
-  </si>
-  <si>
-    <t>TSN</t>
-  </si>
-  <si>
-    <t>FSR</t>
-  </si>
-  <si>
-    <t>MRNA</t>
-  </si>
-  <si>
-    <t>PLD</t>
-  </si>
-  <si>
-    <t>AMGN</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CELH</t>
-  </si>
-  <si>
-    <t>MCK</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>SYM</t>
-  </si>
-  <si>
-    <t>HIMS</t>
-  </si>
-  <si>
-    <t>CART</t>
-  </si>
-  <si>
-    <t>ALB</t>
-  </si>
-  <si>
-    <t>UAA</t>
-  </si>
-  <si>
-    <t>BTC</t>
-  </si>
-  <si>
-    <t>PRM</t>
-  </si>
-  <si>
-    <t>WOLF</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>COUR</t>
-  </si>
-  <si>
-    <t>GLD</t>
-  </si>
-  <si>
-    <t>SRS</t>
-  </si>
-  <si>
-    <t>LMT</t>
-  </si>
-  <si>
-    <t>SNY</t>
-  </si>
-  <si>
-    <t>ISRG</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>RMAX</t>
-  </si>
-  <si>
-    <t>TPC</t>
-  </si>
-  <si>
-    <t>LUV</t>
-  </si>
-  <si>
-    <t>DGX</t>
-  </si>
-  <si>
-    <t>WTI</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>VLD</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>PEL</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>GPK</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>IONQ</t>
-  </si>
-  <si>
-    <t>OXY</t>
-  </si>
-  <si>
-    <t>ETSY</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>ADR</t>
-  </si>
-  <si>
-    <t>CROX</t>
-  </si>
-  <si>
-    <t>ALGN</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>LVMH</t>
-  </si>
-  <si>
-    <t>PERI</t>
-  </si>
-  <si>
-    <t>CVS</t>
-  </si>
-  <si>
-    <t>DDOG</t>
-  </si>
-  <si>
-    <t>PWR</t>
-  </si>
-  <si>
-    <t>SPOT</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>BTU</t>
-  </si>
-  <si>
-    <t>IIPR</t>
-  </si>
-  <si>
-    <t>QCOM</t>
-  </si>
-  <si>
-    <t>VFC</t>
-  </si>
-  <si>
-    <t>SDLP</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>NUE</t>
-  </si>
-  <si>
-    <t>NTDOY</t>
-  </si>
-  <si>
-    <t>GLBE</t>
-  </si>
-  <si>
-    <t>GOOG</t>
-  </si>
-  <si>
-    <t>DELL</t>
-  </si>
-  <si>
-    <t>EL</t>
-  </si>
-  <si>
-    <t>ORLY</t>
-  </si>
-  <si>
-    <t>MCD</t>
-  </si>
-  <si>
-    <t>RUN</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>UHS</t>
-  </si>
-  <si>
-    <t>VECO</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>FIVE</t>
-  </si>
-  <si>
-    <t>RKLB</t>
-  </si>
-  <si>
-    <t>PLNT</t>
-  </si>
-  <si>
-    <t>MMM</t>
-  </si>
-  <si>
-    <t>SIX</t>
-  </si>
-  <si>
-    <t>DISH</t>
-  </si>
-  <si>
     <t>ADANIENT.NS</t>
+  </si>
+  <si>
+    <t>can y</t>
   </si>
   <si>
     <t>count</t>
@@ -732,13 +732,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C2" s="2">
-        <v>45243.0</v>
+        <v>44871.0</v>
       </c>
       <c r="D2" s="2">
-        <v>44970.0</v>
+        <v>45022.0</v>
       </c>
       <c r="E2" s="1">
         <v>0.0</v>
@@ -749,13 +749,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45244.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44871.0</v>
       </c>
       <c r="D3" s="2">
-        <v>45258.0</v>
+        <v>45236.0</v>
       </c>
       <c r="E3" s="1">
         <v>0.0</v>
@@ -766,13 +766,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="2">
-        <v>45241.0</v>
+        <v>44873.0</v>
       </c>
       <c r="D4" s="2">
-        <v>45286.0</v>
+        <v>45054.0</v>
       </c>
       <c r="E4" s="1">
         <v>0.0</v>
@@ -783,13 +783,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C5" s="2">
-        <v>45239.0</v>
+        <v>44873.0</v>
       </c>
       <c r="D5" s="2">
-        <v>45605.0</v>
+        <v>44934.0</v>
       </c>
       <c r="E5" s="1">
         <v>0.0</v>
@@ -800,16 +800,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C6" s="2">
-        <v>45239.0</v>
+        <v>44874.0</v>
       </c>
       <c r="D6" s="2">
-        <v>45605.0</v>
+        <v>45055.0</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -820,10 +820,10 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="2">
-        <v>45009.0</v>
+        <v>44874.0</v>
       </c>
       <c r="D7" s="2">
-        <v>45162.0</v>
+        <v>45055.0</v>
       </c>
       <c r="E7" s="1">
         <v>0.0</v>
@@ -834,13 +834,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="2">
-        <v>45009.0</v>
+        <v>44875.0</v>
       </c>
       <c r="D8" s="2">
-        <v>45375.0</v>
+        <v>45056.0</v>
       </c>
       <c r="E8" s="1">
         <v>0.0</v>
@@ -854,10 +854,10 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="2">
-        <v>45010.0</v>
+        <v>44876.0</v>
       </c>
       <c r="D9" s="2">
-        <v>45316.0</v>
+        <v>45149.0</v>
       </c>
       <c r="E9" s="1">
         <v>0.0</v>
@@ -871,13 +871,13 @@
         <v>1.0</v>
       </c>
       <c r="C10" s="2">
-        <v>45012.0</v>
+        <v>44878.0</v>
       </c>
       <c r="D10" s="2">
-        <v>46473.0</v>
+        <v>45243.0</v>
       </c>
       <c r="E10" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -885,13 +885,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C11" s="2">
-        <v>45013.0</v>
+        <v>44878.0</v>
       </c>
       <c r="D11" s="2">
-        <v>45379.0</v>
+        <v>45059.0</v>
       </c>
       <c r="E11" s="1">
         <v>0.0</v>
@@ -905,10 +905,10 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="2">
-        <v>45013.0</v>
+        <v>44878.0</v>
       </c>
       <c r="D12" s="2">
-        <v>46474.0</v>
+        <v>45243.0</v>
       </c>
       <c r="E12" s="1">
         <v>0.0</v>
@@ -922,10 +922,10 @@
         <v>1.0</v>
       </c>
       <c r="C13" s="2">
-        <v>45014.0</v>
+        <v>44879.0</v>
       </c>
       <c r="D13" s="2">
-        <v>45380.0</v>
+        <v>45244.0</v>
       </c>
       <c r="E13" s="1">
         <v>0.0</v>
@@ -936,13 +936,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C14" s="2">
-        <v>45015.0</v>
+        <v>44880.0</v>
       </c>
       <c r="D14" s="2">
-        <v>45029.0</v>
+        <v>45122.0</v>
       </c>
       <c r="E14" s="1">
         <v>0.0</v>
@@ -956,10 +956,10 @@
         <v>1.0</v>
       </c>
       <c r="C15" s="2">
-        <v>45016.0</v>
+        <v>44881.0</v>
       </c>
       <c r="D15" s="2">
-        <v>45565.0</v>
+        <v>45246.0</v>
       </c>
       <c r="E15" s="1">
         <v>0.0</v>
@@ -973,10 +973,10 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="2">
-        <v>45016.0</v>
+        <v>44882.0</v>
       </c>
       <c r="D16" s="2">
-        <v>45323.0</v>
+        <v>45063.0</v>
       </c>
       <c r="E16" s="1">
         <v>0.0</v>
@@ -987,13 +987,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C17" s="2">
-        <v>45017.0</v>
+        <v>44887.0</v>
       </c>
       <c r="D17" s="2">
-        <v>45748.0</v>
+        <v>44642.0</v>
       </c>
       <c r="E17" s="1">
         <v>0.0</v>
@@ -1007,10 +1007,10 @@
         <v>1.0</v>
       </c>
       <c r="C18" s="2">
-        <v>45018.0</v>
+        <v>44966.0</v>
       </c>
       <c r="D18" s="2">
-        <v>45140.0</v>
+        <v>45147.0</v>
       </c>
       <c r="E18" s="1">
         <v>0.0</v>
@@ -1024,10 +1024,10 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="2">
-        <v>45018.0</v>
+        <v>44966.0</v>
       </c>
       <c r="D19" s="2">
-        <v>45384.0</v>
+        <v>45331.0</v>
       </c>
       <c r="E19" s="1">
         <v>0.0</v>
@@ -1038,13 +1038,13 @@
         <v>23</v>
       </c>
       <c r="B20" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C20" s="2">
-        <v>45019.0</v>
+        <v>44966.0</v>
       </c>
       <c r="D20" s="2">
-        <v>45325.0</v>
+        <v>45331.0</v>
       </c>
       <c r="E20" s="1">
         <v>0.0</v>
@@ -1058,10 +1058,10 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="2">
-        <v>45020.0</v>
+        <v>44967.0</v>
       </c>
       <c r="D21" s="2">
-        <v>45751.0</v>
+        <v>45240.0</v>
       </c>
       <c r="E21" s="1">
         <v>0.0</v>
@@ -1072,13 +1072,13 @@
         <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C22" s="2">
-        <v>45020.0</v>
+        <v>44967.0</v>
       </c>
       <c r="D22" s="2">
-        <v>45291.0</v>
+        <v>45332.0</v>
       </c>
       <c r="E22" s="1">
         <v>0.0</v>
@@ -1092,10 +1092,10 @@
         <v>1.0</v>
       </c>
       <c r="C23" s="2">
-        <v>45021.0</v>
+        <v>44967.0</v>
       </c>
       <c r="D23" s="2">
-        <v>45752.0</v>
+        <v>45332.0</v>
       </c>
       <c r="E23" s="1">
         <v>0.0</v>
@@ -1109,10 +1109,10 @@
         <v>-1.0</v>
       </c>
       <c r="C24" s="2">
-        <v>45021.0</v>
+        <v>44969.0</v>
       </c>
       <c r="D24" s="2">
-        <v>45143.0</v>
+        <v>45119.0</v>
       </c>
       <c r="E24" s="1">
         <v>0.0</v>
@@ -1123,13 +1123,13 @@
         <v>28</v>
       </c>
       <c r="B25" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C25" s="2">
-        <v>45021.0</v>
+        <v>44970.0</v>
       </c>
       <c r="D25" s="2">
-        <v>45387.0</v>
+        <v>45335.0</v>
       </c>
       <c r="E25" s="1">
         <v>0.0</v>
@@ -1140,13 +1140,13 @@
         <v>29</v>
       </c>
       <c r="B26" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C26" s="2">
-        <v>45022.0</v>
+        <v>44970.0</v>
       </c>
       <c r="D26" s="2">
-        <v>45045.0</v>
+        <v>45243.0</v>
       </c>
       <c r="E26" s="1">
         <v>0.0</v>
@@ -1157,13 +1157,13 @@
         <v>30</v>
       </c>
       <c r="B27" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C27" s="2">
-        <v>45022.0</v>
+        <v>44971.0</v>
       </c>
       <c r="D27" s="2">
-        <v>45029.0</v>
+        <v>46067.0</v>
       </c>
       <c r="E27" s="1">
         <v>0.0</v>
@@ -1174,13 +1174,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C28" s="2">
-        <v>45023.0</v>
+        <v>44971.0</v>
       </c>
       <c r="D28" s="2">
-        <v>45176.0</v>
+        <v>45152.0</v>
       </c>
       <c r="E28" s="1">
         <v>0.0</v>
@@ -1191,16 +1191,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C29" s="2">
-        <v>45023.0</v>
+        <v>44973.0</v>
       </c>
       <c r="D29" s="2">
-        <v>45291.0</v>
+        <v>45154.0</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -1211,10 +1211,10 @@
         <v>1.0</v>
       </c>
       <c r="C30" s="2">
-        <v>45028.0</v>
+        <v>44973.0</v>
       </c>
       <c r="D30" s="2">
-        <v>45394.0</v>
+        <v>45704.0</v>
       </c>
       <c r="E30" s="1">
         <v>0.0</v>
@@ -1225,13 +1225,13 @@
         <v>34</v>
       </c>
       <c r="B31" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C31" s="2">
-        <v>45028.0</v>
+        <v>44974.0</v>
       </c>
       <c r="D31" s="2">
-        <v>46489.0</v>
+        <v>45063.0</v>
       </c>
       <c r="E31" s="1">
         <v>0.0</v>
@@ -1242,13 +1242,13 @@
         <v>35</v>
       </c>
       <c r="B32" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C32" s="2">
-        <v>45028.0</v>
+        <v>44974.0</v>
       </c>
       <c r="D32" s="2">
-        <v>45150.0</v>
+        <v>45339.0</v>
       </c>
       <c r="E32" s="1">
         <v>0.0</v>
@@ -1262,10 +1262,10 @@
         <v>1.0</v>
       </c>
       <c r="C33" s="2">
-        <v>45029.0</v>
+        <v>44975.0</v>
       </c>
       <c r="D33" s="2">
-        <v>45049.0</v>
+        <v>45340.0</v>
       </c>
       <c r="E33" s="1">
         <v>0.0</v>
@@ -1276,13 +1276,13 @@
         <v>37</v>
       </c>
       <c r="B34" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C34" s="2">
-        <v>45029.0</v>
+        <v>44975.0</v>
       </c>
       <c r="D34" s="2">
-        <v>45243.0</v>
+        <v>45156.0</v>
       </c>
       <c r="E34" s="1">
         <v>0.0</v>
@@ -1296,10 +1296,10 @@
         <v>1.0</v>
       </c>
       <c r="C35" s="2">
-        <v>45029.0</v>
+        <v>44976.0</v>
       </c>
       <c r="D35" s="2">
-        <v>45395.0</v>
+        <v>45096.0</v>
       </c>
       <c r="E35" s="1">
         <v>0.0</v>
@@ -1310,13 +1310,13 @@
         <v>39</v>
       </c>
       <c r="B36" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>45030.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>44976.0</v>
       </c>
       <c r="D36" s="2">
-        <v>45579.0</v>
+        <v>45096.0</v>
       </c>
       <c r="E36" s="1">
         <v>0.0</v>
@@ -1330,10 +1330,10 @@
         <v>1.0</v>
       </c>
       <c r="C37" s="2">
-        <v>45030.0</v>
+        <v>44976.0</v>
       </c>
       <c r="D37" s="2">
-        <v>45213.0</v>
+        <v>45341.0</v>
       </c>
       <c r="E37" s="1">
         <v>0.0</v>
@@ -1347,13 +1347,13 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="2">
-        <v>45030.0</v>
+        <v>44977.0</v>
       </c>
       <c r="D38" s="2">
-        <v>45761.0</v>
+        <v>45342.0</v>
       </c>
       <c r="E38" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -1364,10 +1364,10 @@
         <v>1.0</v>
       </c>
       <c r="C39" s="2">
-        <v>45031.0</v>
+        <v>44977.0</v>
       </c>
       <c r="D39" s="2">
-        <v>45397.0</v>
+        <v>45291.0</v>
       </c>
       <c r="E39" s="1">
         <v>0.0</v>
@@ -1381,10 +1381,10 @@
         <v>1.0</v>
       </c>
       <c r="C40" s="2">
-        <v>45032.0</v>
+        <v>44977.0</v>
       </c>
       <c r="D40" s="2">
-        <v>45489.0</v>
+        <v>45342.0</v>
       </c>
       <c r="E40" s="1">
         <v>0.0</v>
@@ -1398,10 +1398,10 @@
         <v>1.0</v>
       </c>
       <c r="C41" s="2">
-        <v>45033.0</v>
+        <v>44978.0</v>
       </c>
       <c r="D41" s="2">
-        <v>45291.0</v>
+        <v>45343.0</v>
       </c>
       <c r="E41" s="1">
         <v>0.0</v>
@@ -1415,10 +1415,10 @@
         <v>1.0</v>
       </c>
       <c r="C42" s="2">
-        <v>45033.0</v>
+        <v>45009.0</v>
       </c>
       <c r="D42" s="2">
-        <v>45124.0</v>
+        <v>45162.0</v>
       </c>
       <c r="E42" s="1">
         <v>0.0</v>
@@ -1429,13 +1429,13 @@
         <v>46</v>
       </c>
       <c r="B43" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C43" s="2">
-        <v>45033.0</v>
+        <v>45009.0</v>
       </c>
       <c r="D43" s="2">
-        <v>46129.0</v>
+        <v>45375.0</v>
       </c>
       <c r="E43" s="1">
         <v>0.0</v>
@@ -1449,10 +1449,10 @@
         <v>1.0</v>
       </c>
       <c r="C44" s="2">
-        <v>45033.0</v>
+        <v>45010.0</v>
       </c>
       <c r="D44" s="2">
-        <v>45764.0</v>
+        <v>45316.0</v>
       </c>
       <c r="E44" s="1">
         <v>0.0</v>
@@ -1466,10 +1466,10 @@
         <v>1.0</v>
       </c>
       <c r="C45" s="2">
-        <v>45034.0</v>
+        <v>45012.0</v>
       </c>
       <c r="D45" s="2">
-        <v>45765.0</v>
+        <v>46473.0</v>
       </c>
       <c r="E45" s="1">
         <v>0.0</v>
@@ -1483,10 +1483,10 @@
         <v>1.0</v>
       </c>
       <c r="C46" s="2">
-        <v>45034.0</v>
+        <v>45013.0</v>
       </c>
       <c r="D46" s="2">
-        <v>45051.0</v>
+        <v>45379.0</v>
       </c>
       <c r="E46" s="1">
         <v>0.0</v>
@@ -1500,39 +1500,78 @@
         <v>1.0</v>
       </c>
       <c r="C47" s="2">
-        <v>45035.0</v>
+        <v>45013.0</v>
       </c>
       <c r="D47" s="2">
-        <v>45584.0</v>
+        <v>46474.0</v>
       </c>
       <c r="E47" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="A48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45014.0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45380.0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45015.0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45029.0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="50">
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45016.0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45565.0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1">
         <v>1.0</v>
       </c>
       <c r="C51" s="2">
-        <v>45214.0</v>
+        <v>45016.0</v>
       </c>
       <c r="D51" s="2">
-        <v>45000.0</v>
+        <v>45323.0</v>
       </c>
       <c r="E51" s="1">
         <v>0.0</v>
@@ -1540,16 +1579,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C52" s="2">
-        <v>45214.0</v>
+        <v>45017.0</v>
       </c>
       <c r="D52" s="2">
-        <v>45232.0</v>
+        <v>45748.0</v>
       </c>
       <c r="E52" s="1">
         <v>0.0</v>
@@ -1557,16 +1596,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B53" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C53" s="2">
-        <v>45215.0</v>
+        <v>45018.0</v>
       </c>
       <c r="D53" s="2">
-        <v>45398.0</v>
+        <v>45140.0</v>
       </c>
       <c r="E53" s="1">
         <v>0.0</v>
@@ -1574,16 +1613,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B54" s="1">
         <v>1.0</v>
       </c>
       <c r="C54" s="2">
-        <v>45216.0</v>
+        <v>45018.0</v>
       </c>
       <c r="D54" s="2">
-        <v>45339.0</v>
+        <v>45384.0</v>
       </c>
       <c r="E54" s="1">
         <v>0.0</v>
@@ -1591,16 +1630,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C55" s="2">
-        <v>45217.0</v>
+        <v>45019.0</v>
       </c>
       <c r="D55" s="2">
-        <v>45310.0</v>
+        <v>45325.0</v>
       </c>
       <c r="E55" s="1">
         <v>0.0</v>
@@ -1608,16 +1647,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C56" s="2">
-        <v>45218.0</v>
+        <v>45020.0</v>
       </c>
       <c r="D56" s="2">
-        <v>45310.0</v>
+        <v>45751.0</v>
       </c>
       <c r="E56" s="1">
         <v>0.0</v>
@@ -1625,33 +1664,33 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C57" s="2">
-        <v>45218.0</v>
-      </c>
-      <c r="D57" s="3">
-        <v>45949.0</v>
+        <v>45020.0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45291.0</v>
       </c>
       <c r="E57" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C58" s="2">
-        <v>45219.0</v>
+        <v>45021.0</v>
       </c>
       <c r="D58" s="2">
-        <v>45280.0</v>
+        <v>45752.0</v>
       </c>
       <c r="E58" s="1">
         <v>0.0</v>
@@ -1659,16 +1698,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B59" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C59" s="2">
-        <v>45220.0</v>
+        <v>45021.0</v>
       </c>
       <c r="D59" s="2">
-        <v>44947.0</v>
+        <v>45143.0</v>
       </c>
       <c r="E59" s="1">
         <v>0.0</v>
@@ -1676,33 +1715,50 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B60" s="1">
         <v>1.0</v>
       </c>
       <c r="C60" s="2">
-        <v>45220.0</v>
+        <v>45021.0</v>
       </c>
       <c r="D60" s="2">
-        <v>45312.0</v>
+        <v>45387.0</v>
       </c>
       <c r="E60" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45022.0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45045.0</v>
+      </c>
+      <c r="E61" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B62" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C62" s="2">
-        <v>45221.0</v>
+        <v>45022.0</v>
       </c>
       <c r="D62" s="2">
-        <v>45495.0</v>
+        <v>45029.0</v>
       </c>
       <c r="E62" s="1">
         <v>0.0</v>
@@ -1710,16 +1766,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C63" s="2">
-        <v>45222.0</v>
+        <v>45023.0</v>
       </c>
       <c r="D63" s="2">
-        <v>45227.0</v>
+        <v>45176.0</v>
       </c>
       <c r="E63" s="1">
         <v>0.0</v>
@@ -1727,16 +1783,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B64" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C64" s="2">
-        <v>45222.0</v>
+        <v>45023.0</v>
       </c>
       <c r="D64" s="2">
-        <v>45619.0</v>
+        <v>45291.0</v>
       </c>
       <c r="E64" s="1">
         <v>0.0</v>
@@ -1744,16 +1800,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C65" s="2">
-        <v>45222.0</v>
+        <v>45028.0</v>
       </c>
       <c r="D65" s="2">
-        <v>44980.0</v>
+        <v>45394.0</v>
       </c>
       <c r="E65" s="1">
         <v>0.0</v>
@@ -1761,16 +1817,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B66" s="1">
         <v>1.0</v>
       </c>
       <c r="C66" s="2">
-        <v>45223.0</v>
+        <v>45028.0</v>
       </c>
       <c r="D66" s="2">
-        <v>45040.0</v>
+        <v>46489.0</v>
       </c>
       <c r="E66" s="1">
         <v>0.0</v>
@@ -1778,16 +1834,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B67" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C67" s="2">
-        <v>45224.0</v>
+        <v>45028.0</v>
       </c>
       <c r="D67" s="2">
-        <v>45041.0</v>
+        <v>45150.0</v>
       </c>
       <c r="E67" s="1">
         <v>0.0</v>
@@ -1795,16 +1851,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1">
         <v>1.0</v>
       </c>
       <c r="C68" s="2">
-        <v>45224.0</v>
+        <v>45029.0</v>
       </c>
       <c r="D68" s="2">
-        <v>45250.0</v>
+        <v>45049.0</v>
       </c>
       <c r="E68" s="1">
         <v>0.0</v>
@@ -1812,16 +1868,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B69" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C69" s="2">
-        <v>45224.0</v>
+        <v>45029.0</v>
       </c>
       <c r="D69" s="2">
-        <v>45041.0</v>
+        <v>45243.0</v>
       </c>
       <c r="E69" s="1">
         <v>0.0</v>
@@ -1829,16 +1885,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B70" s="1">
         <v>1.0</v>
       </c>
       <c r="C70" s="2">
-        <v>45225.0</v>
+        <v>45029.0</v>
       </c>
       <c r="D70" s="2">
-        <v>45335.0</v>
+        <v>45395.0</v>
       </c>
       <c r="E70" s="1">
         <v>0.0</v>
@@ -1846,16 +1902,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C71" s="2">
-        <v>45225.0</v>
+        <v>45030.0</v>
       </c>
       <c r="D71" s="2">
-        <v>45317.0</v>
+        <v>45579.0</v>
       </c>
       <c r="E71" s="1">
         <v>0.0</v>
@@ -1863,16 +1919,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1">
         <v>1.0</v>
       </c>
       <c r="C72" s="2">
-        <v>45225.0</v>
+        <v>45030.0</v>
       </c>
       <c r="D72" s="2">
-        <v>45256.0</v>
+        <v>45213.0</v>
       </c>
       <c r="E72" s="1">
         <v>0.0</v>
@@ -1880,33 +1936,33 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B73" s="1">
         <v>1.0</v>
       </c>
       <c r="C73" s="2">
-        <v>45226.0</v>
+        <v>45030.0</v>
       </c>
       <c r="D73" s="2">
-        <v>44953.0</v>
+        <v>45761.0</v>
       </c>
       <c r="E73" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B74" s="1">
         <v>1.0</v>
       </c>
       <c r="C74" s="2">
-        <v>45226.0</v>
+        <v>45031.0</v>
       </c>
       <c r="D74" s="2">
-        <v>45240.0</v>
+        <v>45397.0</v>
       </c>
       <c r="E74" s="1">
         <v>0.0</v>
@@ -1914,16 +1970,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B75" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C75" s="2">
-        <v>45227.0</v>
+        <v>45032.0</v>
       </c>
       <c r="D75" s="2">
-        <v>45319.0</v>
+        <v>45489.0</v>
       </c>
       <c r="E75" s="1">
         <v>0.0</v>
@@ -1931,16 +1987,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B76" s="1">
         <v>1.0</v>
       </c>
       <c r="C76" s="2">
-        <v>45227.0</v>
+        <v>45033.0</v>
       </c>
       <c r="D76" s="2">
-        <v>45410.0</v>
+        <v>45291.0</v>
       </c>
       <c r="E76" s="1">
         <v>0.0</v>
@@ -1948,16 +2004,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B77" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C77" s="2">
-        <v>45229.0</v>
-      </c>
-      <c r="D77" s="3">
-        <v>45234.0</v>
+        <v>45033.0</v>
+      </c>
+      <c r="D77" s="2">
+        <v>45124.0</v>
       </c>
       <c r="E77" s="1">
         <v>0.0</v>
@@ -1965,16 +2021,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B78" s="1">
         <v>1.0</v>
       </c>
       <c r="C78" s="2">
-        <v>45230.0</v>
+        <v>45033.0</v>
       </c>
       <c r="D78" s="2">
-        <v>45596.0</v>
+        <v>46129.0</v>
       </c>
       <c r="E78" s="1">
         <v>0.0</v>
@@ -1982,16 +2038,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C79" s="2">
-        <v>45230.0</v>
-      </c>
-      <c r="D79" s="3">
-        <v>45596.0</v>
+        <v>45033.0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45764.0</v>
       </c>
       <c r="E79" s="1">
         <v>0.0</v>
@@ -1999,16 +2055,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B80" s="1">
         <v>1.0</v>
       </c>
-      <c r="C80" s="3">
-        <v>45231.0</v>
-      </c>
-      <c r="D80" s="3">
-        <v>45413.0</v>
+      <c r="C80" s="2">
+        <v>45034.0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45765.0</v>
       </c>
       <c r="E80" s="1">
         <v>0.0</v>
@@ -2016,16 +2072,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B81" s="1">
         <v>1.0</v>
       </c>
       <c r="C81" s="2">
-        <v>45231.0</v>
+        <v>45034.0</v>
       </c>
       <c r="D81" s="2">
-        <v>45657.0</v>
+        <v>45051.0</v>
       </c>
       <c r="E81" s="1">
         <v>0.0</v>
@@ -2033,16 +2089,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1">
         <v>1.0</v>
       </c>
       <c r="C82" s="2">
-        <v>45233.0</v>
+        <v>45035.0</v>
       </c>
       <c r="D82" s="2">
-        <v>45325.0</v>
+        <v>45584.0</v>
       </c>
       <c r="E82" s="1">
         <v>0.0</v>
@@ -2050,16 +2106,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B83" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C83" s="2">
-        <v>45233.0</v>
-      </c>
-      <c r="D83" s="2">
-        <v>45263.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C83" s="3">
+        <v>45036.0</v>
+      </c>
+      <c r="D83" s="3">
+        <v>45050.0</v>
       </c>
       <c r="E83" s="1">
         <v>0.0</v>
@@ -2067,16 +2123,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B84" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C84" s="2">
-        <v>45233.0</v>
-      </c>
-      <c r="D84" s="2">
-        <v>45964.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C84" s="3">
+        <v>45037.0</v>
+      </c>
+      <c r="D84" s="3">
+        <v>45098.0</v>
       </c>
       <c r="E84" s="1">
         <v>0.0</v>
@@ -2084,16 +2140,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B85" s="1">
         <v>-1.0</v>
       </c>
-      <c r="C85" s="2">
-        <v>45234.0</v>
-      </c>
-      <c r="D85" s="2">
-        <v>45326.0</v>
+      <c r="C85" s="3">
+        <v>45190.0</v>
+      </c>
+      <c r="D85" s="3">
+        <v>45220.0</v>
       </c>
       <c r="E85" s="1">
         <v>0.0</v>
@@ -2101,16 +2157,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1">
         <v>1.0</v>
       </c>
-      <c r="C86" s="2">
-        <v>45234.0</v>
-      </c>
-      <c r="D86" s="2">
-        <v>45295.0</v>
+      <c r="C86" s="3">
+        <v>45192.0</v>
+      </c>
+      <c r="D86" s="3">
+        <v>45558.0</v>
       </c>
       <c r="E86" s="1">
         <v>0.0</v>
@@ -2118,33 +2174,33 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B87" s="1">
         <v>1.0</v>
       </c>
-      <c r="C87" s="2">
-        <v>45234.0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>45369.0</v>
+      <c r="C87" s="3">
+        <v>45193.0</v>
+      </c>
+      <c r="D87" s="3">
+        <v>45376.0</v>
       </c>
       <c r="E87" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B88" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C88" s="2">
-        <v>45236.0</v>
-      </c>
-      <c r="D88" s="2">
-        <v>45328.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C88" s="3">
+        <v>45194.0</v>
+      </c>
+      <c r="D88" s="3">
+        <v>45255.0</v>
       </c>
       <c r="E88" s="1">
         <v>0.0</v>
@@ -2152,33 +2208,67 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B89" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C89" s="3">
+        <v>45195.0</v>
+      </c>
+      <c r="D89" s="3">
+        <v>45225.0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="1">
         <v>-1.0</v>
       </c>
-      <c r="C89" s="2">
-        <v>45236.0</v>
-      </c>
-      <c r="D89" s="2">
-        <v>45357.0</v>
-      </c>
-      <c r="E89" s="1">
+      <c r="C90" s="3">
+        <v>45196.0</v>
+      </c>
+      <c r="D90" s="3">
+        <v>45287.0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C91" s="3">
+        <v>45196.0</v>
+      </c>
+      <c r="D91" s="3">
+        <v>45378.0</v>
+      </c>
+      <c r="E91" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B92" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C92" s="3">
-        <v>45036.0</v>
-      </c>
-      <c r="D92" s="3">
-        <v>45050.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45197.0</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45350.0</v>
       </c>
       <c r="E92" s="1">
         <v>0.0</v>
@@ -2186,16 +2276,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B93" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C93" s="3">
-        <v>45037.0</v>
-      </c>
-      <c r="D93" s="3">
-        <v>45098.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45197.0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>45563.0</v>
       </c>
       <c r="E93" s="1">
         <v>0.0</v>
@@ -2203,16 +2293,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B94" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C94" s="3">
-        <v>45190.0</v>
-      </c>
-      <c r="D94" s="3">
-        <v>45220.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45197.0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>45563.0</v>
       </c>
       <c r="E94" s="1">
         <v>0.0</v>
@@ -2220,16 +2310,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B95" s="1">
         <v>1.0</v>
       </c>
-      <c r="C95" s="3">
-        <v>45192.0</v>
-      </c>
-      <c r="D95" s="3">
-        <v>45558.0</v>
+      <c r="C95" s="2">
+        <v>45198.0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>45745.0</v>
       </c>
       <c r="E95" s="1">
         <v>0.0</v>
@@ -2237,16 +2327,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B96" s="1">
         <v>1.0</v>
       </c>
-      <c r="C96" s="3">
-        <v>45194.0</v>
-      </c>
-      <c r="D96" s="3">
-        <v>45255.0</v>
+      <c r="C96" s="2">
+        <v>45199.0</v>
+      </c>
+      <c r="D96" s="2">
+        <v>45746.0</v>
       </c>
       <c r="E96" s="1">
         <v>0.0</v>
@@ -2254,33 +2344,33 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B97" s="1">
         <v>1.0</v>
       </c>
       <c r="C97" s="3">
-        <v>45193.0</v>
+        <v>45199.0</v>
       </c>
       <c r="D97" s="3">
-        <v>45376.0</v>
+        <v>46295.0</v>
       </c>
       <c r="E97" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B98" s="1">
         <v>1.0</v>
       </c>
       <c r="C98" s="3">
-        <v>45195.0</v>
+        <v>45199.0</v>
       </c>
       <c r="D98" s="3">
-        <v>45225.0</v>
+        <v>45565.0</v>
       </c>
       <c r="E98" s="1">
         <v>0.0</v>
@@ -2288,16 +2378,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B99" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C99" s="3">
-        <v>45196.0</v>
+        <v>45200.0</v>
       </c>
       <c r="D99" s="3">
-        <v>45287.0</v>
+        <v>45748.0</v>
       </c>
       <c r="E99" s="1">
         <v>0.0</v>
@@ -2305,16 +2395,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B100" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C100" s="3">
-        <v>45196.0</v>
+        <v>45200.0</v>
       </c>
       <c r="D100" s="3">
-        <v>45378.0</v>
+        <v>45261.0</v>
       </c>
       <c r="E100" s="1">
         <v>0.0</v>
@@ -2322,16 +2412,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B101" s="1">
         <v>1.0</v>
       </c>
-      <c r="C101" s="2">
-        <v>45197.0</v>
-      </c>
-      <c r="D101" s="2">
-        <v>45350.0</v>
+      <c r="C101" s="3">
+        <v>45200.0</v>
+      </c>
+      <c r="D101" s="3">
+        <v>45505.0</v>
       </c>
       <c r="E101" s="1">
         <v>0.0</v>
@@ -2339,16 +2429,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B102" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C102" s="2">
-        <v>45197.0</v>
-      </c>
-      <c r="D102" s="2">
-        <v>45563.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C102" s="3">
+        <v>45201.0</v>
+      </c>
+      <c r="D102" s="3">
+        <v>45384.0</v>
       </c>
       <c r="E102" s="1">
         <v>0.0</v>
@@ -2356,33 +2446,33 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B103" s="1">
         <v>1.0</v>
       </c>
-      <c r="C103" s="2">
-        <v>45197.0</v>
-      </c>
-      <c r="D103" s="2">
-        <v>45563.0</v>
+      <c r="C103" s="3">
+        <v>45201.0</v>
+      </c>
+      <c r="D103" s="3">
+        <v>45932.0</v>
       </c>
       <c r="E103" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B104" s="1">
         <v>1.0</v>
       </c>
-      <c r="C104" s="2">
-        <v>45198.0</v>
-      </c>
-      <c r="D104" s="2">
-        <v>45745.0</v>
+      <c r="C104" s="3">
+        <v>45203.0</v>
+      </c>
+      <c r="D104" s="3">
+        <v>45264.0</v>
       </c>
       <c r="E104" s="1">
         <v>0.0</v>
@@ -2390,16 +2480,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="B105" s="1">
         <v>1.0</v>
       </c>
-      <c r="C105" s="2">
-        <v>45199.0</v>
-      </c>
-      <c r="D105" s="2">
-        <v>45746.0</v>
+      <c r="C105" s="3">
+        <v>45205.0</v>
+      </c>
+      <c r="D105" s="3">
+        <v>45297.0</v>
       </c>
       <c r="E105" s="1">
         <v>0.0</v>
@@ -2407,16 +2497,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1">
         <v>1.0</v>
       </c>
       <c r="C106" s="3">
-        <v>45199.0</v>
+        <v>45207.0</v>
       </c>
       <c r="D106" s="3">
-        <v>46295.0</v>
+        <v>45573.0</v>
       </c>
       <c r="E106" s="1">
         <v>0.0</v>
@@ -2424,16 +2514,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1">
         <v>1.0</v>
       </c>
-      <c r="C107" s="3">
-        <v>45199.0</v>
-      </c>
-      <c r="D107" s="3">
-        <v>45565.0</v>
+      <c r="C107" s="2">
+        <v>45208.0</v>
+      </c>
+      <c r="D107" s="2">
+        <v>45269.0</v>
       </c>
       <c r="E107" s="1">
         <v>0.0</v>
@@ -2441,16 +2531,16 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1">
         <v>1.0</v>
       </c>
-      <c r="C108" s="3">
-        <v>45200.0</v>
-      </c>
-      <c r="D108" s="3">
-        <v>45748.0</v>
+      <c r="C108" s="2">
+        <v>45210.0</v>
+      </c>
+      <c r="D108" s="2">
+        <v>45302.0</v>
       </c>
       <c r="E108" s="1">
         <v>0.0</v>
@@ -2458,16 +2548,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1">
         <v>-1.0</v>
       </c>
-      <c r="C109" s="3">
-        <v>45200.0</v>
-      </c>
-      <c r="D109" s="3">
-        <v>45261.0</v>
+      <c r="C109" s="2">
+        <v>45210.0</v>
+      </c>
+      <c r="D109" s="2">
+        <v>45271.0</v>
       </c>
       <c r="E109" s="1">
         <v>0.0</v>
@@ -2475,16 +2565,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B110" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C110" s="3">
-        <v>45200.0</v>
-      </c>
-      <c r="D110" s="3">
-        <v>45505.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C110" s="2">
+        <v>45212.0</v>
+      </c>
+      <c r="D110" s="2">
+        <v>45243.0</v>
       </c>
       <c r="E110" s="1">
         <v>0.0</v>
@@ -2492,16 +2582,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B111" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C111" s="3">
-        <v>45201.0</v>
+        <v>45213.0</v>
       </c>
       <c r="D111" s="3">
-        <v>45384.0</v>
+        <v>45365.0</v>
       </c>
       <c r="E111" s="1">
         <v>0.0</v>
@@ -2509,16 +2599,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B112" s="1">
         <v>1.0</v>
       </c>
-      <c r="C112" s="3">
-        <v>45203.0</v>
-      </c>
-      <c r="D112" s="3">
-        <v>45264.0</v>
+      <c r="C112" s="2">
+        <v>45214.0</v>
+      </c>
+      <c r="D112" s="2">
+        <v>45000.0</v>
       </c>
       <c r="E112" s="1">
         <v>0.0</v>
@@ -2526,33 +2616,33 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="B113" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C113" s="3">
-        <v>45201.0</v>
-      </c>
-      <c r="D113" s="3">
-        <v>45932.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C113" s="2">
+        <v>45214.0</v>
+      </c>
+      <c r="D113" s="2">
+        <v>45232.0</v>
       </c>
       <c r="E113" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B114" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C114" s="3">
-        <v>45205.0</v>
-      </c>
-      <c r="D114" s="3">
-        <v>45297.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45215.0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>45398.0</v>
       </c>
       <c r="E114" s="1">
         <v>0.0</v>
@@ -2560,16 +2650,16 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B115" s="1">
         <v>1.0</v>
       </c>
-      <c r="C115" s="3">
-        <v>45207.0</v>
-      </c>
-      <c r="D115" s="3">
-        <v>45573.0</v>
+      <c r="C115" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="D115" s="2">
+        <v>45339.0</v>
       </c>
       <c r="E115" s="1">
         <v>0.0</v>
@@ -2577,16 +2667,16 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B116" s="1">
         <v>1.0</v>
       </c>
       <c r="C116" s="2">
-        <v>45208.0</v>
+        <v>45217.0</v>
       </c>
       <c r="D116" s="2">
-        <v>45269.0</v>
+        <v>45310.0</v>
       </c>
       <c r="E116" s="1">
         <v>0.0</v>
@@ -2594,16 +2684,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B117" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C117" s="2">
-        <v>45210.0</v>
+        <v>45218.0</v>
       </c>
       <c r="D117" s="2">
-        <v>45302.0</v>
+        <v>45310.0</v>
       </c>
       <c r="E117" s="1">
         <v>0.0</v>
@@ -2611,33 +2701,33 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B118" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C118" s="2">
-        <v>45210.0</v>
-      </c>
-      <c r="D118" s="2">
-        <v>45271.0</v>
+        <v>45218.0</v>
+      </c>
+      <c r="D118" s="3">
+        <v>45949.0</v>
       </c>
       <c r="E118" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B119" s="1">
         <v>-1.0</v>
       </c>
       <c r="C119" s="2">
-        <v>45212.0</v>
+        <v>45219.0</v>
       </c>
       <c r="D119" s="2">
-        <v>45243.0</v>
+        <v>45280.0</v>
       </c>
       <c r="E119" s="1">
         <v>0.0</v>
@@ -2645,50 +2735,186 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="B120" s="1">
         <v>1.0</v>
       </c>
-      <c r="C120" s="3">
-        <v>45213.0</v>
-      </c>
-      <c r="D120" s="3">
-        <v>45365.0</v>
+      <c r="C120" s="2">
+        <v>45220.0</v>
+      </c>
+      <c r="D120" s="2">
+        <v>44947.0</v>
       </c>
       <c r="E120" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45220.0</v>
+      </c>
+      <c r="D121" s="2">
+        <v>45312.0</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C122" s="2">
+        <v>45221.0</v>
+      </c>
+      <c r="D122" s="2">
+        <v>45495.0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C123" s="2">
+        <v>45222.0</v>
+      </c>
+      <c r="D123" s="2">
+        <v>45227.0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C124" s="2">
+        <v>45222.0</v>
+      </c>
+      <c r="D124" s="2">
+        <v>45619.0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B125" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C125" s="2">
+        <v>45222.0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>44980.0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45223.0</v>
+      </c>
+      <c r="D126" s="2">
+        <v>45040.0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45224.0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>45041.0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C128" s="2">
+        <v>45224.0</v>
+      </c>
+      <c r="D128" s="2">
+        <v>45250.0</v>
+      </c>
+      <c r="E128" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B129" s="1">
         <v>1.0</v>
       </c>
       <c r="C129" s="2">
-        <v>44973.0</v>
+        <v>45224.0</v>
       </c>
       <c r="D129" s="2">
-        <v>45154.0</v>
+        <v>45041.0</v>
       </c>
       <c r="E129" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B130" s="1">
         <v>1.0</v>
       </c>
       <c r="C130" s="2">
-        <v>44978.0</v>
+        <v>45225.0</v>
       </c>
       <c r="D130" s="2">
-        <v>45343.0</v>
+        <v>45335.0</v>
       </c>
       <c r="E130" s="1">
         <v>0.0</v>
@@ -2696,16 +2922,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B131" s="1">
         <v>1.0</v>
       </c>
       <c r="C131" s="2">
-        <v>44977.0</v>
+        <v>45225.0</v>
       </c>
       <c r="D131" s="2">
-        <v>45342.0</v>
+        <v>45317.0</v>
       </c>
       <c r="E131" s="1">
         <v>0.0</v>
@@ -2713,16 +2939,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B132" s="1">
         <v>1.0</v>
       </c>
       <c r="C132" s="2">
-        <v>44976.0</v>
+        <v>45225.0</v>
       </c>
       <c r="D132" s="2">
-        <v>45096.0</v>
+        <v>45256.0</v>
       </c>
       <c r="E132" s="1">
         <v>0.0</v>
@@ -2730,16 +2956,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B133" s="1">
         <v>1.0</v>
       </c>
       <c r="C133" s="2">
-        <v>44977.0</v>
+        <v>45226.0</v>
       </c>
       <c r="D133" s="2">
-        <v>45291.0</v>
+        <v>44953.0</v>
       </c>
       <c r="E133" s="1">
         <v>0.0</v>
@@ -2747,16 +2973,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B134" s="1">
         <v>1.0</v>
       </c>
       <c r="C134" s="2">
-        <v>44977.0</v>
+        <v>45226.0</v>
       </c>
       <c r="D134" s="2">
-        <v>45342.0</v>
+        <v>45240.0</v>
       </c>
       <c r="E134" s="1">
         <v>0.0</v>
@@ -2764,16 +2990,16 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B135" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C135" s="3">
-        <v>44976.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45227.0</v>
       </c>
       <c r="D135" s="2">
-        <v>45096.0</v>
+        <v>45319.0</v>
       </c>
       <c r="E135" s="1">
         <v>0.0</v>
@@ -2781,16 +3007,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B136" s="1">
         <v>1.0</v>
       </c>
       <c r="C136" s="2">
-        <v>44976.0</v>
+        <v>45227.0</v>
       </c>
       <c r="D136" s="2">
-        <v>45341.0</v>
+        <v>45410.0</v>
       </c>
       <c r="E136" s="1">
         <v>0.0</v>
@@ -2798,16 +3024,16 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B137" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C137" s="2">
-        <v>44975.0</v>
-      </c>
-      <c r="D137" s="2">
-        <v>45340.0</v>
+        <v>45229.0</v>
+      </c>
+      <c r="D137" s="3">
+        <v>45234.0</v>
       </c>
       <c r="E137" s="1">
         <v>0.0</v>
@@ -2815,16 +3041,16 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B138" s="1">
         <v>1.0</v>
       </c>
       <c r="C138" s="2">
-        <v>44975.0</v>
+        <v>45230.0</v>
       </c>
       <c r="D138" s="2">
-        <v>45156.0</v>
+        <v>45596.0</v>
       </c>
       <c r="E138" s="1">
         <v>0.0</v>
@@ -2832,16 +3058,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="B139" s="1">
         <v>-1.0</v>
       </c>
       <c r="C139" s="2">
-        <v>44974.0</v>
-      </c>
-      <c r="D139" s="2">
-        <v>45063.0</v>
+        <v>45230.0</v>
+      </c>
+      <c r="D139" s="3">
+        <v>45596.0</v>
       </c>
       <c r="E139" s="1">
         <v>0.0</v>
@@ -2849,16 +3075,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B140" s="1">
         <v>1.0</v>
       </c>
-      <c r="C140" s="2">
-        <v>44974.0</v>
-      </c>
-      <c r="D140" s="2">
-        <v>45339.0</v>
+      <c r="C140" s="3">
+        <v>45231.0</v>
+      </c>
+      <c r="D140" s="3">
+        <v>45413.0</v>
       </c>
       <c r="E140" s="1">
         <v>0.0</v>
@@ -2866,16 +3092,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B141" s="1">
         <v>1.0</v>
       </c>
       <c r="C141" s="2">
-        <v>44973.0</v>
+        <v>45231.0</v>
       </c>
       <c r="D141" s="2">
-        <v>45704.0</v>
+        <v>45657.0</v>
       </c>
       <c r="E141" s="1">
         <v>0.0</v>
@@ -2883,16 +3109,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B142" s="1">
         <v>1.0</v>
       </c>
       <c r="C142" s="2">
-        <v>44971.0</v>
+        <v>45233.0</v>
       </c>
       <c r="D142" s="2">
-        <v>46067.0</v>
+        <v>45325.0</v>
       </c>
       <c r="E142" s="1">
         <v>0.0</v>
@@ -2900,16 +3126,16 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="B143" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C143" s="2">
-        <v>44970.0</v>
+        <v>45233.0</v>
       </c>
       <c r="D143" s="2">
-        <v>45335.0</v>
+        <v>45263.0</v>
       </c>
       <c r="E143" s="1">
         <v>0.0</v>
@@ -2917,16 +3143,16 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="B144" s="1">
         <v>1.0</v>
       </c>
       <c r="C144" s="2">
-        <v>44971.0</v>
+        <v>45233.0</v>
       </c>
       <c r="D144" s="2">
-        <v>45152.0</v>
+        <v>45964.0</v>
       </c>
       <c r="E144" s="1">
         <v>0.0</v>
@@ -2934,16 +3160,16 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="B145" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C145" s="2">
-        <v>44970.0</v>
+        <v>45234.0</v>
       </c>
       <c r="D145" s="2">
-        <v>45243.0</v>
+        <v>45326.0</v>
       </c>
       <c r="E145" s="1">
         <v>0.0</v>
@@ -2951,16 +3177,16 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B146" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C146" s="2">
-        <v>44969.0</v>
+        <v>45234.0</v>
       </c>
       <c r="D146" s="2">
-        <v>45119.0</v>
+        <v>45295.0</v>
       </c>
       <c r="E146" s="1">
         <v>0.0</v>
@@ -2968,16 +3194,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B147" s="1">
         <v>1.0</v>
       </c>
       <c r="C147" s="2">
-        <v>44967.0</v>
+        <v>45234.0</v>
       </c>
       <c r="D147" s="2">
-        <v>45240.0</v>
+        <v>45369.0</v>
       </c>
       <c r="E147" s="1">
         <v>0.0</v>
@@ -2985,16 +3211,16 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="B148" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C148" s="2">
-        <v>44967.0</v>
+        <v>45236.0</v>
       </c>
       <c r="D148" s="2">
-        <v>45332.0</v>
+        <v>45328.0</v>
       </c>
       <c r="E148" s="1">
         <v>0.0</v>
@@ -3002,16 +3228,16 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="B149" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C149" s="2">
-        <v>44967.0</v>
+        <v>45236.0</v>
       </c>
       <c r="D149" s="2">
-        <v>45332.0</v>
+        <v>45357.0</v>
       </c>
       <c r="E149" s="1">
         <v>0.0</v>
@@ -3019,16 +3245,16 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B150" s="1">
         <v>1.0</v>
       </c>
       <c r="C150" s="2">
-        <v>44966.0</v>
+        <v>45239.0</v>
       </c>
       <c r="D150" s="2">
-        <v>45147.0</v>
+        <v>45605.0</v>
       </c>
       <c r="E150" s="1">
         <v>0.0</v>
@@ -3036,16 +3262,16 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B151" s="1">
         <v>1.0</v>
       </c>
       <c r="C151" s="2">
-        <v>44966.0</v>
+        <v>45239.0</v>
       </c>
       <c r="D151" s="2">
-        <v>45331.0</v>
+        <v>45605.0</v>
       </c>
       <c r="E151" s="1">
         <v>0.0</v>
@@ -3053,16 +3279,16 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="B152" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C152" s="2">
-        <v>44966.0</v>
+        <v>45241.0</v>
       </c>
       <c r="D152" s="2">
-        <v>45331.0</v>
+        <v>45286.0</v>
       </c>
       <c r="E152" s="1">
         <v>0.0</v>
@@ -3070,16 +3296,16 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B153" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C153" s="2">
-        <v>44887.0</v>
+        <v>45243.0</v>
       </c>
       <c r="D153" s="2">
-        <v>44642.0</v>
+        <v>45335.0</v>
       </c>
       <c r="E153" s="1">
         <v>0.0</v>
@@ -3087,258 +3313,32 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B154" s="1">
         <v>1.0</v>
       </c>
-      <c r="C154" s="2">
-        <v>44876.0</v>
+      <c r="C154" s="3">
+        <v>45244.0</v>
       </c>
       <c r="D154" s="2">
-        <v>45149.0</v>
+        <v>45258.0</v>
       </c>
       <c r="E154" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B155" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C155" s="2">
-        <v>44878.0</v>
-      </c>
-      <c r="D155" s="2">
-        <v>45243.0</v>
-      </c>
-      <c r="E155" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B156" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C156" s="2">
-        <v>44882.0</v>
-      </c>
-      <c r="D156" s="2">
-        <v>45063.0</v>
-      </c>
-      <c r="E156" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B157" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C157" s="2">
-        <v>44881.0</v>
-      </c>
-      <c r="D157" s="2">
-        <v>45246.0</v>
-      </c>
-      <c r="E157" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B158" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C158" s="2">
-        <v>44878.0</v>
-      </c>
-      <c r="D158" s="2">
-        <v>45059.0</v>
-      </c>
-      <c r="E158" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B159" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C159" s="2">
-        <v>44880.0</v>
-      </c>
-      <c r="D159" s="2">
-        <v>45122.0</v>
-      </c>
-      <c r="E159" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B160" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C160" s="2">
-        <v>44879.0</v>
-      </c>
-      <c r="D160" s="2">
-        <v>45244.0</v>
-      </c>
-      <c r="E160" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B161" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C161" s="2">
-        <v>44878.0</v>
-      </c>
-      <c r="D161" s="2">
-        <v>45243.0</v>
-      </c>
-      <c r="E161" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B162" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C162" s="2">
-        <v>44874.0</v>
-      </c>
-      <c r="D162" s="2">
-        <v>45055.0</v>
-      </c>
-      <c r="E162" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B163" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C163" s="2">
-        <v>44875.0</v>
-      </c>
-      <c r="D163" s="2">
-        <v>45056.0</v>
-      </c>
-      <c r="E163" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B164" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C164" s="2">
-        <v>44874.0</v>
-      </c>
-      <c r="D164" s="2">
-        <v>45055.0</v>
-      </c>
-      <c r="E164" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B165" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C165" s="2">
-        <v>44873.0</v>
-      </c>
-      <c r="D165" s="2">
-        <v>45054.0</v>
-      </c>
-      <c r="E165" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B166" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C166" s="2">
-        <v>44873.0</v>
-      </c>
-      <c r="D166" s="2">
-        <v>44934.0</v>
-      </c>
-      <c r="E166" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B167" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C167" s="2">
-        <v>44871.0</v>
-      </c>
-      <c r="D167" s="2">
-        <v>45022.0</v>
-      </c>
-      <c r="E167" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B168" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C168" s="2">
-        <v>44871.0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>45236.0</v>
-      </c>
-      <c r="E168" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
     </row>
     <row r="169">
       <c r="C169" s="4"/>
@@ -3354,7 +3354,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B172" s="1">
         <v>-1.0</v>
@@ -3380,6 +3380,9 @@
     <row r="176">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
+      <c r="H176" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="177">
       <c r="C177" s="4"/>

--- a/WIW Data.xlsx
+++ b/WIW Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="174">
   <si>
     <t>Ticker (Equities/ETFs only)</t>
   </si>
@@ -148,6 +148,126 @@
     <t>BABA</t>
   </si>
   <si>
+    <t>IEUR</t>
+  </si>
+  <si>
+    <t>ADANIENT.NS</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>ATZAF</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>FFZ3</t>
+  </si>
+  <si>
+    <t>FE</t>
+  </si>
+  <si>
+    <t>XLY</t>
+  </si>
+  <si>
+    <t>HSY</t>
+  </si>
+  <si>
+    <t>FSR</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>BROS</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>ASRT</t>
+  </si>
+  <si>
+    <t>CIBR</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>NUVA</t>
+  </si>
+  <si>
+    <t>CFLT</t>
+  </si>
+  <si>
+    <t>CIEN</t>
+  </si>
+  <si>
+    <t>TGLS</t>
+  </si>
+  <si>
+    <t>ATUS</t>
+  </si>
+  <si>
+    <t>CRWD</t>
+  </si>
+  <si>
+    <t>BOOT</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>ELF</t>
+  </si>
+  <si>
+    <t>MANU</t>
+  </si>
+  <si>
+    <t>LYV</t>
+  </si>
+  <si>
+    <t>MDB</t>
+  </si>
+  <si>
+    <t>NOMD</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>BIDU</t>
+  </si>
+  <si>
+    <t>INMD</t>
+  </si>
+  <si>
+    <t>OPRA</t>
+  </si>
+  <si>
+    <t>RACE</t>
+  </si>
+  <si>
+    <t>RBLX</t>
+  </si>
+  <si>
+    <t>PANW</t>
+  </si>
+  <si>
+    <t>XFAB</t>
+  </si>
+  <si>
     <t>VRRM</t>
   </si>
   <si>
@@ -211,9 +331,6 @@
     <t>CRK</t>
   </si>
   <si>
-    <t>FFZ3</t>
-  </si>
-  <si>
     <t>FERG</t>
   </si>
   <si>
@@ -301,9 +418,6 @@
     <t>NOK</t>
   </si>
   <si>
-    <t>PYPL</t>
-  </si>
-  <si>
     <t>TSM</t>
   </si>
   <si>
@@ -349,9 +463,6 @@
     <t>TSN</t>
   </si>
   <si>
-    <t>FSR</t>
-  </si>
-  <si>
     <t>MRNA</t>
   </si>
   <si>
@@ -379,9 +490,6 @@
     <t>CART</t>
   </si>
   <si>
-    <t>ALB</t>
-  </si>
-  <si>
     <t>UAA</t>
   </si>
   <si>
@@ -425,15 +533,6 @@
   </si>
   <si>
     <t>NOW</t>
-  </si>
-  <si>
-    <t>ADANIENT.NS</t>
-  </si>
-  <si>
-    <t>can y</t>
-  </si>
-  <si>
-    <t>count</t>
   </si>
 </sst>
 </file>
@@ -444,7 +543,7 @@
     <numFmt numFmtId="164" formatCode="M/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -453,6 +552,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -484,8 +588,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1415,10 +1521,10 @@
         <v>1.0</v>
       </c>
       <c r="C42" s="2">
-        <v>45009.0</v>
+        <v>44978.0</v>
       </c>
       <c r="D42" s="2">
-        <v>45162.0</v>
+        <v>45343.0</v>
       </c>
       <c r="E42" s="1">
         <v>0.0</v>
@@ -1432,10 +1538,10 @@
         <v>-1.0</v>
       </c>
       <c r="C43" s="2">
-        <v>45009.0</v>
+        <v>44980.0</v>
       </c>
       <c r="D43" s="2">
-        <v>45375.0</v>
+        <v>45039.0</v>
       </c>
       <c r="E43" s="1">
         <v>0.0</v>
@@ -1449,10 +1555,10 @@
         <v>1.0</v>
       </c>
       <c r="C44" s="2">
-        <v>45010.0</v>
+        <v>44980.0</v>
       </c>
       <c r="D44" s="2">
-        <v>45316.0</v>
+        <v>46076.0</v>
       </c>
       <c r="E44" s="1">
         <v>0.0</v>
@@ -1466,27 +1572,27 @@
         <v>1.0</v>
       </c>
       <c r="C45" s="2">
-        <v>45012.0</v>
+        <v>44980.0</v>
       </c>
       <c r="D45" s="2">
-        <v>46473.0</v>
+        <v>45345.0</v>
       </c>
       <c r="E45" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="1">
         <v>1.0</v>
       </c>
       <c r="C46" s="2">
-        <v>45013.0</v>
+        <v>44981.0</v>
       </c>
       <c r="D46" s="2">
-        <v>45379.0</v>
+        <v>45291.0</v>
       </c>
       <c r="E46" s="1">
         <v>0.0</v>
@@ -1499,11 +1605,11 @@
       <c r="B47" s="1">
         <v>1.0</v>
       </c>
-      <c r="C47" s="2">
-        <v>45013.0</v>
-      </c>
-      <c r="D47" s="2">
-        <v>46474.0</v>
+      <c r="C47" s="3">
+        <v>44981.0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>45346.0</v>
       </c>
       <c r="E47" s="1">
         <v>0.0</v>
@@ -1516,11 +1622,11 @@
       <c r="B48" s="1">
         <v>1.0</v>
       </c>
-      <c r="C48" s="2">
-        <v>45014.0</v>
-      </c>
-      <c r="D48" s="2">
-        <v>45380.0</v>
+      <c r="C48" s="3">
+        <v>44981.0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>45712.0</v>
       </c>
       <c r="E48" s="1">
         <v>0.0</v>
@@ -1533,11 +1639,11 @@
       <c r="B49" s="1">
         <v>-1.0</v>
       </c>
-      <c r="C49" s="2">
-        <v>45015.0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>45029.0</v>
+      <c r="C49" s="3">
+        <v>44982.0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>45347.0</v>
       </c>
       <c r="E49" s="1">
         <v>0.0</v>
@@ -1548,13 +1654,13 @@
         <v>53</v>
       </c>
       <c r="B50" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C50" s="2">
-        <v>45016.0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>45565.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44983.0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>44983.0</v>
       </c>
       <c r="E50" s="1">
         <v>0.0</v>
@@ -1567,11 +1673,11 @@
       <c r="B51" s="1">
         <v>1.0</v>
       </c>
-      <c r="C51" s="2">
-        <v>45016.0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>45323.0</v>
+      <c r="C51" s="3">
+        <v>44983.0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>46079.0</v>
       </c>
       <c r="E51" s="1">
         <v>0.0</v>
@@ -1582,13 +1688,13 @@
         <v>55</v>
       </c>
       <c r="B52" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C52" s="2">
-        <v>45017.0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>45748.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44984.0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>45073.0</v>
       </c>
       <c r="E52" s="1">
         <v>0.0</v>
@@ -1602,13 +1708,13 @@
         <v>1.0</v>
       </c>
       <c r="C53" s="2">
-        <v>45018.0</v>
+        <v>44984.0</v>
       </c>
       <c r="D53" s="2">
-        <v>45140.0</v>
+        <v>45196.0</v>
       </c>
       <c r="E53" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -1618,14 +1724,14 @@
       <c r="B54" s="1">
         <v>1.0</v>
       </c>
-      <c r="C54" s="2">
-        <v>45018.0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>45384.0</v>
+      <c r="C54" s="3">
+        <v>44984.0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>45349.0</v>
       </c>
       <c r="E54" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
@@ -1633,13 +1739,13 @@
         <v>58</v>
       </c>
       <c r="B55" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C55" s="2">
-        <v>45019.0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>45325.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44985.0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>45197.0</v>
       </c>
       <c r="E55" s="1">
         <v>0.0</v>
@@ -1653,10 +1759,10 @@
         <v>1.0</v>
       </c>
       <c r="C56" s="2">
-        <v>45020.0</v>
+        <v>44985.0</v>
       </c>
       <c r="D56" s="2">
-        <v>45751.0</v>
+        <v>45197.0</v>
       </c>
       <c r="E56" s="1">
         <v>0.0</v>
@@ -1667,13 +1773,13 @@
         <v>60</v>
       </c>
       <c r="B57" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C57" s="2">
-        <v>45020.0</v>
+        <v>44985.0</v>
       </c>
       <c r="D57" s="2">
-        <v>45291.0</v>
+        <v>45350.0</v>
       </c>
       <c r="E57" s="1">
         <v>0.0</v>
@@ -1686,14 +1792,14 @@
       <c r="B58" s="1">
         <v>1.0</v>
       </c>
-      <c r="C58" s="2">
-        <v>45021.0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>45752.0</v>
+      <c r="C58" s="3">
+        <v>44986.0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>45352.0</v>
       </c>
       <c r="E58" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
@@ -1703,11 +1809,11 @@
       <c r="B59" s="1">
         <v>-1.0</v>
       </c>
-      <c r="C59" s="2">
-        <v>45021.0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>45143.0</v>
+      <c r="C59" s="3">
+        <v>44987.0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>45018.0</v>
       </c>
       <c r="E59" s="1">
         <v>0.0</v>
@@ -1720,11 +1826,11 @@
       <c r="B60" s="1">
         <v>1.0</v>
       </c>
-      <c r="C60" s="2">
-        <v>45021.0</v>
-      </c>
-      <c r="D60" s="2">
-        <v>45387.0</v>
+      <c r="C60" s="3">
+        <v>44987.0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>45353.0</v>
       </c>
       <c r="E60" s="1">
         <v>0.0</v>
@@ -1732,16 +1838,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C61" s="2">
-        <v>45022.0</v>
+        <v>44988.0</v>
       </c>
       <c r="D61" s="2">
-        <v>45045.0</v>
+        <v>45202.0</v>
       </c>
       <c r="E61" s="1">
         <v>0.0</v>
@@ -1749,16 +1855,16 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B62" s="1">
         <v>-1.0</v>
       </c>
       <c r="C62" s="2">
-        <v>45022.0</v>
+        <v>44988.0</v>
       </c>
       <c r="D62" s="2">
-        <v>45029.0</v>
+        <v>45019.0</v>
       </c>
       <c r="E62" s="1">
         <v>0.0</v>
@@ -1769,13 +1875,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C63" s="2">
-        <v>45023.0</v>
+        <v>44989.0</v>
       </c>
       <c r="D63" s="2">
-        <v>45176.0</v>
+        <v>45355.0</v>
       </c>
       <c r="E63" s="1">
         <v>0.0</v>
@@ -1786,13 +1892,13 @@
         <v>66</v>
       </c>
       <c r="B64" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C64" s="2">
-        <v>45023.0</v>
+        <v>44991.0</v>
       </c>
       <c r="D64" s="2">
-        <v>45291.0</v>
+        <v>45357.0</v>
       </c>
       <c r="E64" s="1">
         <v>0.0</v>
@@ -1806,10 +1912,10 @@
         <v>1.0</v>
       </c>
       <c r="C65" s="2">
-        <v>45028.0</v>
+        <v>44991.0</v>
       </c>
       <c r="D65" s="2">
-        <v>45394.0</v>
+        <v>45022.0</v>
       </c>
       <c r="E65" s="1">
         <v>0.0</v>
@@ -1820,13 +1926,13 @@
         <v>68</v>
       </c>
       <c r="B66" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C66" s="2">
-        <v>45028.0</v>
+        <v>44991.0</v>
       </c>
       <c r="D66" s="2">
-        <v>46489.0</v>
+        <v>45722.0</v>
       </c>
       <c r="E66" s="1">
         <v>0.0</v>
@@ -1834,16 +1940,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B67" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C67" s="2">
-        <v>45028.0</v>
+        <v>44992.0</v>
       </c>
       <c r="D67" s="2">
-        <v>45150.0</v>
+        <v>46088.0</v>
       </c>
       <c r="E67" s="1">
         <v>0.0</v>
@@ -1851,33 +1957,33 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="1">
         <v>1.0</v>
       </c>
       <c r="C68" s="2">
-        <v>45029.0</v>
+        <v>44992.0</v>
       </c>
       <c r="D68" s="2">
-        <v>45049.0</v>
+        <v>45358.0</v>
       </c>
       <c r="E68" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C69" s="2">
-        <v>45029.0</v>
+        <v>44993.0</v>
       </c>
       <c r="D69" s="2">
-        <v>45243.0</v>
+        <v>45359.0</v>
       </c>
       <c r="E69" s="1">
         <v>0.0</v>
@@ -1885,16 +1991,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="1">
         <v>1.0</v>
       </c>
       <c r="C70" s="2">
-        <v>45029.0</v>
+        <v>44993.0</v>
       </c>
       <c r="D70" s="2">
-        <v>45395.0</v>
+        <v>45724.0</v>
       </c>
       <c r="E70" s="1">
         <v>0.0</v>
@@ -1902,16 +2008,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C71" s="2">
-        <v>45030.0</v>
+        <v>44993.0</v>
       </c>
       <c r="D71" s="2">
-        <v>45579.0</v>
+        <v>45085.0</v>
       </c>
       <c r="E71" s="1">
         <v>0.0</v>
@@ -1919,16 +2025,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="1">
         <v>1.0</v>
       </c>
       <c r="C72" s="2">
-        <v>45030.0</v>
+        <v>44994.0</v>
       </c>
       <c r="D72" s="2">
-        <v>45213.0</v>
+        <v>45178.0</v>
       </c>
       <c r="E72" s="1">
         <v>0.0</v>
@@ -1936,33 +2042,33 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="1">
         <v>1.0</v>
       </c>
       <c r="C73" s="2">
-        <v>45030.0</v>
+        <v>44994.0</v>
       </c>
       <c r="D73" s="2">
-        <v>45761.0</v>
+        <v>45360.0</v>
       </c>
       <c r="E73" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="1">
         <v>1.0</v>
       </c>
       <c r="C74" s="2">
-        <v>45031.0</v>
+        <v>44994.0</v>
       </c>
       <c r="D74" s="2">
-        <v>45397.0</v>
+        <v>45360.0</v>
       </c>
       <c r="E74" s="1">
         <v>0.0</v>
@@ -1970,16 +2076,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="1">
         <v>1.0</v>
       </c>
       <c r="C75" s="2">
-        <v>45032.0</v>
+        <v>44995.0</v>
       </c>
       <c r="D75" s="2">
-        <v>45489.0</v>
+        <v>45332.0</v>
       </c>
       <c r="E75" s="1">
         <v>0.0</v>
@@ -1987,16 +2093,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="1">
         <v>1.0</v>
       </c>
       <c r="C76" s="2">
-        <v>45033.0</v>
+        <v>44995.0</v>
       </c>
       <c r="D76" s="2">
-        <v>45291.0</v>
+        <v>45726.0</v>
       </c>
       <c r="E76" s="1">
         <v>0.0</v>
@@ -2004,16 +2110,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C77" s="2">
-        <v>45033.0</v>
+        <v>44995.0</v>
       </c>
       <c r="D77" s="2">
-        <v>45124.0</v>
+        <v>45087.0</v>
       </c>
       <c r="E77" s="1">
         <v>0.0</v>
@@ -2021,16 +2127,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="1">
         <v>1.0</v>
       </c>
       <c r="C78" s="2">
-        <v>45033.0</v>
+        <v>45005.0</v>
       </c>
       <c r="D78" s="2">
-        <v>46129.0</v>
+        <v>45371.0</v>
       </c>
       <c r="E78" s="1">
         <v>0.0</v>
@@ -2038,16 +2144,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="1">
         <v>1.0</v>
       </c>
       <c r="C79" s="2">
-        <v>45033.0</v>
+        <v>45005.0</v>
       </c>
       <c r="D79" s="2">
-        <v>45764.0</v>
+        <v>45371.0</v>
       </c>
       <c r="E79" s="1">
         <v>0.0</v>
@@ -2055,16 +2161,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C80" s="2">
-        <v>45034.0</v>
+        <v>45006.0</v>
       </c>
       <c r="D80" s="2">
-        <v>45765.0</v>
+        <v>45251.0</v>
       </c>
       <c r="E80" s="1">
         <v>0.0</v>
@@ -2072,16 +2178,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C81" s="2">
-        <v>45034.0</v>
+        <v>45007.0</v>
       </c>
       <c r="D81" s="2">
-        <v>45051.0</v>
+        <v>45038.0</v>
       </c>
       <c r="E81" s="1">
         <v>0.0</v>
@@ -2089,16 +2195,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="1">
         <v>1.0</v>
       </c>
       <c r="C82" s="2">
-        <v>45035.0</v>
+        <v>45007.0</v>
       </c>
       <c r="D82" s="2">
-        <v>45584.0</v>
+        <v>45373.0</v>
       </c>
       <c r="E82" s="1">
         <v>0.0</v>
@@ -2106,16 +2212,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C83" s="3">
-        <v>45036.0</v>
-      </c>
-      <c r="D83" s="3">
-        <v>45050.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45007.0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45373.0</v>
       </c>
       <c r="E83" s="1">
         <v>0.0</v>
@@ -2123,16 +2229,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C84" s="3">
-        <v>45037.0</v>
-      </c>
-      <c r="D84" s="3">
-        <v>45098.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45009.0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45162.0</v>
       </c>
       <c r="E84" s="1">
         <v>0.0</v>
@@ -2140,16 +2246,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="1">
         <v>-1.0</v>
       </c>
-      <c r="C85" s="3">
-        <v>45190.0</v>
-      </c>
-      <c r="D85" s="3">
-        <v>45220.0</v>
+      <c r="C85" s="2">
+        <v>45009.0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45375.0</v>
       </c>
       <c r="E85" s="1">
         <v>0.0</v>
@@ -2157,16 +2263,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="1">
         <v>1.0</v>
       </c>
-      <c r="C86" s="3">
-        <v>45192.0</v>
-      </c>
-      <c r="D86" s="3">
-        <v>45558.0</v>
+      <c r="C86" s="2">
+        <v>45010.0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>45316.0</v>
       </c>
       <c r="E86" s="1">
         <v>0.0</v>
@@ -2174,33 +2280,33 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="1">
         <v>1.0</v>
       </c>
-      <c r="C87" s="3">
-        <v>45193.0</v>
-      </c>
-      <c r="D87" s="3">
-        <v>45376.0</v>
+      <c r="C87" s="2">
+        <v>45012.0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>46473.0</v>
       </c>
       <c r="E87" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="1">
         <v>1.0</v>
       </c>
-      <c r="C88" s="3">
-        <v>45194.0</v>
-      </c>
-      <c r="D88" s="3">
-        <v>45255.0</v>
+      <c r="C88" s="2">
+        <v>45013.0</v>
+      </c>
+      <c r="D88" s="2">
+        <v>45379.0</v>
       </c>
       <c r="E88" s="1">
         <v>0.0</v>
@@ -2208,16 +2314,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="1">
         <v>1.0</v>
       </c>
-      <c r="C89" s="3">
-        <v>45195.0</v>
-      </c>
-      <c r="D89" s="3">
-        <v>45225.0</v>
+      <c r="C89" s="2">
+        <v>45013.0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>46474.0</v>
       </c>
       <c r="E89" s="1">
         <v>0.0</v>
@@ -2225,16 +2331,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C90" s="3">
-        <v>45196.0</v>
-      </c>
-      <c r="D90" s="3">
-        <v>45287.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45014.0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45380.0</v>
       </c>
       <c r="E90" s="1">
         <v>0.0</v>
@@ -2242,16 +2348,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C91" s="3">
-        <v>45196.0</v>
-      </c>
-      <c r="D91" s="3">
-        <v>45378.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45015.0</v>
+      </c>
+      <c r="D91" s="2">
+        <v>45029.0</v>
       </c>
       <c r="E91" s="1">
         <v>0.0</v>
@@ -2259,16 +2365,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="1">
         <v>1.0</v>
       </c>
       <c r="C92" s="2">
-        <v>45197.0</v>
+        <v>45016.0</v>
       </c>
       <c r="D92" s="2">
-        <v>45350.0</v>
+        <v>45565.0</v>
       </c>
       <c r="E92" s="1">
         <v>0.0</v>
@@ -2276,16 +2382,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="1">
         <v>1.0</v>
       </c>
       <c r="C93" s="2">
-        <v>45197.0</v>
+        <v>45016.0</v>
       </c>
       <c r="D93" s="2">
-        <v>45563.0</v>
+        <v>45323.0</v>
       </c>
       <c r="E93" s="1">
         <v>0.0</v>
@@ -2293,16 +2399,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="1">
         <v>1.0</v>
       </c>
       <c r="C94" s="2">
-        <v>45197.0</v>
+        <v>45017.0</v>
       </c>
       <c r="D94" s="2">
-        <v>45563.0</v>
+        <v>45748.0</v>
       </c>
       <c r="E94" s="1">
         <v>0.0</v>
@@ -2310,16 +2416,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="1">
         <v>1.0</v>
       </c>
       <c r="C95" s="2">
-        <v>45198.0</v>
+        <v>45018.0</v>
       </c>
       <c r="D95" s="2">
-        <v>45745.0</v>
+        <v>45140.0</v>
       </c>
       <c r="E95" s="1">
         <v>0.0</v>
@@ -2327,16 +2433,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="1">
         <v>1.0</v>
       </c>
       <c r="C96" s="2">
-        <v>45199.0</v>
+        <v>45018.0</v>
       </c>
       <c r="D96" s="2">
-        <v>45746.0</v>
+        <v>45384.0</v>
       </c>
       <c r="E96" s="1">
         <v>0.0</v>
@@ -2344,16 +2450,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C97" s="3">
-        <v>45199.0</v>
-      </c>
-      <c r="D97" s="3">
-        <v>46295.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45019.0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>45325.0</v>
       </c>
       <c r="E97" s="1">
         <v>0.0</v>
@@ -2361,16 +2467,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="1">
         <v>1.0</v>
       </c>
-      <c r="C98" s="3">
-        <v>45199.0</v>
-      </c>
-      <c r="D98" s="3">
-        <v>45565.0</v>
+      <c r="C98" s="2">
+        <v>45020.0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45751.0</v>
       </c>
       <c r="E98" s="1">
         <v>0.0</v>
@@ -2378,16 +2484,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C99" s="3">
-        <v>45200.0</v>
-      </c>
-      <c r="D99" s="3">
-        <v>45748.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45020.0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45291.0</v>
       </c>
       <c r="E99" s="1">
         <v>0.0</v>
@@ -2395,16 +2501,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C100" s="3">
-        <v>45200.0</v>
-      </c>
-      <c r="D100" s="3">
-        <v>45261.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45021.0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45752.0</v>
       </c>
       <c r="E100" s="1">
         <v>0.0</v>
@@ -2412,16 +2518,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C101" s="3">
-        <v>45200.0</v>
-      </c>
-      <c r="D101" s="3">
-        <v>45505.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45021.0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>45143.0</v>
       </c>
       <c r="E101" s="1">
         <v>0.0</v>
@@ -2429,16 +2535,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C102" s="3">
-        <v>45201.0</v>
-      </c>
-      <c r="D102" s="3">
-        <v>45384.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45021.0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>45387.0</v>
       </c>
       <c r="E102" s="1">
         <v>0.0</v>
@@ -2446,33 +2552,33 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C103" s="3">
-        <v>45201.0</v>
-      </c>
-      <c r="D103" s="3">
-        <v>45932.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45022.0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>45045.0</v>
       </c>
       <c r="E103" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="B104" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C104" s="3">
-        <v>45203.0</v>
-      </c>
-      <c r="D104" s="3">
-        <v>45264.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45022.0</v>
+      </c>
+      <c r="D104" s="2">
+        <v>45029.0</v>
       </c>
       <c r="E104" s="1">
         <v>0.0</v>
@@ -2480,16 +2586,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C105" s="3">
-        <v>45205.0</v>
-      </c>
-      <c r="D105" s="3">
-        <v>45297.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45023.0</v>
+      </c>
+      <c r="D105" s="2">
+        <v>45176.0</v>
       </c>
       <c r="E105" s="1">
         <v>0.0</v>
@@ -2497,16 +2603,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="B106" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C106" s="3">
-        <v>45207.0</v>
-      </c>
-      <c r="D106" s="3">
-        <v>45573.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45023.0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>45291.0</v>
       </c>
       <c r="E106" s="1">
         <v>0.0</v>
@@ -2514,16 +2620,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1">
         <v>1.0</v>
       </c>
       <c r="C107" s="2">
-        <v>45208.0</v>
+        <v>45028.0</v>
       </c>
       <c r="D107" s="2">
-        <v>45269.0</v>
+        <v>45394.0</v>
       </c>
       <c r="E107" s="1">
         <v>0.0</v>
@@ -2531,16 +2637,16 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1">
         <v>1.0</v>
       </c>
       <c r="C108" s="2">
-        <v>45210.0</v>
+        <v>45028.0</v>
       </c>
       <c r="D108" s="2">
-        <v>45302.0</v>
+        <v>46489.0</v>
       </c>
       <c r="E108" s="1">
         <v>0.0</v>
@@ -2548,16 +2654,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1">
         <v>-1.0</v>
       </c>
       <c r="C109" s="2">
-        <v>45210.0</v>
+        <v>45028.0</v>
       </c>
       <c r="D109" s="2">
-        <v>45271.0</v>
+        <v>45150.0</v>
       </c>
       <c r="E109" s="1">
         <v>0.0</v>
@@ -2565,16 +2671,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C110" s="2">
-        <v>45212.0</v>
+        <v>45029.0</v>
       </c>
       <c r="D110" s="2">
-        <v>45243.0</v>
+        <v>45049.0</v>
       </c>
       <c r="E110" s="1">
         <v>0.0</v>
@@ -2582,16 +2688,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C111" s="3">
-        <v>45213.0</v>
-      </c>
-      <c r="D111" s="3">
-        <v>45365.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45029.0</v>
+      </c>
+      <c r="D111" s="2">
+        <v>45243.0</v>
       </c>
       <c r="E111" s="1">
         <v>0.0</v>
@@ -2599,16 +2705,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1">
         <v>1.0</v>
       </c>
       <c r="C112" s="2">
-        <v>45214.0</v>
+        <v>45029.0</v>
       </c>
       <c r="D112" s="2">
-        <v>45000.0</v>
+        <v>45395.0</v>
       </c>
       <c r="E112" s="1">
         <v>0.0</v>
@@ -2616,16 +2722,16 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1">
         <v>-1.0</v>
       </c>
       <c r="C113" s="2">
-        <v>45214.0</v>
+        <v>45030.0</v>
       </c>
       <c r="D113" s="2">
-        <v>45232.0</v>
+        <v>45579.0</v>
       </c>
       <c r="E113" s="1">
         <v>0.0</v>
@@ -2633,16 +2739,16 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C114" s="2">
-        <v>45215.0</v>
+        <v>45030.0</v>
       </c>
       <c r="D114" s="2">
-        <v>45398.0</v>
+        <v>45213.0</v>
       </c>
       <c r="E114" s="1">
         <v>0.0</v>
@@ -2650,33 +2756,33 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1">
         <v>1.0</v>
       </c>
       <c r="C115" s="2">
-        <v>45216.0</v>
+        <v>45030.0</v>
       </c>
       <c r="D115" s="2">
-        <v>45339.0</v>
+        <v>45761.0</v>
       </c>
       <c r="E115" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1">
         <v>1.0</v>
       </c>
       <c r="C116" s="2">
-        <v>45217.0</v>
+        <v>45031.0</v>
       </c>
       <c r="D116" s="2">
-        <v>45310.0</v>
+        <v>45397.0</v>
       </c>
       <c r="E116" s="1">
         <v>0.0</v>
@@ -2684,16 +2790,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C117" s="2">
-        <v>45218.0</v>
+        <v>45032.0</v>
       </c>
       <c r="D117" s="2">
-        <v>45310.0</v>
+        <v>45489.0</v>
       </c>
       <c r="E117" s="1">
         <v>0.0</v>
@@ -2701,33 +2807,33 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1">
         <v>1.0</v>
       </c>
       <c r="C118" s="2">
-        <v>45218.0</v>
-      </c>
-      <c r="D118" s="3">
-        <v>45949.0</v>
+        <v>45033.0</v>
+      </c>
+      <c r="D118" s="2">
+        <v>45291.0</v>
       </c>
       <c r="E118" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C119" s="2">
-        <v>45219.0</v>
+        <v>45033.0</v>
       </c>
       <c r="D119" s="2">
-        <v>45280.0</v>
+        <v>45124.0</v>
       </c>
       <c r="E119" s="1">
         <v>0.0</v>
@@ -2735,16 +2841,16 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1">
         <v>1.0</v>
       </c>
       <c r="C120" s="2">
-        <v>45220.0</v>
+        <v>45033.0</v>
       </c>
       <c r="D120" s="2">
-        <v>44947.0</v>
+        <v>46129.0</v>
       </c>
       <c r="E120" s="1">
         <v>0.0</v>
@@ -2752,16 +2858,16 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1">
         <v>1.0</v>
       </c>
       <c r="C121" s="2">
-        <v>45220.0</v>
+        <v>45033.0</v>
       </c>
       <c r="D121" s="2">
-        <v>45312.0</v>
+        <v>45764.0</v>
       </c>
       <c r="E121" s="1">
         <v>0.0</v>
@@ -2769,16 +2875,16 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1">
         <v>1.0</v>
       </c>
       <c r="C122" s="2">
-        <v>45221.0</v>
+        <v>45034.0</v>
       </c>
       <c r="D122" s="2">
-        <v>45495.0</v>
+        <v>45765.0</v>
       </c>
       <c r="E122" s="1">
         <v>0.0</v>
@@ -2786,16 +2892,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1">
         <v>1.0</v>
       </c>
       <c r="C123" s="2">
-        <v>45222.0</v>
+        <v>45034.0</v>
       </c>
       <c r="D123" s="2">
-        <v>45227.0</v>
+        <v>45051.0</v>
       </c>
       <c r="E123" s="1">
         <v>0.0</v>
@@ -2803,16 +2909,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1">
         <v>1.0</v>
       </c>
       <c r="C124" s="2">
-        <v>45222.0</v>
+        <v>45035.0</v>
       </c>
       <c r="D124" s="2">
-        <v>45619.0</v>
+        <v>45584.0</v>
       </c>
       <c r="E124" s="1">
         <v>0.0</v>
@@ -2820,16 +2926,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1">
         <v>-1.0</v>
       </c>
-      <c r="C125" s="2">
-        <v>45222.0</v>
-      </c>
-      <c r="D125" s="2">
-        <v>44980.0</v>
+      <c r="C125" s="3">
+        <v>45036.0</v>
+      </c>
+      <c r="D125" s="3">
+        <v>45050.0</v>
       </c>
       <c r="E125" s="1">
         <v>0.0</v>
@@ -2837,16 +2943,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C126" s="2">
-        <v>45223.0</v>
-      </c>
-      <c r="D126" s="2">
-        <v>45040.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C126" s="3">
+        <v>45037.0</v>
+      </c>
+      <c r="D126" s="3">
+        <v>45098.0</v>
       </c>
       <c r="E126" s="1">
         <v>0.0</v>
@@ -2854,16 +2960,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C127" s="2">
-        <v>45224.0</v>
-      </c>
-      <c r="D127" s="2">
-        <v>45041.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C127" s="3">
+        <v>45190.0</v>
+      </c>
+      <c r="D127" s="3">
+        <v>45220.0</v>
       </c>
       <c r="E127" s="1">
         <v>0.0</v>
@@ -2871,16 +2977,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1">
         <v>1.0</v>
       </c>
-      <c r="C128" s="2">
-        <v>45224.0</v>
-      </c>
-      <c r="D128" s="2">
-        <v>45250.0</v>
+      <c r="C128" s="3">
+        <v>45192.0</v>
+      </c>
+      <c r="D128" s="3">
+        <v>45558.0</v>
       </c>
       <c r="E128" s="1">
         <v>0.0</v>
@@ -2888,33 +2994,33 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1">
         <v>1.0</v>
       </c>
-      <c r="C129" s="2">
-        <v>45224.0</v>
-      </c>
-      <c r="D129" s="2">
-        <v>45041.0</v>
+      <c r="C129" s="3">
+        <v>45193.0</v>
+      </c>
+      <c r="D129" s="3">
+        <v>45376.0</v>
       </c>
       <c r="E129" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1">
         <v>1.0</v>
       </c>
-      <c r="C130" s="2">
-        <v>45225.0</v>
-      </c>
-      <c r="D130" s="2">
-        <v>45335.0</v>
+      <c r="C130" s="3">
+        <v>45194.0</v>
+      </c>
+      <c r="D130" s="3">
+        <v>45255.0</v>
       </c>
       <c r="E130" s="1">
         <v>0.0</v>
@@ -2922,16 +3028,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1">
         <v>1.0</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="3">
+        <v>45195.0</v>
+      </c>
+      <c r="D131" s="3">
         <v>45225.0</v>
-      </c>
-      <c r="D131" s="2">
-        <v>45317.0</v>
       </c>
       <c r="E131" s="1">
         <v>0.0</v>
@@ -2939,16 +3045,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C132" s="2">
-        <v>45225.0</v>
-      </c>
-      <c r="D132" s="2">
-        <v>45256.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C132" s="3">
+        <v>45196.0</v>
+      </c>
+      <c r="D132" s="3">
+        <v>45287.0</v>
       </c>
       <c r="E132" s="1">
         <v>0.0</v>
@@ -2956,16 +3062,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1">
         <v>1.0</v>
       </c>
-      <c r="C133" s="2">
-        <v>45226.0</v>
-      </c>
-      <c r="D133" s="2">
-        <v>44953.0</v>
+      <c r="C133" s="3">
+        <v>45196.0</v>
+      </c>
+      <c r="D133" s="3">
+        <v>45378.0</v>
       </c>
       <c r="E133" s="1">
         <v>0.0</v>
@@ -2973,16 +3079,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="B134" s="1">
         <v>1.0</v>
       </c>
       <c r="C134" s="2">
-        <v>45226.0</v>
+        <v>45197.0</v>
       </c>
       <c r="D134" s="2">
-        <v>45240.0</v>
+        <v>45350.0</v>
       </c>
       <c r="E134" s="1">
         <v>0.0</v>
@@ -2990,16 +3096,16 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B135" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C135" s="2">
-        <v>45227.0</v>
+        <v>45197.0</v>
       </c>
       <c r="D135" s="2">
-        <v>45319.0</v>
+        <v>45563.0</v>
       </c>
       <c r="E135" s="1">
         <v>0.0</v>
@@ -3007,16 +3113,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="B136" s="1">
         <v>1.0</v>
       </c>
       <c r="C136" s="2">
-        <v>45227.0</v>
+        <v>45197.0</v>
       </c>
       <c r="D136" s="2">
-        <v>45410.0</v>
+        <v>45563.0</v>
       </c>
       <c r="E136" s="1">
         <v>0.0</v>
@@ -3024,16 +3130,16 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C137" s="2">
-        <v>45229.0</v>
-      </c>
-      <c r="D137" s="3">
-        <v>45234.0</v>
+        <v>45198.0</v>
+      </c>
+      <c r="D137" s="2">
+        <v>45745.0</v>
       </c>
       <c r="E137" s="1">
         <v>0.0</v>
@@ -3041,16 +3147,16 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1">
         <v>1.0</v>
       </c>
       <c r="C138" s="2">
-        <v>45230.0</v>
+        <v>45199.0</v>
       </c>
       <c r="D138" s="2">
-        <v>45596.0</v>
+        <v>45746.0</v>
       </c>
       <c r="E138" s="1">
         <v>0.0</v>
@@ -3058,16 +3164,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C139" s="2">
-        <v>45230.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C139" s="3">
+        <v>45199.0</v>
       </c>
       <c r="D139" s="3">
-        <v>45596.0</v>
+        <v>46295.0</v>
       </c>
       <c r="E139" s="1">
         <v>0.0</v>
@@ -3075,16 +3181,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1">
         <v>1.0</v>
       </c>
       <c r="C140" s="3">
-        <v>45231.0</v>
+        <v>45199.0</v>
       </c>
       <c r="D140" s="3">
-        <v>45413.0</v>
+        <v>45565.0</v>
       </c>
       <c r="E140" s="1">
         <v>0.0</v>
@@ -3092,16 +3198,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1">
         <v>1.0</v>
       </c>
-      <c r="C141" s="2">
-        <v>45231.0</v>
-      </c>
-      <c r="D141" s="2">
-        <v>45657.0</v>
+      <c r="C141" s="3">
+        <v>45200.0</v>
+      </c>
+      <c r="D141" s="3">
+        <v>45748.0</v>
       </c>
       <c r="E141" s="1">
         <v>0.0</v>
@@ -3109,16 +3215,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C142" s="2">
-        <v>45233.0</v>
-      </c>
-      <c r="D142" s="2">
-        <v>45325.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C142" s="3">
+        <v>45200.0</v>
+      </c>
+      <c r="D142" s="3">
+        <v>45261.0</v>
       </c>
       <c r="E142" s="1">
         <v>0.0</v>
@@ -3126,16 +3232,16 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1">
         <v>1.0</v>
       </c>
-      <c r="C143" s="2">
-        <v>45233.0</v>
-      </c>
-      <c r="D143" s="2">
-        <v>45263.0</v>
+      <c r="C143" s="3">
+        <v>45200.0</v>
+      </c>
+      <c r="D143" s="3">
+        <v>45505.0</v>
       </c>
       <c r="E143" s="1">
         <v>0.0</v>
@@ -3143,16 +3249,16 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="C144" s="2">
-        <v>45233.0</v>
-      </c>
-      <c r="D144" s="2">
-        <v>45964.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="C144" s="3">
+        <v>45201.0</v>
+      </c>
+      <c r="D144" s="3">
+        <v>45384.0</v>
       </c>
       <c r="E144" s="1">
         <v>0.0</v>
@@ -3160,33 +3266,33 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C145" s="2">
-        <v>45234.0</v>
-      </c>
-      <c r="D145" s="2">
-        <v>45326.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C145" s="3">
+        <v>45201.0</v>
+      </c>
+      <c r="D145" s="3">
+        <v>45932.0</v>
       </c>
       <c r="E145" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B146" s="1">
         <v>1.0</v>
       </c>
-      <c r="C146" s="2">
-        <v>45234.0</v>
-      </c>
-      <c r="D146" s="2">
-        <v>45295.0</v>
+      <c r="C146" s="3">
+        <v>45203.0</v>
+      </c>
+      <c r="D146" s="3">
+        <v>45264.0</v>
       </c>
       <c r="E146" s="1">
         <v>0.0</v>
@@ -3194,16 +3300,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="B147" s="1">
         <v>1.0</v>
       </c>
-      <c r="C147" s="2">
-        <v>45234.0</v>
-      </c>
-      <c r="D147" s="2">
-        <v>45369.0</v>
+      <c r="C147" s="3">
+        <v>45205.0</v>
+      </c>
+      <c r="D147" s="3">
+        <v>45297.0</v>
       </c>
       <c r="E147" s="1">
         <v>0.0</v>
@@ -3211,16 +3317,16 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B148" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="C148" s="2">
-        <v>45236.0</v>
-      </c>
-      <c r="D148" s="2">
-        <v>45328.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C148" s="3">
+        <v>45207.0</v>
+      </c>
+      <c r="D148" s="3">
+        <v>45573.0</v>
       </c>
       <c r="E148" s="1">
         <v>0.0</v>
@@ -3228,16 +3334,16 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B149" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="C149" s="2">
-        <v>45236.0</v>
+        <v>45208.0</v>
       </c>
       <c r="D149" s="2">
-        <v>45357.0</v>
+        <v>45269.0</v>
       </c>
       <c r="E149" s="1">
         <v>0.0</v>
@@ -3245,16 +3351,16 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B150" s="1">
         <v>1.0</v>
       </c>
       <c r="C150" s="2">
-        <v>45239.0</v>
+        <v>45210.0</v>
       </c>
       <c r="D150" s="2">
-        <v>45605.0</v>
+        <v>45302.0</v>
       </c>
       <c r="E150" s="1">
         <v>0.0</v>
@@ -3262,16 +3368,16 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="B151" s="1">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="C151" s="2">
-        <v>45239.0</v>
+        <v>45210.0</v>
       </c>
       <c r="D151" s="2">
-        <v>45605.0</v>
+        <v>45271.0</v>
       </c>
       <c r="E151" s="1">
         <v>0.0</v>
@@ -3279,16 +3385,16 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B152" s="1">
         <v>-1.0</v>
       </c>
       <c r="C152" s="2">
-        <v>45241.0</v>
+        <v>45212.0</v>
       </c>
       <c r="D152" s="2">
-        <v>45286.0</v>
+        <v>45243.0</v>
       </c>
       <c r="E152" s="1">
         <v>0.0</v>
@@ -3296,16 +3402,16 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="B153" s="1">
         <v>1.0</v>
       </c>
-      <c r="C153" s="2">
-        <v>45243.0</v>
-      </c>
-      <c r="D153" s="2">
-        <v>45335.0</v>
+      <c r="C153" s="3">
+        <v>45213.0</v>
+      </c>
+      <c r="D153" s="3">
+        <v>45365.0</v>
       </c>
       <c r="E153" s="1">
         <v>0.0</v>
@@ -3313,3543 +3419,4115 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B154" s="1">
         <v>1.0</v>
       </c>
-      <c r="C154" s="3">
-        <v>45244.0</v>
+      <c r="C154" s="2">
+        <v>45214.0</v>
       </c>
       <c r="D154" s="2">
-        <v>45258.0</v>
+        <v>45000.0</v>
       </c>
       <c r="E154" s="1">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="A155" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B155" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45214.0</v>
+      </c>
+      <c r="D155" s="2">
+        <v>45232.0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="156">
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="A156" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B156" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45215.0</v>
+      </c>
+      <c r="D156" s="2">
+        <v>45398.0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="157">
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="A157" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="D157" s="2">
+        <v>45339.0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45217.0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45310.0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B159" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45218.0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>45310.0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45218.0</v>
+      </c>
+      <c r="D160" s="3">
+        <v>45949.0</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B161" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45219.0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>45280.0</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45220.0</v>
+      </c>
+      <c r="D162" s="2">
+        <v>44947.0</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45220.0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>45312.0</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45221.0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>45495.0</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45222.0</v>
+      </c>
+      <c r="D165" s="2">
+        <v>45227.0</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45222.0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>45619.0</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B167" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45222.0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>44980.0</v>
+      </c>
+      <c r="E167" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45223.0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>45040.0</v>
+      </c>
+      <c r="E168" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="169">
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
+      <c r="A169" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45224.0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>45041.0</v>
+      </c>
+      <c r="E169" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="170">
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
+      <c r="A170" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45224.0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>45250.0</v>
+      </c>
+      <c r="E170" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="171">
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
+      <c r="A171" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45224.0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>45041.0</v>
+      </c>
+      <c r="E171" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B172" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45225.0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>45335.0</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45225.0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>45317.0</v>
+      </c>
+      <c r="E173" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45225.0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>45256.0</v>
+      </c>
+      <c r="E174" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45226.0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>44953.0</v>
+      </c>
+      <c r="E175" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45226.0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>45240.0</v>
+      </c>
+      <c r="E176" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B177" s="1">
         <v>-1.0</v>
       </c>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-    </row>
-    <row r="174">
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-    </row>
-    <row r="175">
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-    </row>
-    <row r="176">
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="H176" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
-      <c r="E177" s="5">
-        <f>SUM(E2:E172)</f>
-        <v>7</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>140</v>
+      <c r="C177" s="2">
+        <v>45227.0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>45319.0</v>
+      </c>
+      <c r="E177" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="178">
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
+      <c r="A178" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45227.0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45410.0</v>
+      </c>
+      <c r="E178" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="179">
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
+      <c r="A179" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B179" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45229.0</v>
+      </c>
+      <c r="D179" s="3">
+        <v>45234.0</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="180">
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
+      <c r="A180" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45230.0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45596.0</v>
+      </c>
+      <c r="E180" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="181">
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
+      <c r="A181" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B181" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45230.0</v>
+      </c>
+      <c r="D181" s="3">
+        <v>45596.0</v>
+      </c>
+      <c r="E181" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="182">
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
+      <c r="A182" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C182" s="3">
+        <v>45231.0</v>
+      </c>
+      <c r="D182" s="3">
+        <v>45413.0</v>
+      </c>
+      <c r="E182" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="183">
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
+      <c r="A183" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45231.0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>45657.0</v>
+      </c>
+      <c r="E183" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="184">
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
+      <c r="A184" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45233.0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>45325.0</v>
+      </c>
+      <c r="E184" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="185">
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="A185" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45233.0</v>
+      </c>
+      <c r="D185" s="2">
+        <v>45263.0</v>
+      </c>
+      <c r="E185" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="186">
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
+      <c r="A186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45233.0</v>
+      </c>
+      <c r="D186" s="2">
+        <v>45964.0</v>
+      </c>
+      <c r="E186" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="187">
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="A187" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B187" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45234.0</v>
+      </c>
+      <c r="D187" s="2">
+        <v>45326.0</v>
+      </c>
+      <c r="E187" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="188">
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
+      <c r="A188" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45234.0</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45295.0</v>
+      </c>
+      <c r="E188" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="189">
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
+      <c r="A189" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45234.0</v>
+      </c>
+      <c r="D189" s="2">
+        <v>45369.0</v>
+      </c>
+      <c r="E189" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="190">
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
+      <c r="A190" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B190" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45236.0</v>
+      </c>
+      <c r="D190" s="2">
+        <v>45328.0</v>
+      </c>
+      <c r="E190" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="191">
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
+      <c r="A191" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B191" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45236.0</v>
+      </c>
+      <c r="D191" s="2">
+        <v>45357.0</v>
+      </c>
+      <c r="E191" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="192">
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
+      <c r="A192" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45239.0</v>
+      </c>
+      <c r="D192" s="2">
+        <v>45605.0</v>
+      </c>
+      <c r="E192" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="193">
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
+      <c r="A193" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45239.0</v>
+      </c>
+      <c r="D193" s="2">
+        <v>45605.0</v>
+      </c>
+      <c r="E193" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="194">
-      <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
+      <c r="A194" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B194" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45241.0</v>
+      </c>
+      <c r="D194" s="2">
+        <v>45286.0</v>
+      </c>
+      <c r="E194" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="195">
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+      <c r="A195" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45243.0</v>
+      </c>
+      <c r="D195" s="2">
+        <v>45335.0</v>
+      </c>
+      <c r="E195" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="196">
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
+      <c r="A196" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C196" s="3">
+        <v>45244.0</v>
+      </c>
+      <c r="D196" s="2">
+        <v>45258.0</v>
+      </c>
+      <c r="E196" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="197">
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
     </row>
     <row r="198">
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
     </row>
     <row r="199">
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
     </row>
     <row r="200">
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
+      <c r="A200" s="1"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
     </row>
     <row r="201">
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
     </row>
     <row r="202">
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
     </row>
     <row r="203">
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
     </row>
     <row r="204">
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
     </row>
     <row r="205">
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
     </row>
     <row r="206">
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
     </row>
     <row r="207">
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
     </row>
     <row r="208">
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
     </row>
     <row r="209">
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
     </row>
     <row r="210">
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
     </row>
     <row r="211">
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
     </row>
     <row r="212">
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
     </row>
     <row r="213">
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
     </row>
     <row r="214">
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
     </row>
     <row r="215">
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
     </row>
     <row r="216">
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
     </row>
     <row r="217">
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
     </row>
     <row r="218">
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
     </row>
     <row r="219">
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
     </row>
     <row r="220">
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
     </row>
     <row r="221">
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
     </row>
     <row r="222">
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
     </row>
     <row r="223">
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
     </row>
     <row r="224">
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
     </row>
     <row r="225">
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
     </row>
     <row r="226">
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
     </row>
     <row r="227">
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
     </row>
     <row r="228">
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
     </row>
     <row r="229">
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
     </row>
     <row r="230">
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
     </row>
     <row r="231">
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
     </row>
     <row r="232">
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
     </row>
     <row r="233">
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
     </row>
     <row r="234">
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
     </row>
     <row r="235">
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
     </row>
     <row r="236">
-      <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
     </row>
     <row r="237">
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
     </row>
     <row r="238">
-      <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
     </row>
     <row r="239">
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
     </row>
     <row r="240">
-      <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
     </row>
     <row r="241">
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
     </row>
     <row r="242">
-      <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
     </row>
     <row r="243">
-      <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
     </row>
     <row r="244">
-      <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
     </row>
     <row r="245">
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
     </row>
     <row r="246">
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
+      <c r="C246" s="5"/>
+      <c r="D246" s="5"/>
     </row>
     <row r="247">
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
+      <c r="C247" s="5"/>
+      <c r="D247" s="5"/>
     </row>
     <row r="248">
-      <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
     </row>
     <row r="249">
-      <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
     </row>
     <row r="250">
-      <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
+      <c r="C250" s="5"/>
+      <c r="D250" s="5"/>
     </row>
     <row r="251">
-      <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
     </row>
     <row r="252">
-      <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
     </row>
     <row r="253">
-      <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
+      <c r="C253" s="5"/>
+      <c r="D253" s="5"/>
     </row>
     <row r="254">
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
+      <c r="C254" s="5"/>
+      <c r="D254" s="5"/>
     </row>
     <row r="255">
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
+      <c r="C255" s="5"/>
+      <c r="D255" s="5"/>
     </row>
     <row r="256">
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
+      <c r="C256" s="5"/>
+      <c r="D256" s="5"/>
     </row>
     <row r="257">
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
     </row>
     <row r="258">
-      <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
     </row>
     <row r="259">
-      <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
     </row>
     <row r="260">
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
+      <c r="C260" s="5"/>
+      <c r="D260" s="5"/>
     </row>
     <row r="261">
-      <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
+      <c r="C261" s="5"/>
+      <c r="D261" s="5"/>
     </row>
     <row r="262">
-      <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
+      <c r="C262" s="5"/>
+      <c r="D262" s="5"/>
     </row>
     <row r="263">
-      <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
+      <c r="C263" s="5"/>
+      <c r="D263" s="5"/>
     </row>
     <row r="264">
-      <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
+      <c r="C264" s="5"/>
+      <c r="D264" s="5"/>
     </row>
     <row r="265">
-      <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
+      <c r="C265" s="5"/>
+      <c r="D265" s="5"/>
     </row>
     <row r="266">
-      <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
+      <c r="C266" s="5"/>
+      <c r="D266" s="5"/>
     </row>
     <row r="267">
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
+      <c r="C267" s="5"/>
+      <c r="D267" s="5"/>
     </row>
     <row r="268">
-      <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
+      <c r="C268" s="5"/>
+      <c r="D268" s="5"/>
     </row>
     <row r="269">
-      <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
+      <c r="C269" s="5"/>
+      <c r="D269" s="5"/>
     </row>
     <row r="270">
-      <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
     </row>
     <row r="271">
-      <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
     </row>
     <row r="272">
-      <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
     </row>
     <row r="273">
-      <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
     </row>
     <row r="274">
-      <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
     </row>
     <row r="275">
-      <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
+      <c r="C275" s="5"/>
+      <c r="D275" s="5"/>
     </row>
     <row r="276">
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
+      <c r="C276" s="5"/>
+      <c r="D276" s="5"/>
     </row>
     <row r="277">
-      <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
+      <c r="C277" s="5"/>
+      <c r="D277" s="5"/>
     </row>
     <row r="278">
-      <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
+      <c r="C278" s="5"/>
+      <c r="D278" s="5"/>
     </row>
     <row r="279">
-      <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
     </row>
     <row r="280">
-      <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
+      <c r="C280" s="5"/>
+      <c r="D280" s="5"/>
     </row>
     <row r="281">
-      <c r="C281" s="4"/>
-      <c r="D281" s="4"/>
+      <c r="C281" s="5"/>
+      <c r="D281" s="5"/>
     </row>
     <row r="282">
-      <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
+      <c r="C282" s="5"/>
+      <c r="D282" s="5"/>
     </row>
     <row r="283">
-      <c r="C283" s="4"/>
-      <c r="D283" s="4"/>
+      <c r="C283" s="5"/>
+      <c r="D283" s="5"/>
     </row>
     <row r="284">
-      <c r="C284" s="4"/>
-      <c r="D284" s="4"/>
+      <c r="C284" s="5"/>
+      <c r="D284" s="5"/>
     </row>
     <row r="285">
-      <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
+      <c r="C285" s="5"/>
+      <c r="D285" s="5"/>
     </row>
     <row r="286">
-      <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
+      <c r="C286" s="5"/>
+      <c r="D286" s="5"/>
     </row>
     <row r="287">
-      <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
+      <c r="C287" s="5"/>
+      <c r="D287" s="5"/>
     </row>
     <row r="288">
-      <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
+      <c r="C288" s="5"/>
+      <c r="D288" s="5"/>
     </row>
     <row r="289">
-      <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
+      <c r="C289" s="5"/>
+      <c r="D289" s="5"/>
     </row>
     <row r="290">
-      <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
+      <c r="C290" s="5"/>
+      <c r="D290" s="5"/>
     </row>
     <row r="291">
-      <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
+      <c r="C291" s="5"/>
+      <c r="D291" s="5"/>
     </row>
     <row r="292">
-      <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
+      <c r="C292" s="5"/>
+      <c r="D292" s="5"/>
     </row>
     <row r="293">
-      <c r="C293" s="4"/>
-      <c r="D293" s="4"/>
+      <c r="C293" s="5"/>
+      <c r="D293" s="5"/>
     </row>
     <row r="294">
-      <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
+      <c r="C294" s="5"/>
+      <c r="D294" s="5"/>
     </row>
     <row r="295">
-      <c r="C295" s="4"/>
-      <c r="D295" s="4"/>
+      <c r="C295" s="5"/>
+      <c r="D295" s="5"/>
     </row>
     <row r="296">
-      <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
+      <c r="C296" s="5"/>
+      <c r="D296" s="5"/>
     </row>
     <row r="297">
-      <c r="C297" s="4"/>
-      <c r="D297" s="4"/>
+      <c r="C297" s="5"/>
+      <c r="D297" s="5"/>
     </row>
     <row r="298">
-      <c r="C298" s="4"/>
-      <c r="D298" s="4"/>
+      <c r="C298" s="5"/>
+      <c r="D298" s="5"/>
     </row>
     <row r="299">
-      <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
+      <c r="C299" s="5"/>
+      <c r="D299" s="5"/>
     </row>
     <row r="300">
-      <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
+      <c r="C300" s="5"/>
+      <c r="D300" s="5"/>
     </row>
     <row r="301">
-      <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
+      <c r="C301" s="5"/>
+      <c r="D301" s="5"/>
     </row>
     <row r="302">
-      <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
+      <c r="C302" s="5"/>
+      <c r="D302" s="5"/>
     </row>
     <row r="303">
-      <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
+      <c r="C303" s="5"/>
+      <c r="D303" s="5"/>
     </row>
     <row r="304">
-      <c r="C304" s="4"/>
-      <c r="D304" s="4"/>
+      <c r="C304" s="5"/>
+      <c r="D304" s="5"/>
     </row>
     <row r="305">
-      <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
+      <c r="C305" s="5"/>
+      <c r="D305" s="5"/>
     </row>
     <row r="306">
-      <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
+      <c r="C306" s="5"/>
+      <c r="D306" s="5"/>
     </row>
     <row r="307">
-      <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
+      <c r="C307" s="5"/>
+      <c r="D307" s="5"/>
     </row>
     <row r="308">
-      <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
+      <c r="C308" s="5"/>
+      <c r="D308" s="5"/>
     </row>
     <row r="309">
-      <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
+      <c r="C309" s="5"/>
+      <c r="D309" s="5"/>
     </row>
     <row r="310">
-      <c r="C310" s="4"/>
-      <c r="D310" s="4"/>
+      <c r="C310" s="5"/>
+      <c r="D310" s="5"/>
     </row>
     <row r="311">
-      <c r="C311" s="4"/>
-      <c r="D311" s="4"/>
+      <c r="C311" s="5"/>
+      <c r="D311" s="5"/>
     </row>
     <row r="312">
-      <c r="C312" s="4"/>
-      <c r="D312" s="4"/>
+      <c r="C312" s="5"/>
+      <c r="D312" s="5"/>
     </row>
     <row r="313">
-      <c r="C313" s="4"/>
-      <c r="D313" s="4"/>
+      <c r="C313" s="5"/>
+      <c r="D313" s="5"/>
     </row>
     <row r="314">
-      <c r="C314" s="4"/>
-      <c r="D314" s="4"/>
+      <c r="C314" s="5"/>
+      <c r="D314" s="5"/>
     </row>
     <row r="315">
-      <c r="C315" s="4"/>
-      <c r="D315" s="4"/>
+      <c r="C315" s="5"/>
+      <c r="D315" s="5"/>
     </row>
     <row r="316">
-      <c r="C316" s="4"/>
-      <c r="D316" s="4"/>
+      <c r="C316" s="5"/>
+      <c r="D316" s="5"/>
     </row>
     <row r="317">
-      <c r="C317" s="4"/>
-      <c r="D317" s="4"/>
+      <c r="C317" s="5"/>
+      <c r="D317" s="5"/>
     </row>
     <row r="318">
-      <c r="C318" s="4"/>
-      <c r="D318" s="4"/>
+      <c r="C318" s="5"/>
+      <c r="D318" s="5"/>
     </row>
     <row r="319">
-      <c r="C319" s="4"/>
-      <c r="D319" s="4"/>
+      <c r="C319" s="5"/>
+      <c r="D319" s="5"/>
     </row>
     <row r="320">
-      <c r="C320" s="4"/>
-      <c r="D320" s="4"/>
+      <c r="C320" s="5"/>
+      <c r="D320" s="5"/>
     </row>
     <row r="321">
-      <c r="C321" s="4"/>
-      <c r="D321" s="4"/>
+      <c r="C321" s="5"/>
+      <c r="D321" s="5"/>
     </row>
     <row r="322">
-      <c r="C322" s="4"/>
-      <c r="D322" s="4"/>
+      <c r="C322" s="5"/>
+      <c r="D322" s="5"/>
     </row>
     <row r="323">
-      <c r="C323" s="4"/>
-      <c r="D323" s="4"/>
+      <c r="C323" s="5"/>
+      <c r="D323" s="5"/>
     </row>
     <row r="324">
-      <c r="C324" s="4"/>
-      <c r="D324" s="4"/>
+      <c r="C324" s="5"/>
+      <c r="D324" s="5"/>
     </row>
     <row r="325">
-      <c r="C325" s="4"/>
-      <c r="D325" s="4"/>
+      <c r="C325" s="5"/>
+      <c r="D325" s="5"/>
     </row>
     <row r="326">
-      <c r="C326" s="4"/>
-      <c r="D326" s="4"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="5"/>
     </row>
     <row r="327">
-      <c r="C327" s="4"/>
-      <c r="D327" s="4"/>
+      <c r="C327" s="5"/>
+      <c r="D327" s="5"/>
     </row>
     <row r="328">
-      <c r="C328" s="4"/>
-      <c r="D328" s="4"/>
+      <c r="C328" s="5"/>
+      <c r="D328" s="5"/>
     </row>
     <row r="329">
-      <c r="C329" s="4"/>
-      <c r="D329" s="4"/>
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
     </row>
     <row r="330">
-      <c r="C330" s="4"/>
-      <c r="D330" s="4"/>
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
     </row>
     <row r="331">
-      <c r="C331" s="4"/>
-      <c r="D331" s="4"/>
+      <c r="C331" s="5"/>
+      <c r="D331" s="5"/>
     </row>
     <row r="332">
-      <c r="C332" s="4"/>
-      <c r="D332" s="4"/>
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
     </row>
     <row r="333">
-      <c r="C333" s="4"/>
-      <c r="D333" s="4"/>
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
     </row>
     <row r="334">
-      <c r="C334" s="4"/>
-      <c r="D334" s="4"/>
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
     </row>
     <row r="335">
-      <c r="C335" s="4"/>
-      <c r="D335" s="4"/>
+      <c r="C335" s="5"/>
+      <c r="D335" s="5"/>
     </row>
     <row r="336">
-      <c r="C336" s="4"/>
-      <c r="D336" s="4"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="5"/>
     </row>
     <row r="337">
-      <c r="C337" s="4"/>
-      <c r="D337" s="4"/>
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
     </row>
     <row r="338">
-      <c r="C338" s="4"/>
-      <c r="D338" s="4"/>
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
     </row>
     <row r="339">
-      <c r="C339" s="4"/>
-      <c r="D339" s="4"/>
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
     </row>
     <row r="340">
-      <c r="C340" s="4"/>
-      <c r="D340" s="4"/>
+      <c r="C340" s="5"/>
+      <c r="D340" s="5"/>
     </row>
     <row r="341">
-      <c r="C341" s="4"/>
-      <c r="D341" s="4"/>
+      <c r="C341" s="5"/>
+      <c r="D341" s="5"/>
     </row>
     <row r="342">
-      <c r="C342" s="4"/>
-      <c r="D342" s="4"/>
+      <c r="C342" s="5"/>
+      <c r="D342" s="5"/>
     </row>
     <row r="343">
-      <c r="C343" s="4"/>
-      <c r="D343" s="4"/>
+      <c r="C343" s="5"/>
+      <c r="D343" s="5"/>
     </row>
     <row r="344">
-      <c r="C344" s="4"/>
-      <c r="D344" s="4"/>
+      <c r="C344" s="5"/>
+      <c r="D344" s="5"/>
     </row>
     <row r="345">
-      <c r="C345" s="4"/>
-      <c r="D345" s="4"/>
+      <c r="C345" s="5"/>
+      <c r="D345" s="5"/>
     </row>
     <row r="346">
-      <c r="C346" s="4"/>
-      <c r="D346" s="4"/>
+      <c r="C346" s="5"/>
+      <c r="D346" s="5"/>
     </row>
     <row r="347">
-      <c r="C347" s="4"/>
-      <c r="D347" s="4"/>
+      <c r="C347" s="5"/>
+      <c r="D347" s="5"/>
     </row>
     <row r="348">
-      <c r="C348" s="4"/>
-      <c r="D348" s="4"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
     </row>
     <row r="349">
-      <c r="C349" s="4"/>
-      <c r="D349" s="4"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="5"/>
     </row>
     <row r="350">
-      <c r="C350" s="4"/>
-      <c r="D350" s="4"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="5"/>
     </row>
     <row r="351">
-      <c r="C351" s="4"/>
-      <c r="D351" s="4"/>
+      <c r="C351" s="5"/>
+      <c r="D351" s="5"/>
     </row>
     <row r="352">
-      <c r="C352" s="4"/>
-      <c r="D352" s="4"/>
+      <c r="C352" s="5"/>
+      <c r="D352" s="5"/>
     </row>
     <row r="353">
-      <c r="C353" s="4"/>
-      <c r="D353" s="4"/>
+      <c r="C353" s="5"/>
+      <c r="D353" s="5"/>
     </row>
     <row r="354">
-      <c r="C354" s="4"/>
-      <c r="D354" s="4"/>
+      <c r="C354" s="5"/>
+      <c r="D354" s="5"/>
     </row>
     <row r="355">
-      <c r="C355" s="4"/>
-      <c r="D355" s="4"/>
+      <c r="C355" s="5"/>
+      <c r="D355" s="5"/>
     </row>
     <row r="356">
-      <c r="C356" s="4"/>
-      <c r="D356" s="4"/>
+      <c r="C356" s="5"/>
+      <c r="D356" s="5"/>
     </row>
     <row r="357">
-      <c r="C357" s="4"/>
-      <c r="D357" s="4"/>
+      <c r="C357" s="5"/>
+      <c r="D357" s="5"/>
     </row>
     <row r="358">
-      <c r="C358" s="4"/>
-      <c r="D358" s="4"/>
+      <c r="C358" s="5"/>
+      <c r="D358" s="5"/>
     </row>
     <row r="359">
-      <c r="C359" s="4"/>
-      <c r="D359" s="4"/>
+      <c r="C359" s="5"/>
+      <c r="D359" s="5"/>
     </row>
     <row r="360">
-      <c r="C360" s="4"/>
-      <c r="D360" s="4"/>
+      <c r="C360" s="5"/>
+      <c r="D360" s="5"/>
     </row>
     <row r="361">
-      <c r="C361" s="4"/>
-      <c r="D361" s="4"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="5"/>
     </row>
     <row r="362">
-      <c r="C362" s="4"/>
-      <c r="D362" s="4"/>
+      <c r="C362" s="5"/>
+      <c r="D362" s="5"/>
     </row>
     <row r="363">
-      <c r="C363" s="4"/>
-      <c r="D363" s="4"/>
+      <c r="C363" s="5"/>
+      <c r="D363" s="5"/>
     </row>
     <row r="364">
-      <c r="C364" s="4"/>
-      <c r="D364" s="4"/>
+      <c r="C364" s="5"/>
+      <c r="D364" s="5"/>
     </row>
     <row r="365">
-      <c r="C365" s="4"/>
-      <c r="D365" s="4"/>
+      <c r="C365" s="5"/>
+      <c r="D365" s="5"/>
     </row>
     <row r="366">
-      <c r="C366" s="4"/>
-      <c r="D366" s="4"/>
+      <c r="C366" s="5"/>
+      <c r="D366" s="5"/>
     </row>
     <row r="367">
-      <c r="C367" s="4"/>
-      <c r="D367" s="4"/>
+      <c r="C367" s="5"/>
+      <c r="D367" s="5"/>
     </row>
     <row r="368">
-      <c r="C368" s="4"/>
-      <c r="D368" s="4"/>
+      <c r="C368" s="5"/>
+      <c r="D368" s="5"/>
     </row>
     <row r="369">
-      <c r="C369" s="4"/>
-      <c r="D369" s="4"/>
+      <c r="C369" s="5"/>
+      <c r="D369" s="5"/>
     </row>
     <row r="370">
-      <c r="C370" s="4"/>
-      <c r="D370" s="4"/>
+      <c r="C370" s="5"/>
+      <c r="D370" s="5"/>
     </row>
     <row r="371">
-      <c r="C371" s="4"/>
-      <c r="D371" s="4"/>
+      <c r="C371" s="5"/>
+      <c r="D371" s="5"/>
     </row>
     <row r="372">
-      <c r="C372" s="4"/>
-      <c r="D372" s="4"/>
+      <c r="C372" s="5"/>
+      <c r="D372" s="5"/>
     </row>
     <row r="373">
-      <c r="C373" s="4"/>
-      <c r="D373" s="4"/>
+      <c r="C373" s="5"/>
+      <c r="D373" s="5"/>
     </row>
     <row r="374">
-      <c r="C374" s="4"/>
-      <c r="D374" s="4"/>
+      <c r="C374" s="5"/>
+      <c r="D374" s="5"/>
     </row>
     <row r="375">
-      <c r="C375" s="4"/>
-      <c r="D375" s="4"/>
+      <c r="C375" s="5"/>
+      <c r="D375" s="5"/>
     </row>
     <row r="376">
-      <c r="C376" s="4"/>
-      <c r="D376" s="4"/>
+      <c r="C376" s="5"/>
+      <c r="D376" s="5"/>
     </row>
     <row r="377">
-      <c r="C377" s="4"/>
-      <c r="D377" s="4"/>
+      <c r="C377" s="5"/>
+      <c r="D377" s="5"/>
     </row>
     <row r="378">
-      <c r="C378" s="4"/>
-      <c r="D378" s="4"/>
+      <c r="C378" s="5"/>
+      <c r="D378" s="5"/>
     </row>
     <row r="379">
-      <c r="C379" s="4"/>
-      <c r="D379" s="4"/>
+      <c r="C379" s="5"/>
+      <c r="D379" s="5"/>
     </row>
     <row r="380">
-      <c r="C380" s="4"/>
-      <c r="D380" s="4"/>
+      <c r="C380" s="5"/>
+      <c r="D380" s="5"/>
     </row>
     <row r="381">
-      <c r="C381" s="4"/>
-      <c r="D381" s="4"/>
+      <c r="C381" s="5"/>
+      <c r="D381" s="5"/>
     </row>
     <row r="382">
-      <c r="C382" s="4"/>
-      <c r="D382" s="4"/>
+      <c r="C382" s="5"/>
+      <c r="D382" s="5"/>
     </row>
     <row r="383">
-      <c r="C383" s="4"/>
-      <c r="D383" s="4"/>
+      <c r="C383" s="5"/>
+      <c r="D383" s="5"/>
     </row>
     <row r="384">
-      <c r="C384" s="4"/>
-      <c r="D384" s="4"/>
+      <c r="C384" s="5"/>
+      <c r="D384" s="5"/>
     </row>
     <row r="385">
-      <c r="C385" s="4"/>
-      <c r="D385" s="4"/>
+      <c r="C385" s="5"/>
+      <c r="D385" s="5"/>
     </row>
     <row r="386">
-      <c r="C386" s="4"/>
-      <c r="D386" s="4"/>
+      <c r="C386" s="5"/>
+      <c r="D386" s="5"/>
     </row>
     <row r="387">
-      <c r="C387" s="4"/>
-      <c r="D387" s="4"/>
+      <c r="C387" s="5"/>
+      <c r="D387" s="5"/>
     </row>
     <row r="388">
-      <c r="C388" s="4"/>
-      <c r="D388" s="4"/>
+      <c r="C388" s="5"/>
+      <c r="D388" s="5"/>
     </row>
     <row r="389">
-      <c r="C389" s="4"/>
-      <c r="D389" s="4"/>
+      <c r="C389" s="5"/>
+      <c r="D389" s="5"/>
     </row>
     <row r="390">
-      <c r="C390" s="4"/>
-      <c r="D390" s="4"/>
+      <c r="C390" s="5"/>
+      <c r="D390" s="5"/>
     </row>
     <row r="391">
-      <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
+      <c r="C391" s="5"/>
+      <c r="D391" s="5"/>
     </row>
     <row r="392">
-      <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
+      <c r="C392" s="5"/>
+      <c r="D392" s="5"/>
     </row>
     <row r="393">
-      <c r="C393" s="4"/>
-      <c r="D393" s="4"/>
+      <c r="C393" s="5"/>
+      <c r="D393" s="5"/>
     </row>
     <row r="394">
-      <c r="C394" s="4"/>
-      <c r="D394" s="4"/>
+      <c r="C394" s="5"/>
+      <c r="D394" s="5"/>
     </row>
     <row r="395">
-      <c r="C395" s="4"/>
-      <c r="D395" s="4"/>
+      <c r="C395" s="5"/>
+      <c r="D395" s="5"/>
     </row>
     <row r="396">
-      <c r="C396" s="4"/>
-      <c r="D396" s="4"/>
+      <c r="C396" s="5"/>
+      <c r="D396" s="5"/>
     </row>
     <row r="397">
-      <c r="C397" s="4"/>
-      <c r="D397" s="4"/>
+      <c r="C397" s="5"/>
+      <c r="D397" s="5"/>
     </row>
     <row r="398">
-      <c r="C398" s="4"/>
-      <c r="D398" s="4"/>
+      <c r="C398" s="5"/>
+      <c r="D398" s="5"/>
     </row>
     <row r="399">
-      <c r="C399" s="4"/>
-      <c r="D399" s="4"/>
+      <c r="C399" s="5"/>
+      <c r="D399" s="5"/>
     </row>
     <row r="400">
-      <c r="C400" s="4"/>
-      <c r="D400" s="4"/>
+      <c r="C400" s="5"/>
+      <c r="D400" s="5"/>
     </row>
     <row r="401">
-      <c r="C401" s="4"/>
-      <c r="D401" s="4"/>
+      <c r="C401" s="5"/>
+      <c r="D401" s="5"/>
     </row>
     <row r="402">
-      <c r="C402" s="4"/>
-      <c r="D402" s="4"/>
+      <c r="C402" s="5"/>
+      <c r="D402" s="5"/>
     </row>
     <row r="403">
-      <c r="C403" s="4"/>
-      <c r="D403" s="4"/>
+      <c r="C403" s="5"/>
+      <c r="D403" s="5"/>
     </row>
     <row r="404">
-      <c r="C404" s="4"/>
-      <c r="D404" s="4"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
     </row>
     <row r="405">
-      <c r="C405" s="4"/>
-      <c r="D405" s="4"/>
+      <c r="C405" s="5"/>
+      <c r="D405" s="5"/>
     </row>
     <row r="406">
-      <c r="C406" s="4"/>
-      <c r="D406" s="4"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="5"/>
     </row>
     <row r="407">
-      <c r="C407" s="4"/>
-      <c r="D407" s="4"/>
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
     </row>
     <row r="408">
-      <c r="C408" s="4"/>
-      <c r="D408" s="4"/>
+      <c r="C408" s="5"/>
+      <c r="D408" s="5"/>
     </row>
     <row r="409">
-      <c r="C409" s="4"/>
-      <c r="D409" s="4"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
     </row>
     <row r="410">
-      <c r="C410" s="4"/>
-      <c r="D410" s="4"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
     </row>
     <row r="411">
-      <c r="C411" s="4"/>
-      <c r="D411" s="4"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
     </row>
     <row r="412">
-      <c r="C412" s="4"/>
-      <c r="D412" s="4"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
     </row>
     <row r="413">
-      <c r="C413" s="4"/>
-      <c r="D413" s="4"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
     </row>
     <row r="414">
-      <c r="C414" s="4"/>
-      <c r="D414" s="4"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
     </row>
     <row r="415">
-      <c r="C415" s="4"/>
-      <c r="D415" s="4"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
     </row>
     <row r="416">
-      <c r="C416" s="4"/>
-      <c r="D416" s="4"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
     </row>
     <row r="417">
-      <c r="C417" s="4"/>
-      <c r="D417" s="4"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
     </row>
     <row r="418">
-      <c r="C418" s="4"/>
-      <c r="D418" s="4"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
     </row>
     <row r="419">
-      <c r="C419" s="4"/>
-      <c r="D419" s="4"/>
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
     </row>
     <row r="420">
-      <c r="C420" s="4"/>
-      <c r="D420" s="4"/>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
     </row>
     <row r="421">
-      <c r="C421" s="4"/>
-      <c r="D421" s="4"/>
+      <c r="C421" s="5"/>
+      <c r="D421" s="5"/>
     </row>
     <row r="422">
-      <c r="C422" s="4"/>
-      <c r="D422" s="4"/>
+      <c r="C422" s="5"/>
+      <c r="D422" s="5"/>
     </row>
     <row r="423">
-      <c r="C423" s="4"/>
-      <c r="D423" s="4"/>
+      <c r="C423" s="5"/>
+      <c r="D423" s="5"/>
     </row>
     <row r="424">
-      <c r="C424" s="4"/>
-      <c r="D424" s="4"/>
+      <c r="C424" s="5"/>
+      <c r="D424" s="5"/>
     </row>
     <row r="425">
-      <c r="C425" s="4"/>
-      <c r="D425" s="4"/>
+      <c r="C425" s="5"/>
+      <c r="D425" s="5"/>
     </row>
     <row r="426">
-      <c r="C426" s="4"/>
-      <c r="D426" s="4"/>
+      <c r="C426" s="5"/>
+      <c r="D426" s="5"/>
     </row>
     <row r="427">
-      <c r="C427" s="4"/>
-      <c r="D427" s="4"/>
+      <c r="C427" s="5"/>
+      <c r="D427" s="5"/>
     </row>
     <row r="428">
-      <c r="C428" s="4"/>
-      <c r="D428" s="4"/>
+      <c r="C428" s="5"/>
+      <c r="D428" s="5"/>
     </row>
     <row r="429">
-      <c r="C429" s="4"/>
-      <c r="D429" s="4"/>
+      <c r="C429" s="5"/>
+      <c r="D429" s="5"/>
     </row>
     <row r="430">
-      <c r="C430" s="4"/>
-      <c r="D430" s="4"/>
+      <c r="C430" s="5"/>
+      <c r="D430" s="5"/>
     </row>
     <row r="431">
-      <c r="C431" s="4"/>
-      <c r="D431" s="4"/>
+      <c r="C431" s="5"/>
+      <c r="D431" s="5"/>
     </row>
     <row r="432">
-      <c r="C432" s="4"/>
-      <c r="D432" s="4"/>
+      <c r="C432" s="5"/>
+      <c r="D432" s="5"/>
     </row>
     <row r="433">
-      <c r="C433" s="4"/>
-      <c r="D433" s="4"/>
+      <c r="C433" s="5"/>
+      <c r="D433" s="5"/>
     </row>
     <row r="434">
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
+      <c r="C434" s="5"/>
+      <c r="D434" s="5"/>
     </row>
     <row r="435">
-      <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
+      <c r="C435" s="5"/>
+      <c r="D435" s="5"/>
     </row>
     <row r="436">
-      <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
+      <c r="C436" s="5"/>
+      <c r="D436" s="5"/>
     </row>
     <row r="437">
-      <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
+      <c r="C437" s="5"/>
+      <c r="D437" s="5"/>
     </row>
     <row r="438">
-      <c r="C438" s="4"/>
-      <c r="D438" s="4"/>
+      <c r="C438" s="5"/>
+      <c r="D438" s="5"/>
     </row>
     <row r="439">
-      <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
+      <c r="C439" s="5"/>
+      <c r="D439" s="5"/>
     </row>
     <row r="440">
-      <c r="C440" s="4"/>
-      <c r="D440" s="4"/>
+      <c r="C440" s="5"/>
+      <c r="D440" s="5"/>
     </row>
     <row r="441">
-      <c r="C441" s="4"/>
-      <c r="D441" s="4"/>
+      <c r="C441" s="5"/>
+      <c r="D441" s="5"/>
     </row>
     <row r="442">
-      <c r="C442" s="4"/>
-      <c r="D442" s="4"/>
+      <c r="C442" s="5"/>
+      <c r="D442" s="5"/>
     </row>
     <row r="443">
-      <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
+      <c r="C443" s="5"/>
+      <c r="D443" s="5"/>
     </row>
     <row r="444">
-      <c r="C444" s="4"/>
-      <c r="D444" s="4"/>
+      <c r="C444" s="5"/>
+      <c r="D444" s="5"/>
     </row>
     <row r="445">
-      <c r="C445" s="4"/>
-      <c r="D445" s="4"/>
+      <c r="C445" s="5"/>
+      <c r="D445" s="5"/>
     </row>
     <row r="446">
-      <c r="C446" s="4"/>
-      <c r="D446" s="4"/>
+      <c r="C446" s="5"/>
+      <c r="D446" s="5"/>
     </row>
     <row r="447">
-      <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
+      <c r="C447" s="5"/>
+      <c r="D447" s="5"/>
     </row>
     <row r="448">
-      <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
+      <c r="C448" s="5"/>
+      <c r="D448" s="5"/>
     </row>
     <row r="449">
-      <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
+      <c r="C449" s="5"/>
+      <c r="D449" s="5"/>
     </row>
     <row r="450">
-      <c r="C450" s="4"/>
-      <c r="D450" s="4"/>
+      <c r="C450" s="5"/>
+      <c r="D450" s="5"/>
     </row>
     <row r="451">
-      <c r="C451" s="4"/>
-      <c r="D451" s="4"/>
+      <c r="C451" s="5"/>
+      <c r="D451" s="5"/>
     </row>
     <row r="452">
-      <c r="C452" s="4"/>
-      <c r="D452" s="4"/>
+      <c r="C452" s="5"/>
+      <c r="D452" s="5"/>
     </row>
     <row r="453">
-      <c r="C453" s="4"/>
-      <c r="D453" s="4"/>
+      <c r="C453" s="5"/>
+      <c r="D453" s="5"/>
     </row>
     <row r="454">
-      <c r="C454" s="4"/>
-      <c r="D454" s="4"/>
+      <c r="C454" s="5"/>
+      <c r="D454" s="5"/>
     </row>
     <row r="455">
-      <c r="C455" s="4"/>
-      <c r="D455" s="4"/>
+      <c r="C455" s="5"/>
+      <c r="D455" s="5"/>
     </row>
     <row r="456">
-      <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
+      <c r="C456" s="5"/>
+      <c r="D456" s="5"/>
     </row>
     <row r="457">
-      <c r="C457" s="4"/>
-      <c r="D457" s="4"/>
+      <c r="C457" s="5"/>
+      <c r="D457" s="5"/>
     </row>
     <row r="458">
-      <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
+      <c r="C458" s="5"/>
+      <c r="D458" s="5"/>
     </row>
     <row r="459">
-      <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
+      <c r="C459" s="5"/>
+      <c r="D459" s="5"/>
     </row>
     <row r="460">
-      <c r="C460" s="4"/>
-      <c r="D460" s="4"/>
+      <c r="C460" s="5"/>
+      <c r="D460" s="5"/>
     </row>
     <row r="461">
-      <c r="C461" s="4"/>
-      <c r="D461" s="4"/>
+      <c r="C461" s="5"/>
+      <c r="D461" s="5"/>
     </row>
     <row r="462">
-      <c r="C462" s="4"/>
-      <c r="D462" s="4"/>
+      <c r="C462" s="5"/>
+      <c r="D462" s="5"/>
     </row>
     <row r="463">
-      <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
+      <c r="C463" s="5"/>
+      <c r="D463" s="5"/>
     </row>
     <row r="464">
-      <c r="C464" s="4"/>
-      <c r="D464" s="4"/>
+      <c r="C464" s="5"/>
+      <c r="D464" s="5"/>
     </row>
     <row r="465">
-      <c r="C465" s="4"/>
-      <c r="D465" s="4"/>
+      <c r="C465" s="5"/>
+      <c r="D465" s="5"/>
     </row>
     <row r="466">
-      <c r="C466" s="4"/>
-      <c r="D466" s="4"/>
+      <c r="C466" s="5"/>
+      <c r="D466" s="5"/>
     </row>
     <row r="467">
-      <c r="C467" s="4"/>
-      <c r="D467" s="4"/>
+      <c r="C467" s="5"/>
+      <c r="D467" s="5"/>
     </row>
     <row r="468">
-      <c r="C468" s="4"/>
-      <c r="D468" s="4"/>
+      <c r="C468" s="5"/>
+      <c r="D468" s="5"/>
     </row>
     <row r="469">
-      <c r="C469" s="4"/>
-      <c r="D469" s="4"/>
+      <c r="C469" s="5"/>
+      <c r="D469" s="5"/>
     </row>
     <row r="470">
-      <c r="C470" s="4"/>
-      <c r="D470" s="4"/>
+      <c r="C470" s="5"/>
+      <c r="D470" s="5"/>
     </row>
     <row r="471">
-      <c r="C471" s="4"/>
-      <c r="D471" s="4"/>
+      <c r="C471" s="5"/>
+      <c r="D471" s="5"/>
     </row>
     <row r="472">
-      <c r="C472" s="4"/>
-      <c r="D472" s="4"/>
+      <c r="C472" s="5"/>
+      <c r="D472" s="5"/>
     </row>
     <row r="473">
-      <c r="C473" s="4"/>
-      <c r="D473" s="4"/>
+      <c r="C473" s="5"/>
+      <c r="D473" s="5"/>
     </row>
     <row r="474">
-      <c r="C474" s="4"/>
-      <c r="D474" s="4"/>
+      <c r="C474" s="5"/>
+      <c r="D474" s="5"/>
     </row>
     <row r="475">
-      <c r="C475" s="4"/>
-      <c r="D475" s="4"/>
+      <c r="C475" s="5"/>
+      <c r="D475" s="5"/>
     </row>
     <row r="476">
-      <c r="C476" s="4"/>
-      <c r="D476" s="4"/>
+      <c r="C476" s="5"/>
+      <c r="D476" s="5"/>
     </row>
     <row r="477">
-      <c r="C477" s="4"/>
-      <c r="D477" s="4"/>
+      <c r="C477" s="5"/>
+      <c r="D477" s="5"/>
     </row>
     <row r="478">
-      <c r="C478" s="4"/>
-      <c r="D478" s="4"/>
+      <c r="C478" s="5"/>
+      <c r="D478" s="5"/>
     </row>
     <row r="479">
-      <c r="C479" s="4"/>
-      <c r="D479" s="4"/>
+      <c r="C479" s="5"/>
+      <c r="D479" s="5"/>
     </row>
     <row r="480">
-      <c r="C480" s="4"/>
-      <c r="D480" s="4"/>
+      <c r="C480" s="5"/>
+      <c r="D480" s="5"/>
     </row>
     <row r="481">
-      <c r="C481" s="4"/>
-      <c r="D481" s="4"/>
+      <c r="C481" s="5"/>
+      <c r="D481" s="5"/>
     </row>
     <row r="482">
-      <c r="C482" s="4"/>
-      <c r="D482" s="4"/>
+      <c r="C482" s="5"/>
+      <c r="D482" s="5"/>
     </row>
     <row r="483">
-      <c r="C483" s="4"/>
-      <c r="D483" s="4"/>
+      <c r="C483" s="5"/>
+      <c r="D483" s="5"/>
     </row>
     <row r="484">
-      <c r="C484" s="4"/>
-      <c r="D484" s="4"/>
+      <c r="C484" s="5"/>
+      <c r="D484" s="5"/>
     </row>
     <row r="485">
-      <c r="C485" s="4"/>
-      <c r="D485" s="4"/>
+      <c r="C485" s="5"/>
+      <c r="D485" s="5"/>
     </row>
     <row r="486">
-      <c r="C486" s="4"/>
-      <c r="D486" s="4"/>
+      <c r="C486" s="5"/>
+      <c r="D486" s="5"/>
     </row>
     <row r="487">
-      <c r="C487" s="4"/>
-      <c r="D487" s="4"/>
+      <c r="C487" s="5"/>
+      <c r="D487" s="5"/>
     </row>
     <row r="488">
-      <c r="C488" s="4"/>
-      <c r="D488" s="4"/>
+      <c r="C488" s="5"/>
+      <c r="D488" s="5"/>
     </row>
     <row r="489">
-      <c r="C489" s="4"/>
-      <c r="D489" s="4"/>
+      <c r="C489" s="5"/>
+      <c r="D489" s="5"/>
     </row>
     <row r="490">
-      <c r="C490" s="4"/>
-      <c r="D490" s="4"/>
+      <c r="C490" s="5"/>
+      <c r="D490" s="5"/>
     </row>
     <row r="491">
-      <c r="C491" s="4"/>
-      <c r="D491" s="4"/>
+      <c r="C491" s="5"/>
+      <c r="D491" s="5"/>
     </row>
     <row r="492">
-      <c r="C492" s="4"/>
-      <c r="D492" s="4"/>
+      <c r="C492" s="5"/>
+      <c r="D492" s="5"/>
     </row>
     <row r="493">
-      <c r="C493" s="4"/>
-      <c r="D493" s="4"/>
+      <c r="C493" s="5"/>
+      <c r="D493" s="5"/>
     </row>
     <row r="494">
-      <c r="C494" s="4"/>
-      <c r="D494" s="4"/>
+      <c r="C494" s="5"/>
+      <c r="D494" s="5"/>
     </row>
     <row r="495">
-      <c r="C495" s="4"/>
-      <c r="D495" s="4"/>
+      <c r="C495" s="5"/>
+      <c r="D495" s="5"/>
     </row>
     <row r="496">
-      <c r="C496" s="4"/>
-      <c r="D496" s="4"/>
+      <c r="C496" s="5"/>
+      <c r="D496" s="5"/>
     </row>
     <row r="497">
-      <c r="C497" s="4"/>
-      <c r="D497" s="4"/>
+      <c r="C497" s="5"/>
+      <c r="D497" s="5"/>
     </row>
     <row r="498">
-      <c r="C498" s="4"/>
-      <c r="D498" s="4"/>
+      <c r="C498" s="5"/>
+      <c r="D498" s="5"/>
     </row>
     <row r="499">
-      <c r="C499" s="4"/>
-      <c r="D499" s="4"/>
+      <c r="C499" s="5"/>
+      <c r="D499" s="5"/>
     </row>
     <row r="500">
-      <c r="C500" s="4"/>
-      <c r="D500" s="4"/>
+      <c r="C500" s="5"/>
+      <c r="D500" s="5"/>
     </row>
     <row r="501">
-      <c r="C501" s="4"/>
-      <c r="D501" s="4"/>
+      <c r="C501" s="5"/>
+      <c r="D501" s="5"/>
     </row>
     <row r="502">
-      <c r="C502" s="4"/>
-      <c r="D502" s="4"/>
+      <c r="C502" s="5"/>
+      <c r="D502" s="5"/>
     </row>
     <row r="503">
-      <c r="C503" s="4"/>
-      <c r="D503" s="4"/>
+      <c r="C503" s="5"/>
+      <c r="D503" s="5"/>
     </row>
     <row r="504">
-      <c r="C504" s="4"/>
-      <c r="D504" s="4"/>
+      <c r="C504" s="5"/>
+      <c r="D504" s="5"/>
     </row>
     <row r="505">
-      <c r="C505" s="4"/>
-      <c r="D505" s="4"/>
+      <c r="C505" s="5"/>
+      <c r="D505" s="5"/>
     </row>
     <row r="506">
-      <c r="C506" s="4"/>
-      <c r="D506" s="4"/>
+      <c r="C506" s="5"/>
+      <c r="D506" s="5"/>
     </row>
     <row r="507">
-      <c r="C507" s="4"/>
-      <c r="D507" s="4"/>
+      <c r="C507" s="5"/>
+      <c r="D507" s="5"/>
     </row>
     <row r="508">
-      <c r="C508" s="4"/>
-      <c r="D508" s="4"/>
+      <c r="C508" s="5"/>
+      <c r="D508" s="5"/>
     </row>
     <row r="509">
-      <c r="C509" s="4"/>
-      <c r="D509" s="4"/>
+      <c r="C509" s="5"/>
+      <c r="D509" s="5"/>
     </row>
     <row r="510">
-      <c r="C510" s="4"/>
-      <c r="D510" s="4"/>
+      <c r="C510" s="5"/>
+      <c r="D510" s="5"/>
     </row>
     <row r="511">
-      <c r="C511" s="4"/>
-      <c r="D511" s="4"/>
+      <c r="C511" s="5"/>
+      <c r="D511" s="5"/>
     </row>
     <row r="512">
-      <c r="C512" s="4"/>
-      <c r="D512" s="4"/>
+      <c r="C512" s="5"/>
+      <c r="D512" s="5"/>
     </row>
     <row r="513">
-      <c r="C513" s="4"/>
-      <c r="D513" s="4"/>
+      <c r="C513" s="5"/>
+      <c r="D513" s="5"/>
     </row>
     <row r="514">
-      <c r="C514" s="4"/>
-      <c r="D514" s="4"/>
+      <c r="C514" s="5"/>
+      <c r="D514" s="5"/>
     </row>
     <row r="515">
-      <c r="C515" s="4"/>
-      <c r="D515" s="4"/>
+      <c r="C515" s="5"/>
+      <c r="D515" s="5"/>
     </row>
     <row r="516">
-      <c r="C516" s="4"/>
-      <c r="D516" s="4"/>
+      <c r="C516" s="5"/>
+      <c r="D516" s="5"/>
     </row>
     <row r="517">
-      <c r="C517" s="4"/>
-      <c r="D517" s="4"/>
+      <c r="C517" s="5"/>
+      <c r="D517" s="5"/>
     </row>
     <row r="518">
-      <c r="C518" s="4"/>
-      <c r="D518" s="4"/>
+      <c r="C518" s="5"/>
+      <c r="D518" s="5"/>
     </row>
     <row r="519">
-      <c r="C519" s="4"/>
-      <c r="D519" s="4"/>
+      <c r="C519" s="5"/>
+      <c r="D519" s="5"/>
     </row>
     <row r="520">
-      <c r="C520" s="4"/>
-      <c r="D520" s="4"/>
+      <c r="C520" s="5"/>
+      <c r="D520" s="5"/>
     </row>
     <row r="521">
-      <c r="C521" s="4"/>
-      <c r="D521" s="4"/>
+      <c r="C521" s="5"/>
+      <c r="D521" s="5"/>
     </row>
     <row r="522">
-      <c r="C522" s="4"/>
-      <c r="D522" s="4"/>
+      <c r="C522" s="5"/>
+      <c r="D522" s="5"/>
     </row>
     <row r="523">
-      <c r="C523" s="4"/>
-      <c r="D523" s="4"/>
+      <c r="C523" s="5"/>
+      <c r="D523" s="5"/>
     </row>
     <row r="524">
-      <c r="C524" s="4"/>
-      <c r="D524" s="4"/>
+      <c r="C524" s="5"/>
+      <c r="D524" s="5"/>
     </row>
     <row r="525">
-      <c r="C525" s="4"/>
-      <c r="D525" s="4"/>
+      <c r="C525" s="5"/>
+      <c r="D525" s="5"/>
     </row>
     <row r="526">
-      <c r="C526" s="4"/>
-      <c r="D526" s="4"/>
+      <c r="C526" s="5"/>
+      <c r="D526" s="5"/>
     </row>
     <row r="527">
-      <c r="C527" s="4"/>
-      <c r="D527" s="4"/>
+      <c r="C527" s="5"/>
+      <c r="D527" s="5"/>
     </row>
     <row r="528">
-      <c r="C528" s="4"/>
-      <c r="D528" s="4"/>
+      <c r="C528" s="5"/>
+      <c r="D528" s="5"/>
     </row>
     <row r="529">
-      <c r="C529" s="4"/>
-      <c r="D529" s="4"/>
+      <c r="C529" s="5"/>
+      <c r="D529" s="5"/>
     </row>
     <row r="530">
-      <c r="C530" s="4"/>
-      <c r="D530" s="4"/>
+      <c r="C530" s="5"/>
+      <c r="D530" s="5"/>
     </row>
     <row r="531">
-      <c r="C531" s="4"/>
-      <c r="D531" s="4"/>
+      <c r="C531" s="5"/>
+      <c r="D531" s="5"/>
     </row>
     <row r="532">
-      <c r="C532" s="4"/>
-      <c r="D532" s="4"/>
+      <c r="C532" s="5"/>
+      <c r="D532" s="5"/>
     </row>
     <row r="533">
-      <c r="C533" s="4"/>
-      <c r="D533" s="4"/>
+      <c r="C533" s="5"/>
+      <c r="D533" s="5"/>
     </row>
     <row r="534">
-      <c r="C534" s="4"/>
-      <c r="D534" s="4"/>
+      <c r="C534" s="5"/>
+      <c r="D534" s="5"/>
     </row>
     <row r="535">
-      <c r="C535" s="4"/>
-      <c r="D535" s="4"/>
+      <c r="C535" s="5"/>
+      <c r="D535" s="5"/>
     </row>
     <row r="536">
-      <c r="C536" s="4"/>
-      <c r="D536" s="4"/>
+      <c r="C536" s="5"/>
+      <c r="D536" s="5"/>
     </row>
     <row r="537">
-      <c r="C537" s="4"/>
-      <c r="D537" s="4"/>
+      <c r="C537" s="5"/>
+      <c r="D537" s="5"/>
     </row>
     <row r="538">
-      <c r="C538" s="4"/>
-      <c r="D538" s="4"/>
+      <c r="C538" s="5"/>
+      <c r="D538" s="5"/>
     </row>
     <row r="539">
-      <c r="C539" s="4"/>
-      <c r="D539" s="4"/>
+      <c r="C539" s="5"/>
+      <c r="D539" s="5"/>
     </row>
     <row r="540">
-      <c r="C540" s="4"/>
-      <c r="D540" s="4"/>
+      <c r="C540" s="5"/>
+      <c r="D540" s="5"/>
     </row>
     <row r="541">
-      <c r="C541" s="4"/>
-      <c r="D541" s="4"/>
+      <c r="C541" s="5"/>
+      <c r="D541" s="5"/>
     </row>
     <row r="542">
-      <c r="C542" s="4"/>
-      <c r="D542" s="4"/>
+      <c r="C542" s="5"/>
+      <c r="D542" s="5"/>
     </row>
     <row r="543">
-      <c r="C543" s="4"/>
-      <c r="D543" s="4"/>
+      <c r="C543" s="5"/>
+      <c r="D543" s="5"/>
     </row>
     <row r="544">
-      <c r="C544" s="4"/>
-      <c r="D544" s="4"/>
+      <c r="C544" s="5"/>
+      <c r="D544" s="5"/>
     </row>
     <row r="545">
-      <c r="C545" s="4"/>
-      <c r="D545" s="4"/>
+      <c r="C545" s="5"/>
+      <c r="D545" s="5"/>
     </row>
     <row r="546">
-      <c r="C546" s="4"/>
-      <c r="D546" s="4"/>
+      <c r="C546" s="5"/>
+      <c r="D546" s="5"/>
     </row>
     <row r="547">
-      <c r="C547" s="4"/>
-      <c r="D547" s="4"/>
+      <c r="C547" s="5"/>
+      <c r="D547" s="5"/>
     </row>
     <row r="548">
-      <c r="C548" s="4"/>
-      <c r="D548" s="4"/>
+      <c r="C548" s="5"/>
+      <c r="D548" s="5"/>
     </row>
     <row r="549">
-      <c r="C549" s="4"/>
-      <c r="D549" s="4"/>
+      <c r="C549" s="5"/>
+      <c r="D549" s="5"/>
     </row>
     <row r="550">
-      <c r="C550" s="4"/>
-      <c r="D550" s="4"/>
+      <c r="C550" s="5"/>
+      <c r="D550" s="5"/>
     </row>
     <row r="551">
-      <c r="C551" s="4"/>
-      <c r="D551" s="4"/>
+      <c r="C551" s="5"/>
+      <c r="D551" s="5"/>
     </row>
     <row r="552">
-      <c r="C552" s="4"/>
-      <c r="D552" s="4"/>
+      <c r="C552" s="5"/>
+      <c r="D552" s="5"/>
     </row>
     <row r="553">
-      <c r="C553" s="4"/>
-      <c r="D553" s="4"/>
+      <c r="C553" s="5"/>
+      <c r="D553" s="5"/>
     </row>
     <row r="554">
-      <c r="C554" s="4"/>
-      <c r="D554" s="4"/>
+      <c r="C554" s="5"/>
+      <c r="D554" s="5"/>
     </row>
     <row r="555">
-      <c r="C555" s="4"/>
-      <c r="D555" s="4"/>
+      <c r="C555" s="5"/>
+      <c r="D555" s="5"/>
     </row>
     <row r="556">
-      <c r="C556" s="4"/>
-      <c r="D556" s="4"/>
+      <c r="C556" s="5"/>
+      <c r="D556" s="5"/>
     </row>
     <row r="557">
-      <c r="C557" s="4"/>
-      <c r="D557" s="4"/>
+      <c r="C557" s="5"/>
+      <c r="D557" s="5"/>
     </row>
     <row r="558">
-      <c r="C558" s="4"/>
-      <c r="D558" s="4"/>
+      <c r="C558" s="5"/>
+      <c r="D558" s="5"/>
     </row>
     <row r="559">
-      <c r="C559" s="4"/>
-      <c r="D559" s="4"/>
+      <c r="C559" s="5"/>
+      <c r="D559" s="5"/>
     </row>
     <row r="560">
-      <c r="C560" s="4"/>
-      <c r="D560" s="4"/>
+      <c r="C560" s="5"/>
+      <c r="D560" s="5"/>
     </row>
     <row r="561">
-      <c r="C561" s="4"/>
-      <c r="D561" s="4"/>
+      <c r="C561" s="5"/>
+      <c r="D561" s="5"/>
     </row>
     <row r="562">
-      <c r="C562" s="4"/>
-      <c r="D562" s="4"/>
+      <c r="C562" s="5"/>
+      <c r="D562" s="5"/>
     </row>
     <row r="563">
-      <c r="C563" s="4"/>
-      <c r="D563" s="4"/>
+      <c r="C563" s="5"/>
+      <c r="D563" s="5"/>
     </row>
     <row r="564">
-      <c r="C564" s="4"/>
-      <c r="D564" s="4"/>
+      <c r="C564" s="5"/>
+      <c r="D564" s="5"/>
     </row>
     <row r="565">
-      <c r="C565" s="4"/>
-      <c r="D565" s="4"/>
+      <c r="C565" s="5"/>
+      <c r="D565" s="5"/>
     </row>
     <row r="566">
-      <c r="C566" s="4"/>
-      <c r="D566" s="4"/>
+      <c r="C566" s="5"/>
+      <c r="D566" s="5"/>
     </row>
     <row r="567">
-      <c r="C567" s="4"/>
-      <c r="D567" s="4"/>
+      <c r="C567" s="5"/>
+      <c r="D567" s="5"/>
     </row>
     <row r="568">
-      <c r="C568" s="4"/>
-      <c r="D568" s="4"/>
+      <c r="C568" s="5"/>
+      <c r="D568" s="5"/>
     </row>
     <row r="569">
-      <c r="C569" s="4"/>
-      <c r="D569" s="4"/>
+      <c r="C569" s="5"/>
+      <c r="D569" s="5"/>
     </row>
     <row r="570">
-      <c r="C570" s="4"/>
-      <c r="D570" s="4"/>
+      <c r="C570" s="5"/>
+      <c r="D570" s="5"/>
     </row>
     <row r="571">
-      <c r="C571" s="4"/>
-      <c r="D571" s="4"/>
+      <c r="C571" s="5"/>
+      <c r="D571" s="5"/>
     </row>
     <row r="572">
-      <c r="C572" s="4"/>
-      <c r="D572" s="4"/>
+      <c r="C572" s="5"/>
+      <c r="D572" s="5"/>
     </row>
     <row r="573">
-      <c r="C573" s="4"/>
-      <c r="D573" s="4"/>
+      <c r="C573" s="5"/>
+      <c r="D573" s="5"/>
     </row>
     <row r="574">
-      <c r="C574" s="4"/>
-      <c r="D574" s="4"/>
+      <c r="C574" s="5"/>
+      <c r="D574" s="5"/>
     </row>
     <row r="575">
-      <c r="C575" s="4"/>
-      <c r="D575" s="4"/>
+      <c r="C575" s="5"/>
+      <c r="D575" s="5"/>
     </row>
     <row r="576">
-      <c r="C576" s="4"/>
-      <c r="D576" s="4"/>
+      <c r="C576" s="5"/>
+      <c r="D576" s="5"/>
     </row>
     <row r="577">
-      <c r="C577" s="4"/>
-      <c r="D577" s="4"/>
+      <c r="C577" s="5"/>
+      <c r="D577" s="5"/>
     </row>
     <row r="578">
-      <c r="C578" s="4"/>
-      <c r="D578" s="4"/>
+      <c r="C578" s="5"/>
+      <c r="D578" s="5"/>
     </row>
     <row r="579">
-      <c r="C579" s="4"/>
-      <c r="D579" s="4"/>
+      <c r="C579" s="5"/>
+      <c r="D579" s="5"/>
     </row>
     <row r="580">
-      <c r="C580" s="4"/>
-      <c r="D580" s="4"/>
+      <c r="C580" s="5"/>
+      <c r="D580" s="5"/>
     </row>
     <row r="581">
-      <c r="C581" s="4"/>
-      <c r="D581" s="4"/>
+      <c r="C581" s="5"/>
+      <c r="D581" s="5"/>
     </row>
     <row r="582">
-      <c r="C582" s="4"/>
-      <c r="D582" s="4"/>
+      <c r="C582" s="5"/>
+      <c r="D582" s="5"/>
     </row>
     <row r="583">
-      <c r="C583" s="4"/>
-      <c r="D583" s="4"/>
+      <c r="C583" s="5"/>
+      <c r="D583" s="5"/>
     </row>
     <row r="584">
-      <c r="C584" s="4"/>
-      <c r="D584" s="4"/>
+      <c r="C584" s="5"/>
+      <c r="D584" s="5"/>
     </row>
     <row r="585">
-      <c r="C585" s="4"/>
-      <c r="D585" s="4"/>
+      <c r="C585" s="5"/>
+      <c r="D585" s="5"/>
     </row>
     <row r="586">
-      <c r="C586" s="4"/>
-      <c r="D586" s="4"/>
+      <c r="C586" s="5"/>
+      <c r="D586" s="5"/>
     </row>
     <row r="587">
-      <c r="C587" s="4"/>
-      <c r="D587" s="4"/>
+      <c r="C587" s="5"/>
+      <c r="D587" s="5"/>
     </row>
     <row r="588">
-      <c r="C588" s="4"/>
-      <c r="D588" s="4"/>
+      <c r="C588" s="5"/>
+      <c r="D588" s="5"/>
     </row>
     <row r="589">
-      <c r="C589" s="4"/>
-      <c r="D589" s="4"/>
+      <c r="C589" s="5"/>
+      <c r="D589" s="5"/>
     </row>
     <row r="590">
-      <c r="C590" s="4"/>
-      <c r="D590" s="4"/>
+      <c r="C590" s="5"/>
+      <c r="D590" s="5"/>
     </row>
     <row r="591">
-      <c r="C591" s="4"/>
-      <c r="D591" s="4"/>
+      <c r="C591" s="5"/>
+      <c r="D591" s="5"/>
     </row>
     <row r="592">
-      <c r="C592" s="4"/>
-      <c r="D592" s="4"/>
+      <c r="C592" s="5"/>
+      <c r="D592" s="5"/>
     </row>
     <row r="593">
-      <c r="C593" s="4"/>
-      <c r="D593" s="4"/>
+      <c r="C593" s="5"/>
+      <c r="D593" s="5"/>
     </row>
     <row r="594">
-      <c r="C594" s="4"/>
-      <c r="D594" s="4"/>
+      <c r="C594" s="5"/>
+      <c r="D594" s="5"/>
     </row>
     <row r="595">
-      <c r="C595" s="4"/>
-      <c r="D595" s="4"/>
+      <c r="C595" s="5"/>
+      <c r="D595" s="5"/>
     </row>
     <row r="596">
-      <c r="C596" s="4"/>
-      <c r="D596" s="4"/>
+      <c r="C596" s="5"/>
+      <c r="D596" s="5"/>
     </row>
     <row r="597">
-      <c r="C597" s="4"/>
-      <c r="D597" s="4"/>
+      <c r="C597" s="5"/>
+      <c r="D597" s="5"/>
     </row>
     <row r="598">
-      <c r="C598" s="4"/>
-      <c r="D598" s="4"/>
+      <c r="C598" s="5"/>
+      <c r="D598" s="5"/>
     </row>
     <row r="599">
-      <c r="C599" s="4"/>
-      <c r="D599" s="4"/>
+      <c r="C599" s="5"/>
+      <c r="D599" s="5"/>
     </row>
     <row r="600">
-      <c r="C600" s="4"/>
-      <c r="D600" s="4"/>
+      <c r="C600" s="5"/>
+      <c r="D600" s="5"/>
     </row>
     <row r="601">
-      <c r="C601" s="4"/>
-      <c r="D601" s="4"/>
+      <c r="C601" s="5"/>
+      <c r="D601" s="5"/>
     </row>
     <row r="602">
-      <c r="C602" s="4"/>
-      <c r="D602" s="4"/>
+      <c r="C602" s="5"/>
+      <c r="D602" s="5"/>
     </row>
     <row r="603">
-      <c r="C603" s="4"/>
-      <c r="D603" s="4"/>
+      <c r="C603" s="5"/>
+      <c r="D603" s="5"/>
     </row>
     <row r="604">
-      <c r="C604" s="4"/>
-      <c r="D604" s="4"/>
+      <c r="C604" s="5"/>
+      <c r="D604" s="5"/>
     </row>
     <row r="605">
-      <c r="C605" s="4"/>
-      <c r="D605" s="4"/>
+      <c r="C605" s="5"/>
+      <c r="D605" s="5"/>
     </row>
     <row r="606">
-      <c r="C606" s="4"/>
-      <c r="D606" s="4"/>
+      <c r="C606" s="5"/>
+      <c r="D606" s="5"/>
     </row>
     <row r="607">
-      <c r="C607" s="4"/>
-      <c r="D607" s="4"/>
+      <c r="C607" s="5"/>
+      <c r="D607" s="5"/>
     </row>
     <row r="608">
-      <c r="C608" s="4"/>
-      <c r="D608" s="4"/>
+      <c r="C608" s="5"/>
+      <c r="D608" s="5"/>
     </row>
     <row r="609">
-      <c r="C609" s="4"/>
-      <c r="D609" s="4"/>
+      <c r="C609" s="5"/>
+      <c r="D609" s="5"/>
     </row>
     <row r="610">
-      <c r="C610" s="4"/>
-      <c r="D610" s="4"/>
+      <c r="C610" s="5"/>
+      <c r="D610" s="5"/>
     </row>
     <row r="611">
-      <c r="C611" s="4"/>
-      <c r="D611" s="4"/>
+      <c r="C611" s="5"/>
+      <c r="D611" s="5"/>
     </row>
     <row r="612">
-      <c r="C612" s="4"/>
-      <c r="D612" s="4"/>
+      <c r="C612" s="5"/>
+      <c r="D612" s="5"/>
     </row>
     <row r="613">
-      <c r="C613" s="4"/>
-      <c r="D613" s="4"/>
+      <c r="C613" s="5"/>
+      <c r="D613" s="5"/>
     </row>
     <row r="614">
-      <c r="C614" s="4"/>
-      <c r="D614" s="4"/>
+      <c r="C614" s="5"/>
+      <c r="D614" s="5"/>
     </row>
     <row r="615">
-      <c r="C615" s="4"/>
-      <c r="D615" s="4"/>
+      <c r="C615" s="5"/>
+      <c r="D615" s="5"/>
     </row>
     <row r="616">
-      <c r="C616" s="4"/>
-      <c r="D616" s="4"/>
+      <c r="C616" s="5"/>
+      <c r="D616" s="5"/>
     </row>
     <row r="617">
-      <c r="C617" s="4"/>
-      <c r="D617" s="4"/>
+      <c r="C617" s="5"/>
+      <c r="D617" s="5"/>
     </row>
     <row r="618">
-      <c r="C618" s="4"/>
-      <c r="D618" s="4"/>
+      <c r="C618" s="5"/>
+      <c r="D618" s="5"/>
     </row>
     <row r="619">
-      <c r="C619" s="4"/>
-      <c r="D619" s="4"/>
+      <c r="C619" s="5"/>
+      <c r="D619" s="5"/>
     </row>
     <row r="620">
-      <c r="C620" s="4"/>
-      <c r="D620" s="4"/>
+      <c r="C620" s="5"/>
+      <c r="D620" s="5"/>
     </row>
     <row r="621">
-      <c r="C621" s="4"/>
-      <c r="D621" s="4"/>
+      <c r="C621" s="5"/>
+      <c r="D621" s="5"/>
     </row>
     <row r="622">
-      <c r="C622" s="4"/>
-      <c r="D622" s="4"/>
+      <c r="C622" s="5"/>
+      <c r="D622" s="5"/>
     </row>
     <row r="623">
-      <c r="C623" s="4"/>
-      <c r="D623" s="4"/>
+      <c r="C623" s="5"/>
+      <c r="D623" s="5"/>
     </row>
     <row r="624">
-      <c r="C624" s="4"/>
-      <c r="D624" s="4"/>
+      <c r="C624" s="5"/>
+      <c r="D624" s="5"/>
     </row>
     <row r="625">
-      <c r="C625" s="4"/>
-      <c r="D625" s="4"/>
+      <c r="C625" s="5"/>
+      <c r="D625" s="5"/>
     </row>
     <row r="626">
-      <c r="C626" s="4"/>
-      <c r="D626" s="4"/>
+      <c r="C626" s="5"/>
+      <c r="D626" s="5"/>
     </row>
     <row r="627">
-      <c r="C627" s="4"/>
-      <c r="D627" s="4"/>
+      <c r="C627" s="5"/>
+      <c r="D627" s="5"/>
     </row>
     <row r="628">
-      <c r="C628" s="4"/>
-      <c r="D628" s="4"/>
+      <c r="C628" s="5"/>
+      <c r="D628" s="5"/>
     </row>
     <row r="629">
-      <c r="C629" s="4"/>
-      <c r="D629" s="4"/>
+      <c r="C629" s="5"/>
+      <c r="D629" s="5"/>
     </row>
     <row r="630">
-      <c r="C630" s="4"/>
-      <c r="D630" s="4"/>
+      <c r="C630" s="5"/>
+      <c r="D630" s="5"/>
     </row>
     <row r="631">
-      <c r="C631" s="4"/>
-      <c r="D631" s="4"/>
+      <c r="C631" s="5"/>
+      <c r="D631" s="5"/>
     </row>
     <row r="632">
-      <c r="C632" s="4"/>
-      <c r="D632" s="4"/>
+      <c r="C632" s="5"/>
+      <c r="D632" s="5"/>
     </row>
     <row r="633">
-      <c r="C633" s="4"/>
-      <c r="D633" s="4"/>
+      <c r="C633" s="5"/>
+      <c r="D633" s="5"/>
     </row>
     <row r="634">
-      <c r="C634" s="4"/>
-      <c r="D634" s="4"/>
+      <c r="C634" s="5"/>
+      <c r="D634" s="5"/>
     </row>
     <row r="635">
-      <c r="C635" s="4"/>
-      <c r="D635" s="4"/>
+      <c r="C635" s="5"/>
+      <c r="D635" s="5"/>
     </row>
     <row r="636">
-      <c r="C636" s="4"/>
-      <c r="D636" s="4"/>
+      <c r="C636" s="5"/>
+      <c r="D636" s="5"/>
     </row>
     <row r="637">
-      <c r="C637" s="4"/>
-      <c r="D637" s="4"/>
+      <c r="C637" s="5"/>
+      <c r="D637" s="5"/>
     </row>
     <row r="638">
-      <c r="C638" s="4"/>
-      <c r="D638" s="4"/>
+      <c r="C638" s="5"/>
+      <c r="D638" s="5"/>
     </row>
     <row r="639">
-      <c r="C639" s="4"/>
-      <c r="D639" s="4"/>
+      <c r="C639" s="5"/>
+      <c r="D639" s="5"/>
     </row>
     <row r="640">
-      <c r="C640" s="4"/>
-      <c r="D640" s="4"/>
+      <c r="C640" s="5"/>
+      <c r="D640" s="5"/>
     </row>
     <row r="641">
-      <c r="C641" s="4"/>
-      <c r="D641" s="4"/>
+      <c r="C641" s="5"/>
+      <c r="D641" s="5"/>
     </row>
     <row r="642">
-      <c r="C642" s="4"/>
-      <c r="D642" s="4"/>
+      <c r="C642" s="5"/>
+      <c r="D642" s="5"/>
     </row>
     <row r="643">
-      <c r="C643" s="4"/>
-      <c r="D643" s="4"/>
+      <c r="C643" s="5"/>
+      <c r="D643" s="5"/>
     </row>
     <row r="644">
-      <c r="C644" s="4"/>
-      <c r="D644" s="4"/>
+      <c r="C644" s="5"/>
+      <c r="D644" s="5"/>
     </row>
     <row r="645">
-      <c r="C645" s="4"/>
-      <c r="D645" s="4"/>
+      <c r="C645" s="5"/>
+      <c r="D645" s="5"/>
     </row>
     <row r="646">
-      <c r="C646" s="4"/>
-      <c r="D646" s="4"/>
+      <c r="C646" s="5"/>
+      <c r="D646" s="5"/>
     </row>
     <row r="647">
-      <c r="C647" s="4"/>
-      <c r="D647" s="4"/>
+      <c r="C647" s="5"/>
+      <c r="D647" s="5"/>
     </row>
     <row r="648">
-      <c r="C648" s="4"/>
-      <c r="D648" s="4"/>
+      <c r="C648" s="5"/>
+      <c r="D648" s="5"/>
     </row>
     <row r="649">
-      <c r="C649" s="4"/>
-      <c r="D649" s="4"/>
+      <c r="C649" s="5"/>
+      <c r="D649" s="5"/>
     </row>
     <row r="650">
-      <c r="C650" s="4"/>
-      <c r="D650" s="4"/>
+      <c r="C650" s="5"/>
+      <c r="D650" s="5"/>
     </row>
     <row r="651">
-      <c r="C651" s="4"/>
-      <c r="D651" s="4"/>
+      <c r="C651" s="5"/>
+      <c r="D651" s="5"/>
     </row>
     <row r="652">
-      <c r="C652" s="4"/>
-      <c r="D652" s="4"/>
+      <c r="C652" s="5"/>
+      <c r="D652" s="5"/>
     </row>
     <row r="653">
-      <c r="C653" s="4"/>
-      <c r="D653" s="4"/>
+      <c r="C653" s="5"/>
+      <c r="D653" s="5"/>
     </row>
     <row r="654">
-      <c r="C654" s="4"/>
-      <c r="D654" s="4"/>
+      <c r="C654" s="5"/>
+      <c r="D654" s="5"/>
     </row>
     <row r="655">
-      <c r="C655" s="4"/>
-      <c r="D655" s="4"/>
+      <c r="C655" s="5"/>
+      <c r="D655" s="5"/>
     </row>
     <row r="656">
-      <c r="C656" s="4"/>
-      <c r="D656" s="4"/>
+      <c r="C656" s="5"/>
+      <c r="D656" s="5"/>
     </row>
     <row r="657">
-      <c r="C657" s="4"/>
-      <c r="D657" s="4"/>
+      <c r="C657" s="5"/>
+      <c r="D657" s="5"/>
     </row>
     <row r="658">
-      <c r="C658" s="4"/>
-      <c r="D658" s="4"/>
+      <c r="C658" s="5"/>
+      <c r="D658" s="5"/>
     </row>
     <row r="659">
-      <c r="C659" s="4"/>
-      <c r="D659" s="4"/>
+      <c r="C659" s="5"/>
+      <c r="D659" s="5"/>
     </row>
     <row r="660">
-      <c r="C660" s="4"/>
-      <c r="D660" s="4"/>
+      <c r="C660" s="5"/>
+      <c r="D660" s="5"/>
     </row>
     <row r="661">
-      <c r="C661" s="4"/>
-      <c r="D661" s="4"/>
+      <c r="C661" s="5"/>
+      <c r="D661" s="5"/>
     </row>
     <row r="662">
-      <c r="C662" s="4"/>
-      <c r="D662" s="4"/>
+      <c r="C662" s="5"/>
+      <c r="D662" s="5"/>
     </row>
     <row r="663">
-      <c r="C663" s="4"/>
-      <c r="D663" s="4"/>
+      <c r="C663" s="5"/>
+      <c r="D663" s="5"/>
     </row>
     <row r="664">
-      <c r="C664" s="4"/>
-      <c r="D664" s="4"/>
+      <c r="C664" s="5"/>
+      <c r="D664" s="5"/>
     </row>
     <row r="665">
-      <c r="C665" s="4"/>
-      <c r="D665" s="4"/>
+      <c r="C665" s="5"/>
+      <c r="D665" s="5"/>
     </row>
     <row r="666">
-      <c r="C666" s="4"/>
-      <c r="D666" s="4"/>
+      <c r="C666" s="5"/>
+      <c r="D666" s="5"/>
     </row>
     <row r="667">
-      <c r="C667" s="4"/>
-      <c r="D667" s="4"/>
+      <c r="C667" s="5"/>
+      <c r="D667" s="5"/>
     </row>
     <row r="668">
-      <c r="C668" s="4"/>
-      <c r="D668" s="4"/>
+      <c r="C668" s="5"/>
+      <c r="D668" s="5"/>
     </row>
     <row r="669">
-      <c r="C669" s="4"/>
-      <c r="D669" s="4"/>
+      <c r="C669" s="5"/>
+      <c r="D669" s="5"/>
     </row>
     <row r="670">
-      <c r="C670" s="4"/>
-      <c r="D670" s="4"/>
+      <c r="C670" s="5"/>
+      <c r="D670" s="5"/>
     </row>
     <row r="671">
-      <c r="C671" s="4"/>
-      <c r="D671" s="4"/>
+      <c r="C671" s="5"/>
+      <c r="D671" s="5"/>
     </row>
     <row r="672">
-      <c r="C672" s="4"/>
-      <c r="D672" s="4"/>
+      <c r="C672" s="5"/>
+      <c r="D672" s="5"/>
     </row>
     <row r="673">
-      <c r="C673" s="4"/>
-      <c r="D673" s="4"/>
+      <c r="C673" s="5"/>
+      <c r="D673" s="5"/>
     </row>
     <row r="674">
-      <c r="C674" s="4"/>
-      <c r="D674" s="4"/>
+      <c r="C674" s="5"/>
+      <c r="D674" s="5"/>
     </row>
     <row r="675">
-      <c r="C675" s="4"/>
-      <c r="D675" s="4"/>
+      <c r="C675" s="5"/>
+      <c r="D675" s="5"/>
     </row>
     <row r="676">
-      <c r="C676" s="4"/>
-      <c r="D676" s="4"/>
+      <c r="C676" s="5"/>
+      <c r="D676" s="5"/>
     </row>
     <row r="677">
-      <c r="C677" s="4"/>
-      <c r="D677" s="4"/>
+      <c r="C677" s="5"/>
+      <c r="D677" s="5"/>
     </row>
     <row r="678">
-      <c r="C678" s="4"/>
-      <c r="D678" s="4"/>
+      <c r="C678" s="5"/>
+      <c r="D678" s="5"/>
     </row>
     <row r="679">
-      <c r="C679" s="4"/>
-      <c r="D679" s="4"/>
+      <c r="C679" s="5"/>
+      <c r="D679" s="5"/>
     </row>
     <row r="680">
-      <c r="C680" s="4"/>
-      <c r="D680" s="4"/>
+      <c r="C680" s="5"/>
+      <c r="D680" s="5"/>
     </row>
     <row r="681">
-      <c r="C681" s="4"/>
-      <c r="D681" s="4"/>
+      <c r="C681" s="5"/>
+      <c r="D681" s="5"/>
     </row>
     <row r="682">
-      <c r="C682" s="4"/>
-      <c r="D682" s="4"/>
+      <c r="C682" s="5"/>
+      <c r="D682" s="5"/>
     </row>
     <row r="683">
-      <c r="C683" s="4"/>
-      <c r="D683" s="4"/>
+      <c r="C683" s="5"/>
+      <c r="D683" s="5"/>
     </row>
     <row r="684">
-      <c r="C684" s="4"/>
-      <c r="D684" s="4"/>
+      <c r="C684" s="5"/>
+      <c r="D684" s="5"/>
     </row>
     <row r="685">
-      <c r="C685" s="4"/>
-      <c r="D685" s="4"/>
+      <c r="C685" s="5"/>
+      <c r="D685" s="5"/>
     </row>
     <row r="686">
-      <c r="C686" s="4"/>
-      <c r="D686" s="4"/>
+      <c r="C686" s="5"/>
+      <c r="D686" s="5"/>
     </row>
     <row r="687">
-      <c r="C687" s="4"/>
-      <c r="D687" s="4"/>
+      <c r="C687" s="5"/>
+      <c r="D687" s="5"/>
     </row>
     <row r="688">
-      <c r="C688" s="4"/>
-      <c r="D688" s="4"/>
+      <c r="C688" s="5"/>
+      <c r="D688" s="5"/>
     </row>
     <row r="689">
-      <c r="C689" s="4"/>
-      <c r="D689" s="4"/>
+      <c r="C689" s="5"/>
+      <c r="D689" s="5"/>
     </row>
     <row r="690">
-      <c r="C690" s="4"/>
-      <c r="D690" s="4"/>
+      <c r="C690" s="5"/>
+      <c r="D690" s="5"/>
     </row>
     <row r="691">
-      <c r="C691" s="4"/>
-      <c r="D691" s="4"/>
+      <c r="C691" s="5"/>
+      <c r="D691" s="5"/>
     </row>
     <row r="692">
-      <c r="C692" s="4"/>
-      <c r="D692" s="4"/>
+      <c r="C692" s="5"/>
+      <c r="D692" s="5"/>
     </row>
     <row r="693">
-      <c r="C693" s="4"/>
-      <c r="D693" s="4"/>
+      <c r="C693" s="5"/>
+      <c r="D693" s="5"/>
     </row>
     <row r="694">
-      <c r="C694" s="4"/>
-      <c r="D694" s="4"/>
+      <c r="C694" s="5"/>
+      <c r="D694" s="5"/>
     </row>
     <row r="695">
-      <c r="C695" s="4"/>
-      <c r="D695" s="4"/>
+      <c r="C695" s="5"/>
+      <c r="D695" s="5"/>
     </row>
     <row r="696">
-      <c r="C696" s="4"/>
-      <c r="D696" s="4"/>
+      <c r="C696" s="5"/>
+      <c r="D696" s="5"/>
     </row>
     <row r="697">
-      <c r="C697" s="4"/>
-      <c r="D697" s="4"/>
+      <c r="C697" s="5"/>
+      <c r="D697" s="5"/>
     </row>
     <row r="698">
-      <c r="C698" s="4"/>
-      <c r="D698" s="4"/>
+      <c r="C698" s="5"/>
+      <c r="D698" s="5"/>
     </row>
     <row r="699">
-      <c r="C699" s="4"/>
-      <c r="D699" s="4"/>
+      <c r="C699" s="5"/>
+      <c r="D699" s="5"/>
     </row>
     <row r="700">
-      <c r="C700" s="4"/>
-      <c r="D700" s="4"/>
+      <c r="C700" s="5"/>
+      <c r="D700" s="5"/>
     </row>
     <row r="701">
-      <c r="C701" s="4"/>
-      <c r="D701" s="4"/>
+      <c r="C701" s="5"/>
+      <c r="D701" s="5"/>
     </row>
     <row r="702">
-      <c r="C702" s="4"/>
-      <c r="D702" s="4"/>
+      <c r="C702" s="5"/>
+      <c r="D702" s="5"/>
     </row>
     <row r="703">
-      <c r="C703" s="4"/>
-      <c r="D703" s="4"/>
+      <c r="C703" s="5"/>
+      <c r="D703" s="5"/>
     </row>
     <row r="704">
-      <c r="C704" s="4"/>
-      <c r="D704" s="4"/>
+      <c r="C704" s="5"/>
+      <c r="D704" s="5"/>
     </row>
     <row r="705">
-      <c r="C705" s="4"/>
-      <c r="D705" s="4"/>
+      <c r="C705" s="5"/>
+      <c r="D705" s="5"/>
     </row>
     <row r="706">
-      <c r="C706" s="4"/>
-      <c r="D706" s="4"/>
+      <c r="C706" s="5"/>
+      <c r="D706" s="5"/>
     </row>
     <row r="707">
-      <c r="C707" s="4"/>
-      <c r="D707" s="4"/>
+      <c r="C707" s="5"/>
+      <c r="D707" s="5"/>
     </row>
     <row r="708">
-      <c r="C708" s="4"/>
-      <c r="D708" s="4"/>
+      <c r="C708" s="5"/>
+      <c r="D708" s="5"/>
     </row>
     <row r="709">
-      <c r="C709" s="4"/>
-      <c r="D709" s="4"/>
+      <c r="C709" s="5"/>
+      <c r="D709" s="5"/>
     </row>
     <row r="710">
-      <c r="C710" s="4"/>
-      <c r="D710" s="4"/>
+      <c r="C710" s="5"/>
+      <c r="D710" s="5"/>
     </row>
     <row r="711">
-      <c r="C711" s="4"/>
-      <c r="D711" s="4"/>
+      <c r="C711" s="5"/>
+      <c r="D711" s="5"/>
     </row>
     <row r="712">
-      <c r="C712" s="4"/>
-      <c r="D712" s="4"/>
+      <c r="C712" s="5"/>
+      <c r="D712" s="5"/>
     </row>
     <row r="713">
-      <c r="C713" s="4"/>
-      <c r="D713" s="4"/>
+      <c r="C713" s="5"/>
+      <c r="D713" s="5"/>
     </row>
     <row r="714">
-      <c r="C714" s="4"/>
-      <c r="D714" s="4"/>
+      <c r="C714" s="5"/>
+      <c r="D714" s="5"/>
     </row>
     <row r="715">
-      <c r="C715" s="4"/>
-      <c r="D715" s="4"/>
+      <c r="C715" s="5"/>
+      <c r="D715" s="5"/>
     </row>
     <row r="716">
-      <c r="C716" s="4"/>
-      <c r="D716" s="4"/>
+      <c r="C716" s="5"/>
+      <c r="D716" s="5"/>
     </row>
     <row r="717">
-      <c r="C717" s="4"/>
-      <c r="D717" s="4"/>
+      <c r="C717" s="5"/>
+      <c r="D717" s="5"/>
     </row>
     <row r="718">
-      <c r="C718" s="4"/>
-      <c r="D718" s="4"/>
+      <c r="C718" s="5"/>
+      <c r="D718" s="5"/>
     </row>
     <row r="719">
-      <c r="C719" s="4"/>
-      <c r="D719" s="4"/>
+      <c r="C719" s="5"/>
+      <c r="D719" s="5"/>
     </row>
     <row r="720">
-      <c r="C720" s="4"/>
-      <c r="D720" s="4"/>
+      <c r="C720" s="5"/>
+      <c r="D720" s="5"/>
     </row>
     <row r="721">
-      <c r="C721" s="4"/>
-      <c r="D721" s="4"/>
+      <c r="C721" s="5"/>
+      <c r="D721" s="5"/>
     </row>
     <row r="722">
-      <c r="C722" s="4"/>
-      <c r="D722" s="4"/>
+      <c r="C722" s="5"/>
+      <c r="D722" s="5"/>
     </row>
     <row r="723">
-      <c r="C723" s="4"/>
-      <c r="D723" s="4"/>
+      <c r="C723" s="5"/>
+      <c r="D723" s="5"/>
     </row>
     <row r="724">
-      <c r="C724" s="4"/>
-      <c r="D724" s="4"/>
+      <c r="C724" s="5"/>
+      <c r="D724" s="5"/>
     </row>
     <row r="725">
-      <c r="C725" s="4"/>
-      <c r="D725" s="4"/>
+      <c r="C725" s="5"/>
+      <c r="D725" s="5"/>
     </row>
     <row r="726">
-      <c r="C726" s="4"/>
-      <c r="D726" s="4"/>
+      <c r="C726" s="5"/>
+      <c r="D726" s="5"/>
     </row>
     <row r="727">
-      <c r="C727" s="4"/>
-      <c r="D727" s="4"/>
+      <c r="C727" s="5"/>
+      <c r="D727" s="5"/>
     </row>
     <row r="728">
-      <c r="C728" s="4"/>
-      <c r="D728" s="4"/>
+      <c r="C728" s="5"/>
+      <c r="D728" s="5"/>
     </row>
     <row r="729">
-      <c r="C729" s="4"/>
-      <c r="D729" s="4"/>
+      <c r="C729" s="5"/>
+      <c r="D729" s="5"/>
     </row>
     <row r="730">
-      <c r="C730" s="4"/>
-      <c r="D730" s="4"/>
+      <c r="C730" s="5"/>
+      <c r="D730" s="5"/>
     </row>
     <row r="731">
-      <c r="C731" s="4"/>
-      <c r="D731" s="4"/>
+      <c r="C731" s="5"/>
+      <c r="D731" s="5"/>
     </row>
     <row r="732">
-      <c r="C732" s="4"/>
-      <c r="D732" s="4"/>
+      <c r="C732" s="5"/>
+      <c r="D732" s="5"/>
     </row>
     <row r="733">
-      <c r="C733" s="4"/>
-      <c r="D733" s="4"/>
+      <c r="C733" s="5"/>
+      <c r="D733" s="5"/>
     </row>
     <row r="734">
-      <c r="C734" s="4"/>
-      <c r="D734" s="4"/>
+      <c r="C734" s="5"/>
+      <c r="D734" s="5"/>
     </row>
     <row r="735">
-      <c r="C735" s="4"/>
-      <c r="D735" s="4"/>
+      <c r="C735" s="5"/>
+      <c r="D735" s="5"/>
     </row>
     <row r="736">
-      <c r="C736" s="4"/>
-      <c r="D736" s="4"/>
+      <c r="C736" s="5"/>
+      <c r="D736" s="5"/>
     </row>
     <row r="737">
-      <c r="C737" s="4"/>
-      <c r="D737" s="4"/>
+      <c r="C737" s="5"/>
+      <c r="D737" s="5"/>
     </row>
     <row r="738">
-      <c r="C738" s="4"/>
-      <c r="D738" s="4"/>
+      <c r="C738" s="5"/>
+      <c r="D738" s="5"/>
     </row>
     <row r="739">
-      <c r="C739" s="4"/>
-      <c r="D739" s="4"/>
+      <c r="C739" s="5"/>
+      <c r="D739" s="5"/>
     </row>
     <row r="740">
-      <c r="C740" s="4"/>
-      <c r="D740" s="4"/>
+      <c r="C740" s="5"/>
+      <c r="D740" s="5"/>
     </row>
     <row r="741">
-      <c r="C741" s="4"/>
-      <c r="D741" s="4"/>
+      <c r="C741" s="5"/>
+      <c r="D741" s="5"/>
     </row>
     <row r="742">
-      <c r="C742" s="4"/>
-      <c r="D742" s="4"/>
+      <c r="C742" s="5"/>
+      <c r="D742" s="5"/>
     </row>
     <row r="743">
-      <c r="C743" s="4"/>
-      <c r="D743" s="4"/>
+      <c r="C743" s="5"/>
+      <c r="D743" s="5"/>
     </row>
     <row r="744">
-      <c r="C744" s="4"/>
-      <c r="D744" s="4"/>
+      <c r="C744" s="5"/>
+      <c r="D744" s="5"/>
     </row>
     <row r="745">
-      <c r="C745" s="4"/>
-      <c r="D745" s="4"/>
+      <c r="C745" s="5"/>
+      <c r="D745" s="5"/>
     </row>
     <row r="746">
-      <c r="C746" s="4"/>
-      <c r="D746" s="4"/>
+      <c r="C746" s="5"/>
+      <c r="D746" s="5"/>
     </row>
     <row r="747">
-      <c r="C747" s="4"/>
-      <c r="D747" s="4"/>
+      <c r="C747" s="5"/>
+      <c r="D747" s="5"/>
     </row>
     <row r="748">
-      <c r="C748" s="4"/>
-      <c r="D748" s="4"/>
+      <c r="C748" s="5"/>
+      <c r="D748" s="5"/>
     </row>
     <row r="749">
-      <c r="C749" s="4"/>
-      <c r="D749" s="4"/>
+      <c r="C749" s="5"/>
+      <c r="D749" s="5"/>
     </row>
     <row r="750">
-      <c r="C750" s="4"/>
-      <c r="D750" s="4"/>
+      <c r="C750" s="5"/>
+      <c r="D750" s="5"/>
     </row>
     <row r="751">
-      <c r="C751" s="4"/>
-      <c r="D751" s="4"/>
+      <c r="C751" s="5"/>
+      <c r="D751" s="5"/>
     </row>
     <row r="752">
-      <c r="C752" s="4"/>
-      <c r="D752" s="4"/>
+      <c r="C752" s="5"/>
+      <c r="D752" s="5"/>
     </row>
     <row r="753">
-      <c r="C753" s="4"/>
-      <c r="D753" s="4"/>
+      <c r="C753" s="5"/>
+      <c r="D753" s="5"/>
     </row>
     <row r="754">
-      <c r="C754" s="4"/>
-      <c r="D754" s="4"/>
+      <c r="C754" s="5"/>
+      <c r="D754" s="5"/>
     </row>
     <row r="755">
-      <c r="C755" s="4"/>
-      <c r="D755" s="4"/>
+      <c r="C755" s="5"/>
+      <c r="D755" s="5"/>
     </row>
     <row r="756">
-      <c r="C756" s="4"/>
-      <c r="D756" s="4"/>
+      <c r="C756" s="5"/>
+      <c r="D756" s="5"/>
     </row>
     <row r="757">
-      <c r="C757" s="4"/>
-      <c r="D757" s="4"/>
+      <c r="C757" s="5"/>
+      <c r="D757" s="5"/>
     </row>
     <row r="758">
-      <c r="C758" s="4"/>
-      <c r="D758" s="4"/>
+      <c r="C758" s="5"/>
+      <c r="D758" s="5"/>
     </row>
     <row r="759">
-      <c r="C759" s="4"/>
-      <c r="D759" s="4"/>
+      <c r="C759" s="5"/>
+      <c r="D759" s="5"/>
     </row>
     <row r="760">
-      <c r="C760" s="4"/>
-      <c r="D760" s="4"/>
+      <c r="C760" s="5"/>
+      <c r="D760" s="5"/>
     </row>
     <row r="761">
-      <c r="C761" s="4"/>
-      <c r="D761" s="4"/>
+      <c r="C761" s="5"/>
+      <c r="D761" s="5"/>
     </row>
     <row r="762">
-      <c r="C762" s="4"/>
-      <c r="D762" s="4"/>
+      <c r="C762" s="5"/>
+      <c r="D762" s="5"/>
     </row>
     <row r="763">
-      <c r="C763" s="4"/>
-      <c r="D763" s="4"/>
+      <c r="C763" s="5"/>
+      <c r="D763" s="5"/>
     </row>
     <row r="764">
-      <c r="C764" s="4"/>
-      <c r="D764" s="4"/>
+      <c r="C764" s="5"/>
+      <c r="D764" s="5"/>
     </row>
     <row r="765">
-      <c r="C765" s="4"/>
-      <c r="D765" s="4"/>
+      <c r="C765" s="5"/>
+      <c r="D765" s="5"/>
     </row>
     <row r="766">
-      <c r="C766" s="4"/>
-      <c r="D766" s="4"/>
+      <c r="C766" s="5"/>
+      <c r="D766" s="5"/>
     </row>
     <row r="767">
-      <c r="C767" s="4"/>
-      <c r="D767" s="4"/>
+      <c r="C767" s="5"/>
+      <c r="D767" s="5"/>
     </row>
     <row r="768">
-      <c r="C768" s="4"/>
-      <c r="D768" s="4"/>
+      <c r="C768" s="5"/>
+      <c r="D768" s="5"/>
     </row>
     <row r="769">
-      <c r="C769" s="4"/>
-      <c r="D769" s="4"/>
+      <c r="C769" s="5"/>
+      <c r="D769" s="5"/>
     </row>
     <row r="770">
-      <c r="C770" s="4"/>
-      <c r="D770" s="4"/>
+      <c r="C770" s="5"/>
+      <c r="D770" s="5"/>
     </row>
     <row r="771">
-      <c r="C771" s="4"/>
-      <c r="D771" s="4"/>
+      <c r="C771" s="5"/>
+      <c r="D771" s="5"/>
     </row>
     <row r="772">
-      <c r="C772" s="4"/>
-      <c r="D772" s="4"/>
+      <c r="C772" s="5"/>
+      <c r="D772" s="5"/>
     </row>
     <row r="773">
-      <c r="C773" s="4"/>
-      <c r="D773" s="4"/>
+      <c r="C773" s="5"/>
+      <c r="D773" s="5"/>
     </row>
     <row r="774">
-      <c r="C774" s="4"/>
-      <c r="D774" s="4"/>
+      <c r="C774" s="5"/>
+      <c r="D774" s="5"/>
     </row>
     <row r="775">
-      <c r="C775" s="4"/>
-      <c r="D775" s="4"/>
+      <c r="C775" s="5"/>
+      <c r="D775" s="5"/>
     </row>
     <row r="776">
-      <c r="C776" s="4"/>
-      <c r="D776" s="4"/>
+      <c r="C776" s="5"/>
+      <c r="D776" s="5"/>
     </row>
     <row r="777">
-      <c r="C777" s="4"/>
-      <c r="D777" s="4"/>
+      <c r="C777" s="5"/>
+      <c r="D777" s="5"/>
     </row>
     <row r="778">
-      <c r="C778" s="4"/>
-      <c r="D778" s="4"/>
+      <c r="C778" s="5"/>
+      <c r="D778" s="5"/>
     </row>
     <row r="779">
-      <c r="C779" s="4"/>
-      <c r="D779" s="4"/>
+      <c r="C779" s="5"/>
+      <c r="D779" s="5"/>
     </row>
     <row r="780">
-      <c r="C780" s="4"/>
-      <c r="D780" s="4"/>
+      <c r="C780" s="5"/>
+      <c r="D780" s="5"/>
     </row>
     <row r="781">
-      <c r="C781" s="4"/>
-      <c r="D781" s="4"/>
+      <c r="C781" s="5"/>
+      <c r="D781" s="5"/>
     </row>
     <row r="782">
-      <c r="C782" s="4"/>
-      <c r="D782" s="4"/>
+      <c r="C782" s="5"/>
+      <c r="D782" s="5"/>
     </row>
     <row r="783">
-      <c r="C783" s="4"/>
-      <c r="D783" s="4"/>
+      <c r="C783" s="5"/>
+      <c r="D783" s="5"/>
     </row>
     <row r="784">
-      <c r="C784" s="4"/>
-      <c r="D784" s="4"/>
+      <c r="C784" s="5"/>
+      <c r="D784" s="5"/>
     </row>
     <row r="785">
-      <c r="C785" s="4"/>
-      <c r="D785" s="4"/>
+      <c r="C785" s="5"/>
+      <c r="D785" s="5"/>
     </row>
     <row r="786">
-      <c r="C786" s="4"/>
-      <c r="D786" s="4"/>
+      <c r="C786" s="5"/>
+      <c r="D786" s="5"/>
     </row>
     <row r="787">
-      <c r="C787" s="4"/>
-      <c r="D787" s="4"/>
+      <c r="C787" s="5"/>
+      <c r="D787" s="5"/>
     </row>
     <row r="788">
-      <c r="C788" s="4"/>
-      <c r="D788" s="4"/>
+      <c r="C788" s="5"/>
+      <c r="D788" s="5"/>
     </row>
     <row r="789">
-      <c r="C789" s="4"/>
-      <c r="D789" s="4"/>
+      <c r="C789" s="5"/>
+      <c r="D789" s="5"/>
     </row>
     <row r="790">
-      <c r="C790" s="4"/>
-      <c r="D790" s="4"/>
+      <c r="C790" s="5"/>
+      <c r="D790" s="5"/>
     </row>
     <row r="791">
-      <c r="C791" s="4"/>
-      <c r="D791" s="4"/>
+      <c r="C791" s="5"/>
+      <c r="D791" s="5"/>
     </row>
     <row r="792">
-      <c r="C792" s="4"/>
-      <c r="D792" s="4"/>
+      <c r="C792" s="5"/>
+      <c r="D792" s="5"/>
     </row>
     <row r="793">
-      <c r="C793" s="4"/>
-      <c r="D793" s="4"/>
+      <c r="C793" s="5"/>
+      <c r="D793" s="5"/>
     </row>
     <row r="794">
-      <c r="C794" s="4"/>
-      <c r="D794" s="4"/>
+      <c r="C794" s="5"/>
+      <c r="D794" s="5"/>
     </row>
     <row r="795">
-      <c r="C795" s="4"/>
-      <c r="D795" s="4"/>
+      <c r="C795" s="5"/>
+      <c r="D795" s="5"/>
     </row>
     <row r="796">
-      <c r="C796" s="4"/>
-      <c r="D796" s="4"/>
+      <c r="C796" s="5"/>
+      <c r="D796" s="5"/>
     </row>
     <row r="797">
-      <c r="C797" s="4"/>
-      <c r="D797" s="4"/>
+      <c r="C797" s="5"/>
+      <c r="D797" s="5"/>
     </row>
     <row r="798">
-      <c r="C798" s="4"/>
-      <c r="D798" s="4"/>
+      <c r="C798" s="5"/>
+      <c r="D798" s="5"/>
     </row>
     <row r="799">
-      <c r="C799" s="4"/>
-      <c r="D799" s="4"/>
+      <c r="C799" s="5"/>
+      <c r="D799" s="5"/>
     </row>
     <row r="800">
-      <c r="C800" s="4"/>
-      <c r="D800" s="4"/>
+      <c r="C800" s="5"/>
+      <c r="D800" s="5"/>
     </row>
     <row r="801">
-      <c r="C801" s="4"/>
-      <c r="D801" s="4"/>
+      <c r="C801" s="5"/>
+      <c r="D801" s="5"/>
     </row>
     <row r="802">
-      <c r="C802" s="4"/>
-      <c r="D802" s="4"/>
+      <c r="C802" s="5"/>
+      <c r="D802" s="5"/>
     </row>
     <row r="803">
-      <c r="C803" s="4"/>
-      <c r="D803" s="4"/>
+      <c r="C803" s="5"/>
+      <c r="D803" s="5"/>
     </row>
     <row r="804">
-      <c r="C804" s="4"/>
-      <c r="D804" s="4"/>
+      <c r="C804" s="5"/>
+      <c r="D804" s="5"/>
     </row>
     <row r="805">
-      <c r="C805" s="4"/>
-      <c r="D805" s="4"/>
+      <c r="C805" s="5"/>
+      <c r="D805" s="5"/>
     </row>
     <row r="806">
-      <c r="C806" s="4"/>
-      <c r="D806" s="4"/>
+      <c r="C806" s="5"/>
+      <c r="D806" s="5"/>
     </row>
     <row r="807">
-      <c r="C807" s="4"/>
-      <c r="D807" s="4"/>
+      <c r="C807" s="5"/>
+      <c r="D807" s="5"/>
     </row>
     <row r="808">
-      <c r="C808" s="4"/>
-      <c r="D808" s="4"/>
+      <c r="C808" s="5"/>
+      <c r="D808" s="5"/>
     </row>
     <row r="809">
-      <c r="C809" s="4"/>
-      <c r="D809" s="4"/>
+      <c r="C809" s="5"/>
+      <c r="D809" s="5"/>
     </row>
     <row r="810">
-      <c r="C810" s="4"/>
-      <c r="D810" s="4"/>
+      <c r="C810" s="5"/>
+      <c r="D810" s="5"/>
     </row>
     <row r="811">
-      <c r="C811" s="4"/>
-      <c r="D811" s="4"/>
+      <c r="C811" s="5"/>
+      <c r="D811" s="5"/>
     </row>
     <row r="812">
-      <c r="C812" s="4"/>
-      <c r="D812" s="4"/>
+      <c r="C812" s="5"/>
+      <c r="D812" s="5"/>
     </row>
     <row r="813">
-      <c r="C813" s="4"/>
-      <c r="D813" s="4"/>
+      <c r="C813" s="5"/>
+      <c r="D813" s="5"/>
     </row>
     <row r="814">
-      <c r="C814" s="4"/>
-      <c r="D814" s="4"/>
+      <c r="C814" s="5"/>
+      <c r="D814" s="5"/>
     </row>
     <row r="815">
-      <c r="C815" s="4"/>
-      <c r="D815" s="4"/>
+      <c r="C815" s="5"/>
+      <c r="D815" s="5"/>
     </row>
     <row r="816">
-      <c r="C816" s="4"/>
-      <c r="D816" s="4"/>
+      <c r="C816" s="5"/>
+      <c r="D816" s="5"/>
     </row>
     <row r="817">
-      <c r="C817" s="4"/>
-      <c r="D817" s="4"/>
+      <c r="C817" s="5"/>
+      <c r="D817" s="5"/>
     </row>
     <row r="818">
-      <c r="C818" s="4"/>
-      <c r="D818" s="4"/>
+      <c r="C818" s="5"/>
+      <c r="D818" s="5"/>
     </row>
     <row r="819">
-      <c r="C819" s="4"/>
-      <c r="D819" s="4"/>
+      <c r="C819" s="5"/>
+      <c r="D819" s="5"/>
     </row>
     <row r="820">
-      <c r="C820" s="4"/>
-      <c r="D820" s="4"/>
+      <c r="C820" s="5"/>
+      <c r="D820" s="5"/>
     </row>
     <row r="821">
-      <c r="C821" s="4"/>
-      <c r="D821" s="4"/>
+      <c r="C821" s="5"/>
+      <c r="D821" s="5"/>
     </row>
     <row r="822">
-      <c r="C822" s="4"/>
-      <c r="D822" s="4"/>
+      <c r="C822" s="5"/>
+      <c r="D822" s="5"/>
     </row>
     <row r="823">
-      <c r="C823" s="4"/>
-      <c r="D823" s="4"/>
+      <c r="C823" s="5"/>
+      <c r="D823" s="5"/>
     </row>
     <row r="824">
-      <c r="C824" s="4"/>
-      <c r="D824" s="4"/>
+      <c r="C824" s="5"/>
+      <c r="D824" s="5"/>
     </row>
     <row r="825">
-      <c r="C825" s="4"/>
-      <c r="D825" s="4"/>
+      <c r="C825" s="5"/>
+      <c r="D825" s="5"/>
     </row>
     <row r="826">
-      <c r="C826" s="4"/>
-      <c r="D826" s="4"/>
+      <c r="C826" s="5"/>
+      <c r="D826" s="5"/>
     </row>
     <row r="827">
-      <c r="C827" s="4"/>
-      <c r="D827" s="4"/>
+      <c r="C827" s="5"/>
+      <c r="D827" s="5"/>
     </row>
     <row r="828">
-      <c r="C828" s="4"/>
-      <c r="D828" s="4"/>
+      <c r="C828" s="5"/>
+      <c r="D828" s="5"/>
     </row>
     <row r="829">
-      <c r="C829" s="4"/>
-      <c r="D829" s="4"/>
+      <c r="C829" s="5"/>
+      <c r="D829" s="5"/>
     </row>
     <row r="830">
-      <c r="C830" s="4"/>
-      <c r="D830" s="4"/>
+      <c r="C830" s="5"/>
+      <c r="D830" s="5"/>
     </row>
     <row r="831">
-      <c r="C831" s="4"/>
-      <c r="D831" s="4"/>
+      <c r="C831" s="5"/>
+      <c r="D831" s="5"/>
     </row>
     <row r="832">
-      <c r="C832" s="4"/>
-      <c r="D832" s="4"/>
+      <c r="C832" s="5"/>
+      <c r="D832" s="5"/>
     </row>
     <row r="833">
-      <c r="C833" s="4"/>
-      <c r="D833" s="4"/>
+      <c r="C833" s="5"/>
+      <c r="D833" s="5"/>
     </row>
     <row r="834">
-      <c r="C834" s="4"/>
-      <c r="D834" s="4"/>
+      <c r="C834" s="5"/>
+      <c r="D834" s="5"/>
     </row>
     <row r="835">
-      <c r="C835" s="4"/>
-      <c r="D835" s="4"/>
+      <c r="C835" s="5"/>
+      <c r="D835" s="5"/>
     </row>
     <row r="836">
-      <c r="C836" s="4"/>
-      <c r="D836" s="4"/>
+      <c r="C836" s="5"/>
+      <c r="D836" s="5"/>
     </row>
     <row r="837">
-      <c r="C837" s="4"/>
-      <c r="D837" s="4"/>
+      <c r="C837" s="5"/>
+      <c r="D837" s="5"/>
     </row>
     <row r="838">
-      <c r="C838" s="4"/>
-      <c r="D838" s="4"/>
+      <c r="C838" s="5"/>
+      <c r="D838" s="5"/>
     </row>
     <row r="839">
-      <c r="C839" s="4"/>
-      <c r="D839" s="4"/>
+      <c r="C839" s="5"/>
+      <c r="D839" s="5"/>
     </row>
     <row r="840">
-      <c r="C840" s="4"/>
-      <c r="D840" s="4"/>
+      <c r="C840" s="5"/>
+      <c r="D840" s="5"/>
     </row>
     <row r="841">
-      <c r="C841" s="4"/>
-      <c r="D841" s="4"/>
+      <c r="C841" s="5"/>
+      <c r="D841" s="5"/>
     </row>
     <row r="842">
-      <c r="C842" s="4"/>
-      <c r="D842" s="4"/>
+      <c r="C842" s="5"/>
+      <c r="D842" s="5"/>
     </row>
     <row r="843">
-      <c r="C843" s="4"/>
-      <c r="D843" s="4"/>
+      <c r="C843" s="5"/>
+      <c r="D843" s="5"/>
     </row>
     <row r="844">
-      <c r="C844" s="4"/>
-      <c r="D844" s="4"/>
+      <c r="C844" s="5"/>
+      <c r="D844" s="5"/>
     </row>
     <row r="845">
-      <c r="C845" s="4"/>
-      <c r="D845" s="4"/>
+      <c r="C845" s="5"/>
+      <c r="D845" s="5"/>
     </row>
     <row r="846">
-      <c r="C846" s="4"/>
-      <c r="D846" s="4"/>
+      <c r="C846" s="5"/>
+      <c r="D846" s="5"/>
     </row>
     <row r="847">
-      <c r="C847" s="4"/>
-      <c r="D847" s="4"/>
+      <c r="C847" s="5"/>
+      <c r="D847" s="5"/>
     </row>
     <row r="848">
-      <c r="C848" s="4"/>
-      <c r="D848" s="4"/>
+      <c r="C848" s="5"/>
+      <c r="D848" s="5"/>
     </row>
     <row r="849">
-      <c r="C849" s="4"/>
-      <c r="D849" s="4"/>
+      <c r="C849" s="5"/>
+      <c r="D849" s="5"/>
     </row>
     <row r="850">
-      <c r="C850" s="4"/>
-      <c r="D850" s="4"/>
+      <c r="C850" s="5"/>
+      <c r="D850" s="5"/>
     </row>
     <row r="851">
-      <c r="C851" s="4"/>
-      <c r="D851" s="4"/>
+      <c r="C851" s="5"/>
+      <c r="D851" s="5"/>
     </row>
     <row r="852">
-      <c r="C852" s="4"/>
-      <c r="D852" s="4"/>
+      <c r="C852" s="5"/>
+      <c r="D852" s="5"/>
     </row>
     <row r="853">
-      <c r="C853" s="4"/>
-      <c r="D853" s="4"/>
+      <c r="C853" s="5"/>
+      <c r="D853" s="5"/>
     </row>
     <row r="854">
-      <c r="C854" s="4"/>
-      <c r="D854" s="4"/>
+      <c r="C854" s="5"/>
+      <c r="D854" s="5"/>
     </row>
     <row r="855">
-      <c r="C855" s="4"/>
-      <c r="D855" s="4"/>
+      <c r="C855" s="5"/>
+      <c r="D855" s="5"/>
     </row>
     <row r="856">
-      <c r="C856" s="4"/>
-      <c r="D856" s="4"/>
+      <c r="C856" s="5"/>
+      <c r="D856" s="5"/>
     </row>
     <row r="857">
-      <c r="C857" s="4"/>
-      <c r="D857" s="4"/>
+      <c r="C857" s="5"/>
+      <c r="D857" s="5"/>
     </row>
     <row r="858">
-      <c r="C858" s="4"/>
-      <c r="D858" s="4"/>
+      <c r="C858" s="5"/>
+      <c r="D858" s="5"/>
     </row>
     <row r="859">
-      <c r="C859" s="4"/>
-      <c r="D859" s="4"/>
+      <c r="C859" s="5"/>
+      <c r="D859" s="5"/>
     </row>
     <row r="860">
-      <c r="C860" s="4"/>
-      <c r="D860" s="4"/>
+      <c r="C860" s="5"/>
+      <c r="D860" s="5"/>
     </row>
     <row r="861">
-      <c r="C861" s="4"/>
-      <c r="D861" s="4"/>
+      <c r="C861" s="5"/>
+      <c r="D861" s="5"/>
     </row>
     <row r="862">
-      <c r="C862" s="4"/>
-      <c r="D862" s="4"/>
+      <c r="C862" s="5"/>
+      <c r="D862" s="5"/>
     </row>
     <row r="863">
-      <c r="C863" s="4"/>
-      <c r="D863" s="4"/>
+      <c r="C863" s="5"/>
+      <c r="D863" s="5"/>
     </row>
     <row r="864">
-      <c r="C864" s="4"/>
-      <c r="D864" s="4"/>
+      <c r="C864" s="5"/>
+      <c r="D864" s="5"/>
     </row>
     <row r="865">
-      <c r="C865" s="4"/>
-      <c r="D865" s="4"/>
+      <c r="C865" s="5"/>
+      <c r="D865" s="5"/>
     </row>
     <row r="866">
-      <c r="C866" s="4"/>
-      <c r="D866" s="4"/>
+      <c r="C866" s="5"/>
+      <c r="D866" s="5"/>
     </row>
     <row r="867">
-      <c r="C867" s="4"/>
-      <c r="D867" s="4"/>
+      <c r="C867" s="5"/>
+      <c r="D867" s="5"/>
     </row>
     <row r="868">
-      <c r="C868" s="4"/>
-      <c r="D868" s="4"/>
+      <c r="C868" s="5"/>
+      <c r="D868" s="5"/>
     </row>
     <row r="869">
-      <c r="C869" s="4"/>
-      <c r="D869" s="4"/>
+      <c r="C869" s="5"/>
+      <c r="D869" s="5"/>
     </row>
     <row r="870">
-      <c r="C870" s="4"/>
-      <c r="D870" s="4"/>
+      <c r="C870" s="5"/>
+      <c r="D870" s="5"/>
     </row>
     <row r="871">
-      <c r="C871" s="4"/>
-      <c r="D871" s="4"/>
+      <c r="C871" s="5"/>
+      <c r="D871" s="5"/>
     </row>
     <row r="872">
-      <c r="C872" s="4"/>
-      <c r="D872" s="4"/>
+      <c r="C872" s="5"/>
+      <c r="D872" s="5"/>
     </row>
     <row r="873">
-      <c r="C873" s="4"/>
-      <c r="D873" s="4"/>
+      <c r="C873" s="5"/>
+      <c r="D873" s="5"/>
     </row>
     <row r="874">
-      <c r="C874" s="4"/>
-      <c r="D874" s="4"/>
+      <c r="C874" s="5"/>
+      <c r="D874" s="5"/>
     </row>
     <row r="875">
-      <c r="C875" s="4"/>
-      <c r="D875" s="4"/>
+      <c r="C875" s="5"/>
+      <c r="D875" s="5"/>
     </row>
     <row r="876">
-      <c r="C876" s="4"/>
-      <c r="D876" s="4"/>
+      <c r="C876" s="5"/>
+      <c r="D876" s="5"/>
     </row>
     <row r="877">
-      <c r="C877" s="4"/>
-      <c r="D877" s="4"/>
+      <c r="C877" s="5"/>
+      <c r="D877" s="5"/>
     </row>
     <row r="878">
-      <c r="C878" s="4"/>
-      <c r="D878" s="4"/>
+      <c r="C878" s="5"/>
+      <c r="D878" s="5"/>
     </row>
     <row r="879">
-      <c r="C879" s="4"/>
-      <c r="D879" s="4"/>
+      <c r="C879" s="5"/>
+      <c r="D879" s="5"/>
     </row>
     <row r="880">
-      <c r="C880" s="4"/>
-      <c r="D880" s="4"/>
+      <c r="C880" s="5"/>
+      <c r="D880" s="5"/>
     </row>
     <row r="881">
-      <c r="C881" s="4"/>
-      <c r="D881" s="4"/>
+      <c r="C881" s="5"/>
+      <c r="D881" s="5"/>
     </row>
     <row r="882">
-      <c r="C882" s="4"/>
-      <c r="D882" s="4"/>
+      <c r="C882" s="5"/>
+      <c r="D882" s="5"/>
     </row>
     <row r="883">
-      <c r="C883" s="4"/>
-      <c r="D883" s="4"/>
+      <c r="C883" s="5"/>
+      <c r="D883" s="5"/>
     </row>
     <row r="884">
-      <c r="C884" s="4"/>
-      <c r="D884" s="4"/>
+      <c r="C884" s="5"/>
+      <c r="D884" s="5"/>
     </row>
     <row r="885">
-      <c r="C885" s="4"/>
-      <c r="D885" s="4"/>
+      <c r="C885" s="5"/>
+      <c r="D885" s="5"/>
     </row>
     <row r="886">
-      <c r="C886" s="4"/>
-      <c r="D886" s="4"/>
+      <c r="C886" s="5"/>
+      <c r="D886" s="5"/>
     </row>
     <row r="887">
-      <c r="C887" s="4"/>
-      <c r="D887" s="4"/>
+      <c r="C887" s="5"/>
+      <c r="D887" s="5"/>
     </row>
     <row r="888">
-      <c r="C888" s="4"/>
-      <c r="D888" s="4"/>
+      <c r="C888" s="5"/>
+      <c r="D888" s="5"/>
     </row>
     <row r="889">
-      <c r="C889" s="4"/>
-      <c r="D889" s="4"/>
+      <c r="C889" s="5"/>
+      <c r="D889" s="5"/>
     </row>
     <row r="890">
-      <c r="C890" s="4"/>
-      <c r="D890" s="4"/>
+      <c r="C890" s="5"/>
+      <c r="D890" s="5"/>
     </row>
     <row r="891">
-      <c r="C891" s="4"/>
-      <c r="D891" s="4"/>
+      <c r="C891" s="5"/>
+      <c r="D891" s="5"/>
     </row>
     <row r="892">
-      <c r="C892" s="4"/>
-      <c r="D892" s="4"/>
+      <c r="C892" s="5"/>
+      <c r="D892" s="5"/>
     </row>
     <row r="893">
-      <c r="C893" s="4"/>
-      <c r="D893" s="4"/>
+      <c r="C893" s="5"/>
+      <c r="D893" s="5"/>
     </row>
     <row r="894">
-      <c r="C894" s="4"/>
-      <c r="D894" s="4"/>
+      <c r="C894" s="5"/>
+      <c r="D894" s="5"/>
     </row>
     <row r="895">
-      <c r="C895" s="4"/>
-      <c r="D895" s="4"/>
+      <c r="C895" s="5"/>
+      <c r="D895" s="5"/>
     </row>
     <row r="896">
-      <c r="C896" s="4"/>
-      <c r="D896" s="4"/>
+      <c r="C896" s="5"/>
+      <c r="D896" s="5"/>
     </row>
     <row r="897">
-      <c r="C897" s="4"/>
-      <c r="D897" s="4"/>
+      <c r="C897" s="5"/>
+      <c r="D897" s="5"/>
     </row>
     <row r="898">
-      <c r="C898" s="4"/>
-      <c r="D898" s="4"/>
+      <c r="C898" s="5"/>
+      <c r="D898" s="5"/>
     </row>
     <row r="899">
-      <c r="C899" s="4"/>
-      <c r="D899" s="4"/>
+      <c r="C899" s="5"/>
+      <c r="D899" s="5"/>
     </row>
     <row r="900">
-      <c r="C900" s="4"/>
-      <c r="D900" s="4"/>
+      <c r="C900" s="5"/>
+      <c r="D900" s="5"/>
     </row>
     <row r="901">
-      <c r="C901" s="4"/>
-      <c r="D901" s="4"/>
+      <c r="C901" s="5"/>
+      <c r="D901" s="5"/>
     </row>
     <row r="902">
-      <c r="C902" s="4"/>
-      <c r="D902" s="4"/>
+      <c r="C902" s="5"/>
+      <c r="D902" s="5"/>
     </row>
     <row r="903">
-      <c r="C903" s="4"/>
-      <c r="D903" s="4"/>
+      <c r="C903" s="5"/>
+      <c r="D903" s="5"/>
     </row>
     <row r="904">
-      <c r="C904" s="4"/>
-      <c r="D904" s="4"/>
+      <c r="C904" s="5"/>
+      <c r="D904" s="5"/>
     </row>
     <row r="905">
-      <c r="C905" s="4"/>
-      <c r="D905" s="4"/>
+      <c r="C905" s="5"/>
+      <c r="D905" s="5"/>
     </row>
     <row r="906">
-      <c r="C906" s="4"/>
-      <c r="D906" s="4"/>
+      <c r="C906" s="5"/>
+      <c r="D906" s="5"/>
     </row>
     <row r="907">
-      <c r="C907" s="4"/>
-      <c r="D907" s="4"/>
+      <c r="C907" s="5"/>
+      <c r="D907" s="5"/>
     </row>
     <row r="908">
-      <c r="C908" s="4"/>
-      <c r="D908" s="4"/>
+      <c r="C908" s="5"/>
+      <c r="D908" s="5"/>
     </row>
     <row r="909">
-      <c r="C909" s="4"/>
-      <c r="D909" s="4"/>
+      <c r="C909" s="5"/>
+      <c r="D909" s="5"/>
     </row>
     <row r="910">
-      <c r="C910" s="4"/>
-      <c r="D910" s="4"/>
+      <c r="C910" s="5"/>
+      <c r="D910" s="5"/>
     </row>
     <row r="911">
-      <c r="C911" s="4"/>
-      <c r="D911" s="4"/>
+      <c r="C911" s="5"/>
+      <c r="D911" s="5"/>
     </row>
     <row r="912">
-      <c r="C912" s="4"/>
-      <c r="D912" s="4"/>
+      <c r="C912" s="5"/>
+      <c r="D912" s="5"/>
     </row>
     <row r="913">
-      <c r="C913" s="4"/>
-      <c r="D913" s="4"/>
+      <c r="C913" s="5"/>
+      <c r="D913" s="5"/>
     </row>
     <row r="914">
-      <c r="C914" s="4"/>
-      <c r="D914" s="4"/>
+      <c r="C914" s="5"/>
+      <c r="D914" s="5"/>
     </row>
     <row r="915">
-      <c r="C915" s="4"/>
-      <c r="D915" s="4"/>
+      <c r="C915" s="5"/>
+      <c r="D915" s="5"/>
     </row>
     <row r="916">
-      <c r="C916" s="4"/>
-      <c r="D916" s="4"/>
+      <c r="C916" s="5"/>
+      <c r="D916" s="5"/>
     </row>
     <row r="917">
-      <c r="C917" s="4"/>
-      <c r="D917" s="4"/>
+      <c r="C917" s="5"/>
+      <c r="D917" s="5"/>
     </row>
     <row r="918">
-      <c r="C918" s="4"/>
-      <c r="D918" s="4"/>
+      <c r="C918" s="5"/>
+      <c r="D918" s="5"/>
     </row>
     <row r="919">
-      <c r="C919" s="4"/>
-      <c r="D919" s="4"/>
+      <c r="C919" s="5"/>
+      <c r="D919" s="5"/>
     </row>
     <row r="920">
-      <c r="C920" s="4"/>
-      <c r="D920" s="4"/>
+      <c r="C920" s="5"/>
+      <c r="D920" s="5"/>
     </row>
     <row r="921">
-      <c r="C921" s="4"/>
-      <c r="D921" s="4"/>
+      <c r="C921" s="5"/>
+      <c r="D921" s="5"/>
     </row>
     <row r="922">
-      <c r="C922" s="4"/>
-      <c r="D922" s="4"/>
+      <c r="C922" s="5"/>
+      <c r="D922" s="5"/>
     </row>
     <row r="923">
-      <c r="C923" s="4"/>
-      <c r="D923" s="4"/>
+      <c r="C923" s="5"/>
+      <c r="D923" s="5"/>
     </row>
     <row r="924">
-      <c r="C924" s="4"/>
-      <c r="D924" s="4"/>
+      <c r="C924" s="5"/>
+      <c r="D924" s="5"/>
     </row>
     <row r="925">
-      <c r="C925" s="4"/>
-      <c r="D925" s="4"/>
+      <c r="C925" s="5"/>
+      <c r="D925" s="5"/>
     </row>
     <row r="926">
-      <c r="C926" s="4"/>
-      <c r="D926" s="4"/>
+      <c r="C926" s="5"/>
+      <c r="D926" s="5"/>
     </row>
     <row r="927">
-      <c r="C927" s="4"/>
-      <c r="D927" s="4"/>
+      <c r="C927" s="5"/>
+      <c r="D927" s="5"/>
     </row>
     <row r="928">
-      <c r="C928" s="4"/>
-      <c r="D928" s="4"/>
+      <c r="C928" s="5"/>
+      <c r="D928" s="5"/>
     </row>
     <row r="929">
-      <c r="C929" s="4"/>
-      <c r="D929" s="4"/>
+      <c r="C929" s="5"/>
+      <c r="D929" s="5"/>
     </row>
     <row r="930">
-      <c r="C930" s="4"/>
-      <c r="D930" s="4"/>
+      <c r="C930" s="5"/>
+      <c r="D930" s="5"/>
     </row>
     <row r="931">
-      <c r="C931" s="4"/>
-      <c r="D931" s="4"/>
+      <c r="C931" s="5"/>
+      <c r="D931" s="5"/>
     </row>
     <row r="932">
-      <c r="C932" s="4"/>
-      <c r="D932" s="4"/>
+      <c r="C932" s="5"/>
+      <c r="D932" s="5"/>
     </row>
     <row r="933">
-      <c r="C933" s="4"/>
-      <c r="D933" s="4"/>
+      <c r="C933" s="5"/>
+      <c r="D933" s="5"/>
     </row>
     <row r="934">
-      <c r="C934" s="4"/>
-      <c r="D934" s="4"/>
+      <c r="C934" s="5"/>
+      <c r="D934" s="5"/>
     </row>
     <row r="935">
-      <c r="C935" s="4"/>
-      <c r="D935" s="4"/>
+      <c r="C935" s="5"/>
+      <c r="D935" s="5"/>
     </row>
     <row r="936">
-      <c r="C936" s="4"/>
-      <c r="D936" s="4"/>
+      <c r="C936" s="5"/>
+      <c r="D936" s="5"/>
     </row>
     <row r="937">
-      <c r="C937" s="4"/>
-      <c r="D937" s="4"/>
+      <c r="C937" s="5"/>
+      <c r="D937" s="5"/>
     </row>
     <row r="938">
-      <c r="C938" s="4"/>
-      <c r="D938" s="4"/>
+      <c r="C938" s="5"/>
+      <c r="D938" s="5"/>
     </row>
     <row r="939">
-      <c r="C939" s="4"/>
-      <c r="D939" s="4"/>
+      <c r="C939" s="5"/>
+      <c r="D939" s="5"/>
     </row>
     <row r="940">
-      <c r="C940" s="4"/>
-      <c r="D940" s="4"/>
+      <c r="C940" s="5"/>
+      <c r="D940" s="5"/>
     </row>
     <row r="941">
-      <c r="C941" s="4"/>
-      <c r="D941" s="4"/>
+      <c r="C941" s="5"/>
+      <c r="D941" s="5"/>
     </row>
     <row r="942">
-      <c r="C942" s="4"/>
-      <c r="D942" s="4"/>
+      <c r="C942" s="5"/>
+      <c r="D942" s="5"/>
     </row>
     <row r="943">
-      <c r="C943" s="4"/>
-      <c r="D943" s="4"/>
+      <c r="C943" s="5"/>
+      <c r="D943" s="5"/>
     </row>
     <row r="944">
-      <c r="C944" s="4"/>
-      <c r="D944" s="4"/>
+      <c r="C944" s="5"/>
+      <c r="D944" s="5"/>
     </row>
     <row r="945">
-      <c r="C945" s="4"/>
-      <c r="D945" s="4"/>
+      <c r="C945" s="5"/>
+      <c r="D945" s="5"/>
     </row>
     <row r="946">
-      <c r="C946" s="4"/>
-      <c r="D946" s="4"/>
+      <c r="C946" s="5"/>
+      <c r="D946" s="5"/>
     </row>
     <row r="947">
-      <c r="C947" s="4"/>
-      <c r="D947" s="4"/>
+      <c r="C947" s="5"/>
+      <c r="D947" s="5"/>
     </row>
     <row r="948">
-      <c r="C948" s="4"/>
-      <c r="D948" s="4"/>
+      <c r="C948" s="5"/>
+      <c r="D948" s="5"/>
     </row>
     <row r="949">
-      <c r="C949" s="4"/>
-      <c r="D949" s="4"/>
+      <c r="C949" s="5"/>
+      <c r="D949" s="5"/>
     </row>
     <row r="950">
-      <c r="C950" s="4"/>
-      <c r="D950" s="4"/>
+      <c r="C950" s="5"/>
+      <c r="D950" s="5"/>
     </row>
     <row r="951">
-      <c r="C951" s="4"/>
-      <c r="D951" s="4"/>
+      <c r="C951" s="5"/>
+      <c r="D951" s="5"/>
     </row>
     <row r="952">
-      <c r="C952" s="4"/>
-      <c r="D952" s="4"/>
+      <c r="C952" s="5"/>
+      <c r="D952" s="5"/>
     </row>
     <row r="953">
-      <c r="C953" s="4"/>
-      <c r="D953" s="4"/>
+      <c r="C953" s="5"/>
+      <c r="D953" s="5"/>
     </row>
     <row r="954">
-      <c r="C954" s="4"/>
-      <c r="D954" s="4"/>
+      <c r="C954" s="5"/>
+      <c r="D954" s="5"/>
     </row>
     <row r="955">
-      <c r="C955" s="4"/>
-      <c r="D955" s="4"/>
+      <c r="C955" s="5"/>
+      <c r="D955" s="5"/>
     </row>
     <row r="956">
-      <c r="C956" s="4"/>
-      <c r="D956" s="4"/>
+      <c r="C956" s="5"/>
+      <c r="D956" s="5"/>
     </row>
     <row r="957">
-      <c r="C957" s="4"/>
-      <c r="D957" s="4"/>
+      <c r="C957" s="5"/>
+      <c r="D957" s="5"/>
     </row>
     <row r="958">
-      <c r="C958" s="4"/>
-      <c r="D958" s="4"/>
+      <c r="C958" s="5"/>
+      <c r="D958" s="5"/>
     </row>
     <row r="959">
-      <c r="C959" s="4"/>
-      <c r="D959" s="4"/>
+      <c r="C959" s="5"/>
+      <c r="D959" s="5"/>
     </row>
     <row r="960">
-      <c r="C960" s="4"/>
-      <c r="D960" s="4"/>
+      <c r="C960" s="5"/>
+      <c r="D960" s="5"/>
     </row>
     <row r="961">
-      <c r="C961" s="4"/>
-      <c r="D961" s="4"/>
+      <c r="C961" s="5"/>
+      <c r="D961" s="5"/>
     </row>
     <row r="962">
-      <c r="C962" s="4"/>
-      <c r="D962" s="4"/>
+      <c r="C962" s="5"/>
+      <c r="D962" s="5"/>
     </row>
     <row r="963">
-      <c r="C963" s="4"/>
-      <c r="D963" s="4"/>
+      <c r="C963" s="5"/>
+      <c r="D963" s="5"/>
     </row>
     <row r="964">
-      <c r="C964" s="4"/>
-      <c r="D964" s="4"/>
+      <c r="C964" s="5"/>
+      <c r="D964" s="5"/>
     </row>
     <row r="965">
-      <c r="C965" s="4"/>
-      <c r="D965" s="4"/>
+      <c r="C965" s="5"/>
+      <c r="D965" s="5"/>
     </row>
     <row r="966">
-      <c r="C966" s="4"/>
-      <c r="D966" s="4"/>
+      <c r="C966" s="5"/>
+      <c r="D966" s="5"/>
     </row>
     <row r="967">
-      <c r="C967" s="4"/>
-      <c r="D967" s="4"/>
+      <c r="C967" s="5"/>
+      <c r="D967" s="5"/>
     </row>
     <row r="968">
-      <c r="C968" s="4"/>
-      <c r="D968" s="4"/>
+      <c r="C968" s="5"/>
+      <c r="D968" s="5"/>
     </row>
     <row r="969">
-      <c r="C969" s="4"/>
-      <c r="D969" s="4"/>
+      <c r="C969" s="5"/>
+      <c r="D969" s="5"/>
     </row>
     <row r="970">
-      <c r="C970" s="4"/>
-      <c r="D970" s="4"/>
+      <c r="C970" s="5"/>
+      <c r="D970" s="5"/>
     </row>
     <row r="971">
-      <c r="C971" s="4"/>
-      <c r="D971" s="4"/>
+      <c r="C971" s="5"/>
+      <c r="D971" s="5"/>
     </row>
     <row r="972">
-      <c r="C972" s="4"/>
-      <c r="D972" s="4"/>
+      <c r="C972" s="5"/>
+      <c r="D972" s="5"/>
     </row>
     <row r="973">
-      <c r="C973" s="4"/>
-      <c r="D973" s="4"/>
+      <c r="C973" s="5"/>
+      <c r="D973" s="5"/>
     </row>
     <row r="974">
-      <c r="C974" s="4"/>
-      <c r="D974" s="4"/>
+      <c r="C974" s="5"/>
+      <c r="D974" s="5"/>
     </row>
     <row r="975">
-      <c r="C975" s="4"/>
-      <c r="D975" s="4"/>
+      <c r="C975" s="5"/>
+      <c r="D975" s="5"/>
     </row>
     <row r="976">
-      <c r="C976" s="4"/>
-      <c r="D976" s="4"/>
+      <c r="C976" s="5"/>
+      <c r="D976" s="5"/>
     </row>
     <row r="977">
-      <c r="C977" s="4"/>
-      <c r="D977" s="4"/>
+      <c r="C977" s="5"/>
+      <c r="D977" s="5"/>
     </row>
     <row r="978">
-      <c r="C978" s="4"/>
-      <c r="D978" s="4"/>
+      <c r="C978" s="5"/>
+      <c r="D978" s="5"/>
     </row>
     <row r="979">
-      <c r="C979" s="4"/>
-      <c r="D979" s="4"/>
+      <c r="C979" s="5"/>
+      <c r="D979" s="5"/>
     </row>
     <row r="980">
-      <c r="C980" s="4"/>
-      <c r="D980" s="4"/>
+      <c r="C980" s="5"/>
+      <c r="D980" s="5"/>
     </row>
     <row r="981">
-      <c r="C981" s="4"/>
-      <c r="D981" s="4"/>
+      <c r="C981" s="5"/>
+      <c r="D981" s="5"/>
     </row>
     <row r="982">
-      <c r="C982" s="4"/>
-      <c r="D982" s="4"/>
+      <c r="C982" s="5"/>
+      <c r="D982" s="5"/>
     </row>
     <row r="983">
-      <c r="C983" s="4"/>
-      <c r="D983" s="4"/>
+      <c r="C983" s="5"/>
+      <c r="D983" s="5"/>
     </row>
     <row r="984">
-      <c r="C984" s="4"/>
-      <c r="D984" s="4"/>
+      <c r="C984" s="5"/>
+      <c r="D984" s="5"/>
     </row>
     <row r="985">
-      <c r="C985" s="4"/>
-      <c r="D985" s="4"/>
+      <c r="C985" s="5"/>
+      <c r="D985" s="5"/>
     </row>
     <row r="986">
-      <c r="C986" s="4"/>
-      <c r="D986" s="4"/>
+      <c r="C986" s="5"/>
+      <c r="D986" s="5"/>
     </row>
     <row r="987">
-      <c r="C987" s="4"/>
-      <c r="D987" s="4"/>
+      <c r="C987" s="5"/>
+      <c r="D987" s="5"/>
     </row>
     <row r="988">
-      <c r="C988" s="4"/>
-      <c r="D988" s="4"/>
+      <c r="C988" s="5"/>
+      <c r="D988" s="5"/>
     </row>
     <row r="989">
-      <c r="C989" s="4"/>
-      <c r="D989" s="4"/>
+      <c r="C989" s="5"/>
+      <c r="D989" s="5"/>
     </row>
     <row r="990">
-      <c r="C990" s="4"/>
-      <c r="D990" s="4"/>
+      <c r="C990" s="5"/>
+      <c r="D990" s="5"/>
     </row>
     <row r="991">
-      <c r="C991" s="4"/>
-      <c r="D991" s="4"/>
+      <c r="C991" s="5"/>
+      <c r="D991" s="5"/>
     </row>
     <row r="992">
-      <c r="C992" s="4"/>
-      <c r="D992" s="4"/>
+      <c r="C992" s="5"/>
+      <c r="D992" s="5"/>
     </row>
     <row r="993">
-      <c r="C993" s="4"/>
-      <c r="D993" s="4"/>
+      <c r="C993" s="5"/>
+      <c r="D993" s="5"/>
     </row>
     <row r="994">
-      <c r="C994" s="4"/>
-      <c r="D994" s="4"/>
+      <c r="C994" s="5"/>
+      <c r="D994" s="5"/>
     </row>
     <row r="995">
-      <c r="C995" s="4"/>
-      <c r="D995" s="4"/>
+      <c r="C995" s="5"/>
+      <c r="D995" s="5"/>
     </row>
     <row r="996">
-      <c r="C996" s="4"/>
-      <c r="D996" s="4"/>
+      <c r="C996" s="5"/>
+      <c r="D996" s="5"/>
     </row>
     <row r="997">
-      <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
+      <c r="C997" s="5"/>
+      <c r="D997" s="5"/>
     </row>
     <row r="998">
-      <c r="C998" s="4"/>
-      <c r="D998" s="4"/>
+      <c r="C998" s="5"/>
+      <c r="D998" s="5"/>
     </row>
     <row r="999">
-      <c r="C999" s="4"/>
-      <c r="D999" s="4"/>
+      <c r="C999" s="5"/>
+      <c r="D999" s="5"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
+      <c r="C1000" s="5"/>
+      <c r="D1000" s="5"/>
     </row>
     <row r="1001">
-      <c r="C1001" s="4"/>
-      <c r="D1001" s="4"/>
+      <c r="C1001" s="5"/>
+      <c r="D1001" s="5"/>
     </row>
     <row r="1002">
-      <c r="C1002" s="4"/>
-      <c r="D1002" s="4"/>
+      <c r="C1002" s="5"/>
+      <c r="D1002" s="5"/>
     </row>
     <row r="1003">
-      <c r="C1003" s="4"/>
-      <c r="D1003" s="4"/>
+      <c r="C1003" s="5"/>
+      <c r="D1003" s="5"/>
     </row>
     <row r="1004">
-      <c r="C1004" s="4"/>
-      <c r="D1004" s="4"/>
+      <c r="C1004" s="5"/>
+      <c r="D1004" s="5"/>
     </row>
     <row r="1005">
-      <c r="C1005" s="4"/>
-      <c r="D1005" s="4"/>
+      <c r="C1005" s="5"/>
+      <c r="D1005" s="5"/>
     </row>
     <row r="1006">
-      <c r="C1006" s="4"/>
-      <c r="D1006" s="4"/>
+      <c r="C1006" s="5"/>
+      <c r="D1006" s="5"/>
     </row>
     <row r="1007">
-      <c r="C1007" s="4"/>
-      <c r="D1007" s="4"/>
+      <c r="C1007" s="5"/>
+      <c r="D1007" s="5"/>
     </row>
     <row r="1008">
-      <c r="C1008" s="4"/>
-      <c r="D1008" s="4"/>
+      <c r="C1008" s="5"/>
+      <c r="D1008" s="5"/>
     </row>
     <row r="1009">
-      <c r="C1009" s="4"/>
-      <c r="D1009" s="4"/>
+      <c r="C1009" s="5"/>
+      <c r="D1009" s="5"/>
     </row>
     <row r="1010">
-      <c r="C1010" s="4"/>
-      <c r="D1010" s="4"/>
+      <c r="C1010" s="5"/>
+      <c r="D1010" s="5"/>
     </row>
     <row r="1011">
-      <c r="C1011" s="4"/>
-      <c r="D1011" s="4"/>
+      <c r="C1011" s="5"/>
+      <c r="D1011" s="5"/>
     </row>
     <row r="1012">
-      <c r="C1012" s="4"/>
-      <c r="D1012" s="4"/>
+      <c r="C1012" s="5"/>
+      <c r="D1012" s="5"/>
     </row>
     <row r="1013">
-      <c r="C1013" s="4"/>
-      <c r="D1013" s="4"/>
+      <c r="C1013" s="5"/>
+      <c r="D1013" s="5"/>
     </row>
     <row r="1014">
-      <c r="C1014" s="4"/>
-      <c r="D1014" s="4"/>
+      <c r="C1014" s="5"/>
+      <c r="D1014" s="5"/>
     </row>
     <row r="1015">
-      <c r="C1015" s="4"/>
-      <c r="D1015" s="4"/>
+      <c r="C1015" s="5"/>
+      <c r="D1015" s="5"/>
     </row>
     <row r="1016">
-      <c r="C1016" s="4"/>
-      <c r="D1016" s="4"/>
+      <c r="C1016" s="5"/>
+      <c r="D1016" s="5"/>
     </row>
     <row r="1017">
-      <c r="C1017" s="4"/>
-      <c r="D1017" s="4"/>
+      <c r="C1017" s="5"/>
+      <c r="D1017" s="5"/>
     </row>
     <row r="1018">
-      <c r="C1018" s="4"/>
-      <c r="D1018" s="4"/>
+      <c r="C1018" s="5"/>
+      <c r="D1018" s="5"/>
     </row>
     <row r="1019">
-      <c r="C1019" s="4"/>
-      <c r="D1019" s="4"/>
+      <c r="C1019" s="5"/>
+      <c r="D1019" s="5"/>
     </row>
     <row r="1020">
-      <c r="C1020" s="4"/>
-      <c r="D1020" s="4"/>
+      <c r="C1020" s="5"/>
+      <c r="D1020" s="5"/>
     </row>
     <row r="1021">
-      <c r="C1021" s="4"/>
-      <c r="D1021" s="4"/>
+      <c r="C1021" s="5"/>
+      <c r="D1021" s="5"/>
     </row>
     <row r="1022">
-      <c r="C1022" s="4"/>
-      <c r="D1022" s="4"/>
+      <c r="C1022" s="5"/>
+      <c r="D1022" s="5"/>
     </row>
     <row r="1023">
-      <c r="C1023" s="4"/>
-      <c r="D1023" s="4"/>
+      <c r="C1023" s="5"/>
+      <c r="D1023" s="5"/>
     </row>
     <row r="1024">
-      <c r="C1024" s="4"/>
-      <c r="D1024" s="4"/>
+      <c r="C1024" s="5"/>
+      <c r="D1024" s="5"/>
     </row>
     <row r="1025">
-      <c r="C1025" s="4"/>
-      <c r="D1025" s="4"/>
+      <c r="C1025" s="5"/>
+      <c r="D1025" s="5"/>
     </row>
     <row r="1026">
-      <c r="C1026" s="4"/>
-      <c r="D1026" s="4"/>
+      <c r="C1026" s="5"/>
+      <c r="D1026" s="5"/>
     </row>
     <row r="1027">
-      <c r="C1027" s="4"/>
-      <c r="D1027" s="4"/>
+      <c r="C1027" s="5"/>
+      <c r="D1027" s="5"/>
     </row>
     <row r="1028">
-      <c r="C1028" s="4"/>
-      <c r="D1028" s="4"/>
+      <c r="C1028" s="5"/>
+      <c r="D1028" s="5"/>
     </row>
     <row r="1029">
-      <c r="C1029" s="4"/>
-      <c r="D1029" s="4"/>
+      <c r="C1029" s="5"/>
+      <c r="D1029" s="5"/>
     </row>
     <row r="1030">
-      <c r="C1030" s="4"/>
-      <c r="D1030" s="4"/>
+      <c r="C1030" s="5"/>
+      <c r="D1030" s="5"/>
     </row>
     <row r="1031">
-      <c r="C1031" s="4"/>
-      <c r="D1031" s="4"/>
+      <c r="C1031" s="5"/>
+      <c r="D1031" s="5"/>
     </row>
     <row r="1032">
-      <c r="C1032" s="4"/>
-      <c r="D1032" s="4"/>
+      <c r="C1032" s="5"/>
+      <c r="D1032" s="5"/>
     </row>
     <row r="1033">
-      <c r="C1033" s="4"/>
-      <c r="D1033" s="4"/>
+      <c r="C1033" s="5"/>
+      <c r="D1033" s="5"/>
     </row>
     <row r="1034">
-      <c r="C1034" s="4"/>
-      <c r="D1034" s="4"/>
+      <c r="C1034" s="5"/>
+      <c r="D1034" s="5"/>
     </row>
     <row r="1035">
-      <c r="C1035" s="4"/>
-      <c r="D1035" s="4"/>
+      <c r="C1035" s="5"/>
+      <c r="D1035" s="5"/>
     </row>
     <row r="1036">
-      <c r="C1036" s="4"/>
-      <c r="D1036" s="4"/>
+      <c r="C1036" s="5"/>
+      <c r="D1036" s="5"/>
     </row>
     <row r="1037">
-      <c r="C1037" s="4"/>
-      <c r="D1037" s="4"/>
+      <c r="C1037" s="5"/>
+      <c r="D1037" s="5"/>
     </row>
     <row r="1038">
-      <c r="C1038" s="4"/>
-      <c r="D1038" s="4"/>
+      <c r="C1038" s="5"/>
+      <c r="D1038" s="5"/>
     </row>
     <row r="1039">
-      <c r="C1039" s="4"/>
-      <c r="D1039" s="4"/>
+      <c r="C1039" s="5"/>
+      <c r="D1039" s="5"/>
     </row>
     <row r="1040">
-      <c r="C1040" s="4"/>
-      <c r="D1040" s="4"/>
+      <c r="C1040" s="5"/>
+      <c r="D1040" s="5"/>
     </row>
     <row r="1041">
-      <c r="C1041" s="4"/>
-      <c r="D1041" s="4"/>
+      <c r="C1041" s="5"/>
+      <c r="D1041" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
